--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\Simulador_Tarifarios\Com_Gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\Simulador_Tarifarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28954C76-F140-472E-897D-DF53CE727B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B90DF-A37B-46F7-ADD3-154254491082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,18 +227,9 @@
     <t>Galp &amp; Continente (-10% DD)</t>
   </si>
   <si>
-    <t>Galp Plano Casa e Estrada 4% 1 energia s/DD</t>
-  </si>
-  <si>
     <t>https://casa.galp.pt/planos-eletricidade-e-gas/casa-estrada</t>
   </si>
   <si>
-    <t>Galp Plano Casa e Estrada 6% 1 energia DD (ou 2 energia s/DD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galp Plano Casa e Estrada 8% 2 energias DD </t>
-  </si>
-  <si>
     <t>Galp Plano Flexível - Gás</t>
   </si>
   <si>
@@ -1023,6 +1014,15 @@
   </si>
   <si>
     <t>GE_Gas_CG</t>
+  </si>
+  <si>
+    <t>Galp Casa &amp; Estrada (- 4% 1 energia s/DD)</t>
+  </si>
+  <si>
+    <t>Galp Casa &amp; Estrada (- 8% 2 energias c/DD)</t>
+  </si>
+  <si>
+    <t>Galp Casa &amp; Estrada (- 6% 1 energia c/DD ou 2 energias s/DD)</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1087,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L14" sqref="A14:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4379,8 +4380,8 @@
       <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>67</v>
+      <c r="B72" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -4413,15 +4414,15 @@
         <v>23</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
-      <c r="B73" t="s">
-        <v>67</v>
+      <c r="B73" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -4454,15 +4455,15 @@
         <v>23</v>
       </c>
       <c r="O73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
-      <c r="B74" t="s">
-        <v>67</v>
+      <c r="B74" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -4495,15 +4496,15 @@
         <v>23</v>
       </c>
       <c r="O74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>63</v>
       </c>
-      <c r="B75" t="s">
-        <v>67</v>
+      <c r="B75" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -4536,7 +4537,7 @@
         <v>23</v>
       </c>
       <c r="O75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -4544,7 +4545,7 @@
         <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -4577,7 +4578,7 @@
         <v>23</v>
       </c>
       <c r="O76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -4585,7 +4586,7 @@
         <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -4618,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="O77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -4626,7 +4627,7 @@
         <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -4659,7 +4660,7 @@
         <v>23</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -4667,7 +4668,7 @@
         <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4700,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="O79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -4708,7 +4709,7 @@
         <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -4741,7 +4742,7 @@
         <v>23</v>
       </c>
       <c r="O80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -4749,7 +4750,7 @@
         <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -4782,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="O81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -4790,7 +4791,7 @@
         <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -4823,7 +4824,7 @@
         <v>23</v>
       </c>
       <c r="O82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -4831,7 +4832,7 @@
         <v>63</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -4864,7 +4865,7 @@
         <v>23</v>
       </c>
       <c r="O83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -4872,7 +4873,7 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
         <v>45</v>
@@ -4905,7 +4906,7 @@
         <v>36</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -4913,7 +4914,7 @@
         <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
@@ -4946,7 +4947,7 @@
         <v>36</v>
       </c>
       <c r="O85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -4954,7 +4955,7 @@
         <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
         <v>45</v>
@@ -4987,7 +4988,7 @@
         <v>36</v>
       </c>
       <c r="O86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -4995,7 +4996,7 @@
         <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
@@ -5028,15 +5029,15 @@
         <v>36</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -5069,15 +5070,15 @@
         <v>23</v>
       </c>
       <c r="O88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -5110,15 +5111,15 @@
         <v>23</v>
       </c>
       <c r="O89" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -5151,15 +5152,15 @@
         <v>23</v>
       </c>
       <c r="O90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -5192,15 +5193,15 @@
         <v>23</v>
       </c>
       <c r="O91" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
         <v>73</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -5233,15 +5234,15 @@
         <v>23</v>
       </c>
       <c r="O92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
         <v>73</v>
-      </c>
-      <c r="B93" t="s">
-        <v>76</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -5274,15 +5275,15 @@
         <v>23</v>
       </c>
       <c r="O93" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
         <v>73</v>
-      </c>
-      <c r="B94" t="s">
-        <v>76</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -5315,15 +5316,15 @@
         <v>23</v>
       </c>
       <c r="O94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
         <v>73</v>
-      </c>
-      <c r="B95" t="s">
-        <v>76</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -5356,15 +5357,15 @@
         <v>23</v>
       </c>
       <c r="O95" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -5397,15 +5398,15 @@
         <v>23</v>
       </c>
       <c r="O96" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -5438,15 +5439,15 @@
         <v>23</v>
       </c>
       <c r="O97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -5479,15 +5480,15 @@
         <v>23</v>
       </c>
       <c r="O98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -5520,15 +5521,15 @@
         <v>23</v>
       </c>
       <c r="O99" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -5561,15 +5562,15 @@
         <v>23</v>
       </c>
       <c r="O100" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -5602,15 +5603,15 @@
         <v>23</v>
       </c>
       <c r="O101" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -5643,15 +5644,15 @@
         <v>23</v>
       </c>
       <c r="O102" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -5684,15 +5685,15 @@
         <v>23</v>
       </c>
       <c r="O103" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -5725,15 +5726,15 @@
         <v>23</v>
       </c>
       <c r="O104" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -5766,15 +5767,15 @@
         <v>23</v>
       </c>
       <c r="O105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -5807,15 +5808,15 @@
         <v>23</v>
       </c>
       <c r="O106" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -5848,15 +5849,15 @@
         <v>23</v>
       </c>
       <c r="O107" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -5889,15 +5890,15 @@
         <v>23</v>
       </c>
       <c r="O108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -5930,15 +5931,15 @@
         <v>23</v>
       </c>
       <c r="O109" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -5971,15 +5972,15 @@
         <v>23</v>
       </c>
       <c r="O110" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -6012,15 +6013,15 @@
         <v>23</v>
       </c>
       <c r="O111" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -6053,15 +6054,15 @@
         <v>36</v>
       </c>
       <c r="O112" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D113" t="s">
         <v>45</v>
@@ -6094,15 +6095,15 @@
         <v>36</v>
       </c>
       <c r="O113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -6135,15 +6136,15 @@
         <v>36</v>
       </c>
       <c r="O114" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
         <v>45</v>
@@ -6176,15 +6177,15 @@
         <v>36</v>
       </c>
       <c r="O115" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -6217,15 +6218,15 @@
         <v>23</v>
       </c>
       <c r="O116" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -6258,15 +6259,15 @@
         <v>23</v>
       </c>
       <c r="O117" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -6299,15 +6300,15 @@
         <v>23</v>
       </c>
       <c r="O118" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -6340,15 +6341,15 @@
         <v>23</v>
       </c>
       <c r="O119" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s">
         <v>82</v>
-      </c>
-      <c r="B120" t="s">
-        <v>85</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -6381,15 +6382,15 @@
         <v>23</v>
       </c>
       <c r="O120" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" t="s">
         <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>85</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
@@ -6422,15 +6423,15 @@
         <v>23</v>
       </c>
       <c r="O121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" t="s">
         <v>82</v>
-      </c>
-      <c r="B122" t="s">
-        <v>85</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -6463,15 +6464,15 @@
         <v>23</v>
       </c>
       <c r="O122" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" t="s">
         <v>82</v>
-      </c>
-      <c r="B123" t="s">
-        <v>85</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -6504,15 +6505,15 @@
         <v>23</v>
       </c>
       <c r="O123" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -6545,15 +6546,15 @@
         <v>23</v>
       </c>
       <c r="O124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -6586,15 +6587,15 @@
         <v>23</v>
       </c>
       <c r="O125" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -6627,15 +6628,15 @@
         <v>23</v>
       </c>
       <c r="O126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -6668,15 +6669,15 @@
         <v>23</v>
       </c>
       <c r="O127" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -6709,15 +6710,15 @@
         <v>23</v>
       </c>
       <c r="O128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
@@ -6750,15 +6751,15 @@
         <v>23</v>
       </c>
       <c r="O129" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
@@ -6791,15 +6792,15 @@
         <v>23</v>
       </c>
       <c r="O130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
         <v>18</v>
@@ -6832,15 +6833,15 @@
         <v>23</v>
       </c>
       <c r="O131" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
         <v>45</v>
@@ -6873,15 +6874,15 @@
         <v>36</v>
       </c>
       <c r="O132" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -6914,15 +6915,15 @@
         <v>36</v>
       </c>
       <c r="O133" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
         <v>45</v>
@@ -6955,15 +6956,15 @@
         <v>36</v>
       </c>
       <c r="O134" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -6996,15 +6997,15 @@
         <v>36</v>
       </c>
       <c r="O135" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B136" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -7037,15 +7038,15 @@
         <v>23</v>
       </c>
       <c r="O136" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -7078,15 +7079,15 @@
         <v>23</v>
       </c>
       <c r="O137" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -7119,15 +7120,15 @@
         <v>23</v>
       </c>
       <c r="O138" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>90</v>
+      </c>
+      <c r="B139" t="s">
         <v>93</v>
-      </c>
-      <c r="B139" t="s">
-        <v>96</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -7160,7 +7161,7 @@
         <v>23</v>
       </c>
       <c r="O139" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7178,10 +7179,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -18887,15 +18888,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1">
         <v>45925</v>
@@ -18926,19 +18927,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -18946,47 +18947,47 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
         <v>110</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -18995,18 +18996,18 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -19015,18 +19016,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -19035,18 +19036,18 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -19055,18 +19056,18 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>3.2280199999999998E-3</v>
@@ -19075,38 +19076,38 @@
         <v>2.7730099999999998E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -19115,18 +19116,18 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>4.1632400000000003E-3</v>
@@ -19135,18 +19136,18 @@
         <v>3.5764E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -19155,18 +19156,18 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -19175,18 +19176,18 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>2.2481300000000001E-3</v>
@@ -19195,18 +19196,18 @@
         <v>1.9312400000000001E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>8.5873900000000003E-3</v>
@@ -19215,18 +19216,18 @@
         <v>7.3769500000000002E-3</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -19235,18 +19236,18 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -19255,18 +19256,18 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -19275,18 +19276,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>1.438013E-2</v>
@@ -19295,18 +19296,18 @@
         <v>1.235316E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>4.0316099999999997E-3</v>
@@ -19315,18 +19316,18 @@
         <v>3.4633300000000001E-3</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>6.6959899999999998E-3</v>
@@ -19335,18 +19336,18 @@
         <v>5.7521500000000001E-3</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -19355,18 +19356,18 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <v>3.3400000000000002E-6</v>
@@ -19375,18 +19376,18 @@
         <v>2.8700000000000001E-6</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B24">
         <v>3.5539590000000003E-2</v>
@@ -19395,18 +19396,18 @@
         <v>3.0530069999999999E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -19415,18 +19416,18 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -19435,18 +19436,18 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -19455,18 +19456,18 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -19475,18 +19476,18 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29">
         <v>7.3994999999999996E-4</v>
@@ -19495,18 +19496,18 @@
         <v>6.3564999999999997E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -19515,18 +19516,18 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -19535,18 +19536,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -19555,18 +19556,18 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -19575,18 +19576,18 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -19595,18 +19596,18 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -19615,18 +19616,18 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -19635,18 +19636,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -19655,18 +19656,18 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>1.531446E-2</v>
@@ -19675,18 +19676,18 @@
         <v>1.3155790000000001E-2</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39">
         <v>1.589722E-2</v>
@@ -19695,18 +19696,18 @@
         <v>1.3656410000000001E-2</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -19715,18 +19716,18 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -19735,18 +19736,18 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -19755,18 +19756,18 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43">
         <v>4.7074999999999999E-3</v>
@@ -19775,18 +19776,18 @@
         <v>4.0439500000000001E-3</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B44">
         <v>6.3032399999999999E-3</v>
@@ -19795,18 +19796,18 @@
         <v>5.4147600000000002E-3</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>4.9446999999999998E-3</v>
@@ -19815,18 +19816,18 @@
         <v>4.24771E-3</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -19835,18 +19836,18 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -19855,18 +19856,18 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -19875,18 +19876,18 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -19895,18 +19896,18 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -19915,18 +19916,18 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -19935,18 +19936,18 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52">
         <v>7.9289999999999995E-5</v>
@@ -19955,18 +19956,18 @@
         <v>6.8109999999999997E-5</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53">
         <v>5.6676399999999998E-3</v>
@@ -19975,18 +19976,18 @@
         <v>4.8687499999999998E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B54">
         <v>1.9626729999999998E-2</v>
@@ -19995,18 +19996,18 @@
         <v>1.6860219999999999E-2</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B55">
         <v>1.1686699999999999E-3</v>
@@ -20015,18 +20016,18 @@
         <v>1.00394E-3</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -20035,18 +20036,18 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -20055,18 +20056,18 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>1.5630000000000001E-5</v>
@@ -20075,18 +20076,18 @@
         <v>1.343E-5</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -20095,18 +20096,18 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B60">
         <v>3.4012199999999999E-3</v>
@@ -20115,18 +20116,18 @@
         <v>2.9217900000000001E-3</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -20135,18 +20136,18 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62">
         <v>9.8803999999999993E-4</v>
@@ -20155,18 +20156,18 @@
         <v>8.4876999999999999E-4</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -20175,18 +20176,18 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64">
         <v>2.9134600000000001E-3</v>
@@ -20195,18 +20196,18 @@
         <v>2.50279E-3</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -20215,18 +20216,18 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B66">
         <v>4.1789699999999997E-3</v>
@@ -20235,18 +20236,18 @@
         <v>3.5899199999999999E-3</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -20255,18 +20256,18 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B68">
         <v>4.3911200000000001E-3</v>
@@ -20275,18 +20276,18 @@
         <v>3.7721600000000001E-3</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B69">
         <v>6.97548E-3</v>
@@ -20295,18 +20296,18 @@
         <v>5.9922400000000002E-3</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B70">
         <v>4.15118E-3</v>
@@ -20315,18 +20316,18 @@
         <v>3.5660499999999999E-3</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -20335,18 +20336,18 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -20355,18 +20356,18 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>3.4180399999999998E-3</v>
@@ -20375,18 +20376,18 @@
         <v>2.9362500000000001E-3</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B74">
         <v>5.7380599999999997E-3</v>
@@ -20395,18 +20396,18 @@
         <v>4.9292399999999997E-3</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -20415,18 +20416,18 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -20435,18 +20436,18 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -20455,18 +20456,18 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B78">
         <v>5.1468499999999997E-3</v>
@@ -20475,18 +20476,18 @@
         <v>4.42137E-3</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -20495,18 +20496,18 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -20515,18 +20516,18 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -20535,18 +20536,18 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -20555,18 +20556,18 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -20575,18 +20576,18 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B84">
         <v>2.9765899999999999E-3</v>
@@ -20595,18 +20596,18 @@
         <v>2.5570200000000001E-3</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -20615,18 +20616,18 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B86">
         <v>1.331889E-2</v>
@@ -20635,18 +20636,18 @@
         <v>1.144151E-2</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -20655,18 +20656,18 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F87" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -20675,18 +20676,18 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -20695,18 +20696,18 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -20715,18 +20716,18 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B91">
         <v>1.8197000000000001E-3</v>
@@ -20735,18 +20736,18 @@
         <v>1.5632E-3</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -20755,18 +20756,18 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -20775,18 +20776,18 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B94">
         <v>2.61203E-3</v>
@@ -20795,18 +20796,18 @@
         <v>2.2438499999999999E-3</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -20815,18 +20816,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -20835,18 +20836,18 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -20855,18 +20856,18 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B98">
         <v>9.2141900000000006E-3</v>
@@ -20875,18 +20876,18 @@
         <v>7.9153899999999996E-3</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B99">
         <v>6.0874400000000004E-3</v>
@@ -20895,18 +20896,18 @@
         <v>5.2293799999999996E-3</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -20915,18 +20916,18 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -20935,18 +20936,18 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -20955,18 +20956,18 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -20975,18 +20976,18 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -20995,18 +20996,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B105">
         <v>5.0868600000000003E-3</v>
@@ -21015,18 +21016,18 @@
         <v>4.3698399999999998E-3</v>
       </c>
       <c r="D105" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B106">
         <v>3.1046400000000001E-3</v>
@@ -21035,18 +21036,18 @@
         <v>2.6670299999999999E-3</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E106" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B107">
         <v>4.9568600000000004E-3</v>
@@ -21055,18 +21056,18 @@
         <v>4.2581600000000004E-3</v>
       </c>
       <c r="D107" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B108">
         <v>1.7411200000000001E-3</v>
@@ -21075,18 +21076,18 @@
         <v>1.4957E-3</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -21095,18 +21096,18 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F109" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B110">
         <v>4.8374899999999998E-3</v>
@@ -21115,18 +21116,18 @@
         <v>4.1556199999999996E-3</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F110" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -21135,18 +21136,18 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B112">
         <v>3.2416900000000002E-3</v>
@@ -21155,18 +21156,18 @@
         <v>2.7847499999999999E-3</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -21175,18 +21176,18 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -21195,18 +21196,18 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -21215,18 +21216,18 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -21235,18 +21236,18 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E116" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F116" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -21255,18 +21256,18 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F117" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B118">
         <v>4.3243200000000004E-3</v>
@@ -21275,18 +21276,18 @@
         <v>3.71478E-3</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B119">
         <v>1.7467299999999999E-3</v>
@@ -21295,18 +21296,18 @@
         <v>1.50051E-3</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -21315,18 +21316,18 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F120" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -21335,18 +21336,18 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B122">
         <v>7.4771400000000002E-3</v>
@@ -21355,18 +21356,18 @@
         <v>6.4231899999999996E-3</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -21375,18 +21376,18 @@
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -21395,18 +21396,18 @@
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F124" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -21415,18 +21416,18 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E125" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -21435,18 +21436,18 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F126" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -21455,18 +21456,18 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F127" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B128">
         <v>2.0380099999999998E-3</v>
@@ -21475,18 +21476,18 @@
         <v>1.75074E-3</v>
       </c>
       <c r="D128" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F128" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -21495,18 +21496,18 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E129" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F129" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B130">
         <v>5.4450799999999997E-3</v>
@@ -21515,18 +21516,18 @@
         <v>4.6775599999999999E-3</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -21535,18 +21536,18 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E131" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F131" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -21555,18 +21556,18 @@
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F132" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -21575,18 +21576,18 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F133" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B134">
         <v>1.1940600000000001E-2</v>
@@ -21595,18 +21596,18 @@
         <v>1.0257499999999999E-2</v>
       </c>
       <c r="D134" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E134" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F134" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -21615,18 +21616,18 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E135" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F135" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -21635,18 +21636,18 @@
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E136" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F136" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B137">
         <v>1.095045E-2</v>
@@ -21655,18 +21656,18 @@
         <v>9.4069099999999992E-3</v>
       </c>
       <c r="D137" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E137" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F137" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B138">
         <v>1.2077650000000001E-2</v>
@@ -21675,18 +21676,18 @@
         <v>1.0375229999999999E-2</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E138" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F138" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -21695,18 +21696,18 @@
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E139" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F139" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -21715,18 +21716,18 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E140" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F140" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -21735,18 +21736,18 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F141" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -21755,18 +21756,18 @@
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E142" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F142" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -21775,18 +21776,18 @@
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F143" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -21795,18 +21796,18 @@
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E144" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F144" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -21815,18 +21816,18 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E145" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F145" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B146">
         <v>2.1416500000000002E-3</v>
@@ -21835,18 +21836,18 @@
         <v>1.8397699999999999E-3</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E146" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F146" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B147">
         <v>1.248664E-2</v>
@@ -21855,18 +21856,18 @@
         <v>1.072657E-2</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E147" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F147" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -21875,18 +21876,18 @@
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E148" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F148" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -21895,18 +21896,18 @@
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E149" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F149" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -21915,18 +21916,18 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E150" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F150" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -21935,18 +21936,18 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F151" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B152">
         <v>9.5624999999999998E-3</v>
@@ -21955,18 +21956,18 @@
         <v>8.2146100000000007E-3</v>
       </c>
       <c r="D152" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E152" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F152" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -21975,18 +21976,18 @@
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E153" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F153" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -21995,18 +21996,18 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F154" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -22015,18 +22016,18 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E155" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F155" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -22035,18 +22036,18 @@
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E156" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F156" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -22055,18 +22056,18 @@
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E157" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B158">
         <v>7.6486100000000001E-3</v>
@@ -22075,18 +22076,18 @@
         <v>6.57049E-3</v>
       </c>
       <c r="D158" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E158" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F158" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -22095,18 +22096,18 @@
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F159" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -22115,18 +22116,18 @@
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E160" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F160" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B161">
         <v>1.03994E-3</v>
@@ -22135,18 +22136,18 @@
         <v>8.9335E-4</v>
       </c>
       <c r="D161" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F161" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B162">
         <v>3.1557400000000002E-3</v>
@@ -22155,18 +22156,18 @@
         <v>2.7109199999999999E-3</v>
       </c>
       <c r="D162" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E162" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F162" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -22175,18 +22176,18 @@
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E163" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F163" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B164">
         <v>1.27002E-2</v>
@@ -22195,18 +22196,18 @@
         <v>1.0910029999999999E-2</v>
       </c>
       <c r="D164" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E164" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F164" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B165">
         <v>1.7866900000000001E-3</v>
@@ -22215,18 +22216,18 @@
         <v>1.53484E-3</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E165" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F165" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -22235,18 +22236,18 @@
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E166" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F166" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -22255,18 +22256,18 @@
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E167" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F167" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -22275,18 +22276,18 @@
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E168" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F168" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B169">
         <v>1.9563100000000002E-3</v>
@@ -22295,18 +22296,18 @@
         <v>1.68056E-3</v>
       </c>
       <c r="D169" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E169" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F169" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B170">
         <v>4.9107100000000004E-3</v>
@@ -22315,13 +22316,13 @@
         <v>4.2185199999999999E-3</v>
       </c>
       <c r="D170" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F170" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -22344,15 +22345,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -22360,7 +22361,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>0.23</v>
@@ -22368,7 +22369,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B4">
         <v>4.8</v>
@@ -22376,7 +22377,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5">
         <v>1.47E-2</v>
@@ -22384,7 +22385,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B6">
         <v>4.48E-2</v>
@@ -22392,7 +22393,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B7">
         <v>7.6799999999999993E-2</v>
@@ -22400,7 +22401,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B8">
         <v>0.12189999999999999</v>
@@ -22408,7 +22409,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B9">
         <v>4.07E-2</v>
@@ -22416,7 +22417,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B10">
         <v>3.5987999999999999E-2</v>
@@ -22424,7 +22425,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11">
         <v>3.3258999999999997E-2</v>
@@ -22432,7 +22433,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B12">
         <v>3.2072999999999997E-2</v>
@@ -22440,7 +22441,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B13">
         <v>1.47E-2</v>
@@ -22448,7 +22449,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B14">
         <v>3.7900000000000003E-2</v>
@@ -22456,7 +22457,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B15">
         <v>2.2762000000000001E-2</v>
@@ -22464,7 +22465,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B16">
         <v>1.8931E-2</v>
@@ -22472,7 +22473,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B17">
         <v>1.4713E-2</v>
@@ -22480,7 +22481,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B18">
         <v>5.0000000000000001E-3</v>
@@ -22488,7 +22489,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B19">
         <v>8.5000000000000006E-3</v>
@@ -22496,7 +22497,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B20">
         <v>1.0900000000000001</v>
@@ -22504,7 +22505,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B21">
         <v>9.2999999999999992E-3</v>
@@ -22512,7 +22513,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>1.0093000000000001</v>
@@ -22520,7 +22521,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B23">
         <v>8.3999999999999995E-3</v>
@@ -22528,7 +22529,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B24">
         <v>1.0093000000000001</v>
@@ -22536,7 +22537,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B25">
         <v>7.3689000000000004E-2</v>
@@ -22544,7 +22545,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B26">
         <v>6.8976999999999997E-2</v>
@@ -22552,7 +22553,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B27">
         <v>6.5713999999999995E-2</v>
@@ -22560,7 +22561,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B28">
         <v>6.4528000000000002E-2</v>
@@ -22568,7 +22569,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B29">
         <v>1.036</v>
@@ -22576,7 +22577,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B30">
         <v>1.074E-2</v>
@@ -22584,7 +22585,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B31">
         <v>0.06</v>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14181,7 +14181,7 @@
         <v>45927</v>
       </c>
       <c r="B637" t="n">
-        <v>31.99</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="638">
@@ -14189,7 +14189,7 @@
         <v>45928</v>
       </c>
       <c r="B638" t="n">
-        <v>31.99</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="639">
@@ -14197,7 +14197,7 @@
         <v>45929</v>
       </c>
       <c r="B639" t="n">
-        <v>31.99</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="640">
@@ -14205,7 +14205,7 @@
         <v>45930</v>
       </c>
       <c r="B640" t="n">
-        <v>31.99</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="641">
@@ -14213,7 +14213,7 @@
         <v>45931</v>
       </c>
       <c r="B641" t="n">
-        <v>31.99</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="642">
@@ -14221,7 +14221,7 @@
         <v>45932</v>
       </c>
       <c r="B642" t="n">
-        <v>31.99</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="643">
@@ -14229,7 +14229,7 @@
         <v>45933</v>
       </c>
       <c r="B643" t="n">
-        <v>31.99</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="644">
@@ -14237,7 +14237,7 @@
         <v>45934</v>
       </c>
       <c r="B644" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="645">
@@ -14245,7 +14245,7 @@
         <v>45935</v>
       </c>
       <c r="B645" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="646">
@@ -14253,7 +14253,7 @@
         <v>45936</v>
       </c>
       <c r="B646" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="647">
@@ -14261,7 +14261,7 @@
         <v>45937</v>
       </c>
       <c r="B647" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="648">
@@ -14269,7 +14269,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="649">
@@ -14277,7 +14277,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="650">
@@ -14285,7 +14285,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="651">
@@ -14293,7 +14293,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="652">
@@ -14301,7 +14301,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="653">
@@ -14309,7 +14309,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="654">
@@ -14317,7 +14317,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="655">
@@ -14325,7 +14325,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="656">
@@ -14333,7 +14333,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="657">
@@ -14341,7 +14341,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="658">
@@ -14349,7 +14349,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="659">
@@ -14357,7 +14357,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="660">
@@ -14365,7 +14365,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="661">
@@ -14373,7 +14373,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="662">
@@ -14381,7 +14381,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="663">
@@ -14389,7 +14389,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="664">
@@ -14397,7 +14397,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="665">
@@ -14405,7 +14405,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="666">
@@ -14413,7 +14413,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="667">
@@ -14421,7 +14421,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="668">
@@ -14429,7 +14429,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="669">
@@ -14437,7 +14437,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="670">
@@ -14445,7 +14445,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="671">
@@ -14453,7 +14453,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.99</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="672">
@@ -14461,7 +14461,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="673">
@@ -14469,7 +14469,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="674">
@@ -14477,7 +14477,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="675">
@@ -14485,7 +14485,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="676">
@@ -14493,7 +14493,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="677">
@@ -14501,7 +14501,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="678">
@@ -14509,7 +14509,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="679">
@@ -14517,7 +14517,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="680">
@@ -14525,7 +14525,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="681">
@@ -14533,7 +14533,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="682">
@@ -14541,7 +14541,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="683">
@@ -14549,7 +14549,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="684">
@@ -14557,7 +14557,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="685">
@@ -14565,7 +14565,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="686">
@@ -14573,7 +14573,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="687">
@@ -14581,7 +14581,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="688">
@@ -14589,7 +14589,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="689">
@@ -14597,7 +14597,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="690">
@@ -14605,7 +14605,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="691">
@@ -14613,7 +14613,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="692">
@@ -14621,7 +14621,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="693">
@@ -14629,7 +14629,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="694">
@@ -14637,7 +14637,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="695">
@@ -14645,7 +14645,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="696">
@@ -14653,7 +14653,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="697">
@@ -14661,7 +14661,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="698">
@@ -14669,7 +14669,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="699">
@@ -14677,7 +14677,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="700">
@@ -14685,7 +14685,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="701">
@@ -14693,7 +14693,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="702">
@@ -14701,7 +14701,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="703">
@@ -14709,7 +14709,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="704">
@@ -14717,7 +14717,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="705">
@@ -14725,7 +14725,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="706">
@@ -14733,7 +14733,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="707">
@@ -14741,7 +14741,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="708">
@@ -14749,7 +14749,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="709">
@@ -14757,7 +14757,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="710">
@@ -14765,7 +14765,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="711">
@@ -14773,7 +14773,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="712">
@@ -14781,7 +14781,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="713">
@@ -14789,7 +14789,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="714">
@@ -14797,7 +14797,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="715">
@@ -14805,7 +14805,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="716">
@@ -14813,7 +14813,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="717">
@@ -14821,7 +14821,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="718">
@@ -14829,7 +14829,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="719">
@@ -14837,7 +14837,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="720">
@@ -14845,7 +14845,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="721">
@@ -14853,7 +14853,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="722">
@@ -14861,7 +14861,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="723">
@@ -14869,7 +14869,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="724">
@@ -14877,7 +14877,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="725">
@@ -14885,7 +14885,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="726">
@@ -14893,7 +14893,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="727">
@@ -14901,7 +14901,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="728">
@@ -14909,7 +14909,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="729">
@@ -14917,7 +14917,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="730">
@@ -14925,7 +14925,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="731">
@@ -14933,7 +14933,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="732">
@@ -14941,7 +14941,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.99</v>
+        <v>32.49</v>
       </c>
     </row>
     <row r="733">
@@ -14949,7 +14949,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="734">
@@ -14957,7 +14957,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="735">
@@ -14965,7 +14965,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="736">
@@ -14973,7 +14973,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="737">
@@ -14981,7 +14981,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="738">
@@ -14989,7 +14989,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="739">
@@ -14997,7 +14997,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="740">
@@ -15005,7 +15005,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="741">
@@ -15013,7 +15013,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="742">
@@ -15021,7 +15021,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="743">
@@ -15029,7 +15029,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="744">
@@ -15037,7 +15037,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="745">
@@ -15045,7 +15045,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="746">
@@ -15053,7 +15053,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="747">
@@ -15061,7 +15061,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="748">
@@ -15069,7 +15069,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="749">
@@ -15077,7 +15077,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="750">
@@ -15085,7 +15085,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="751">
@@ -15093,7 +15093,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="752">
@@ -15101,7 +15101,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="753">
@@ -15109,7 +15109,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="754">
@@ -15117,7 +15117,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="755">
@@ -15125,7 +15125,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="756">
@@ -15133,7 +15133,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="757">
@@ -15141,7 +15141,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="758">
@@ -15149,7 +15149,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="759">
@@ -15157,7 +15157,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="760">
@@ -15165,7 +15165,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="761">
@@ -15173,7 +15173,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="762">
@@ -15181,7 +15181,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="763">
@@ -15189,7 +15189,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.99</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="764">
@@ -15197,7 +15197,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="765">
@@ -15205,7 +15205,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="766">
@@ -15213,7 +15213,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="767">
@@ -15221,7 +15221,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="768">
@@ -15229,7 +15229,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="769">
@@ -15237,7 +15237,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="770">
@@ -15245,7 +15245,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="771">
@@ -15253,7 +15253,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="772">
@@ -15261,7 +15261,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="773">
@@ -15269,7 +15269,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="774">
@@ -15277,7 +15277,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="775">
@@ -15285,7 +15285,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="776">
@@ -15293,7 +15293,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="777">
@@ -15301,7 +15301,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="778">
@@ -15309,7 +15309,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="779">
@@ -15317,7 +15317,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="780">
@@ -15325,7 +15325,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="781">
@@ -15333,7 +15333,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="782">
@@ -15341,7 +15341,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="783">
@@ -15349,7 +15349,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="784">
@@ -15357,7 +15357,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="785">
@@ -15365,7 +15365,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="786">
@@ -15373,7 +15373,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="787">
@@ -15381,7 +15381,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="788">
@@ -15389,7 +15389,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="789">
@@ -15397,7 +15397,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="790">
@@ -15405,7 +15405,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="791">
@@ -15413,7 +15413,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.99</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="792">
@@ -15421,7 +15421,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="793">
@@ -15429,7 +15429,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="794">
@@ -15437,7 +15437,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="795">
@@ -15445,7 +15445,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="796">
@@ -15453,7 +15453,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="797">
@@ -15461,7 +15461,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="798">
@@ -15469,7 +15469,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="799">
@@ -15477,7 +15477,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="800">
@@ -15485,7 +15485,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="801">
@@ -15493,7 +15493,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="802">
@@ -15501,7 +15501,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="803">
@@ -15509,7 +15509,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="804">
@@ -15517,7 +15517,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="805">
@@ -15525,7 +15525,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="806">
@@ -15533,7 +15533,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="807">
@@ -15541,7 +15541,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="808">
@@ -15549,7 +15549,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="809">
@@ -15557,7 +15557,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="810">
@@ -15565,7 +15565,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="811">
@@ -15573,7 +15573,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="812">
@@ -15581,7 +15581,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="813">
@@ -15589,7 +15589,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="814">
@@ -15597,7 +15597,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="815">
@@ -15605,7 +15605,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="816">
@@ -15613,7 +15613,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="817">
@@ -15621,7 +15621,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="818">
@@ -15629,7 +15629,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="819">
@@ -15637,7 +15637,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="820">
@@ -15645,7 +15645,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="821">
@@ -15653,7 +15653,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="822">
@@ -15661,7 +15661,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.99</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="823">
@@ -15669,7 +15669,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="824">
@@ -15677,7 +15677,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="825">
@@ -15685,7 +15685,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="826">
@@ -15693,7 +15693,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="827">
@@ -15701,7 +15701,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="828">
@@ -15709,7 +15709,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="829">
@@ -15717,7 +15717,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="830">
@@ -15725,7 +15725,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="831">
@@ -15733,7 +15733,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="832">
@@ -15741,7 +15741,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="833">
@@ -15749,7 +15749,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="834">
@@ -15757,7 +15757,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="835">
@@ -15765,7 +15765,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="836">
@@ -15773,7 +15773,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="837">
@@ -15781,7 +15781,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="838">
@@ -15789,7 +15789,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="839">
@@ -15797,7 +15797,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="840">
@@ -15805,7 +15805,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="841">
@@ -15813,7 +15813,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="842">
@@ -15821,7 +15821,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="843">
@@ -15829,7 +15829,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="844">
@@ -15837,7 +15837,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="845">
@@ -15845,7 +15845,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="846">
@@ -15853,7 +15853,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="847">
@@ -15861,7 +15861,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="848">
@@ -15869,7 +15869,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="849">
@@ -15877,7 +15877,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="850">
@@ -15885,7 +15885,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="851">
@@ -15893,7 +15893,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="852">
@@ -15901,7 +15901,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="853">
@@ -15909,7 +15909,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="854">
@@ -15917,7 +15917,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="855">
@@ -15925,7 +15925,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="856">
@@ -15933,7 +15933,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="857">
@@ -15941,7 +15941,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="858">
@@ -15949,7 +15949,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="859">
@@ -15957,7 +15957,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="860">
@@ -15965,7 +15965,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="861">
@@ -15973,7 +15973,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="862">
@@ -15981,7 +15981,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="863">
@@ -15989,7 +15989,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="864">
@@ -15997,7 +15997,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="865">
@@ -16005,7 +16005,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="866">
@@ -16013,7 +16013,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="867">
@@ -16021,7 +16021,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="868">
@@ -16029,7 +16029,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="869">
@@ -16037,7 +16037,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="870">
@@ -16045,7 +16045,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="871">
@@ -16053,7 +16053,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="872">
@@ -16061,7 +16061,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="873">
@@ -16069,7 +16069,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="874">
@@ -16077,7 +16077,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="875">
@@ -16085,7 +16085,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="876">
@@ -16093,7 +16093,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="877">
@@ -16101,7 +16101,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="878">
@@ -16109,7 +16109,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="879">
@@ -16117,7 +16117,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="880">
@@ -16125,7 +16125,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="881">
@@ -16133,7 +16133,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="882">
@@ -16141,7 +16141,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="883">
@@ -16149,7 +16149,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="884">
@@ -16157,7 +16157,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="885">
@@ -16165,7 +16165,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="886">
@@ -16173,7 +16173,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="887">
@@ -16181,7 +16181,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="888">
@@ -16189,7 +16189,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="889">
@@ -16197,7 +16197,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="890">
@@ -16205,7 +16205,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="891">
@@ -16213,7 +16213,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="892">
@@ -16221,7 +16221,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="893">
@@ -16229,7 +16229,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="894">
@@ -16237,7 +16237,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="895">
@@ -16245,7 +16245,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="896">
@@ -16253,7 +16253,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="897">
@@ -16261,7 +16261,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="898">
@@ -16269,7 +16269,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="899">
@@ -16277,7 +16277,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="900">
@@ -16285,7 +16285,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="901">
@@ -16293,7 +16293,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="902">
@@ -16301,7 +16301,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="903">
@@ -16309,7 +16309,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="904">
@@ -16317,7 +16317,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="905">
@@ -16325,7 +16325,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="906">
@@ -16333,7 +16333,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="907">
@@ -16341,7 +16341,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="908">
@@ -16349,7 +16349,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="909">
@@ -16357,7 +16357,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="910">
@@ -16365,7 +16365,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="911">
@@ -16373,7 +16373,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="912">
@@ -16381,7 +16381,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="913">
@@ -16389,7 +16389,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="914">
@@ -16397,7 +16397,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="915">
@@ -16405,7 +16405,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="916">
@@ -16413,7 +16413,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="917">
@@ -16421,7 +16421,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="918">
@@ -16429,7 +16429,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="919">
@@ -16437,7 +16437,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="920">
@@ -16445,7 +16445,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="921">
@@ -16453,7 +16453,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="922">
@@ -16461,7 +16461,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="923">
@@ -16469,7 +16469,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="924">
@@ -16477,7 +16477,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="925">
@@ -16485,7 +16485,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="926">
@@ -16493,7 +16493,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="927">
@@ -16501,7 +16501,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="928">
@@ -16509,7 +16509,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="929">
@@ -16517,7 +16517,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="930">
@@ -16525,7 +16525,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="931">
@@ -16533,7 +16533,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="932">
@@ -16541,7 +16541,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="933">
@@ -16549,7 +16549,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="934">
@@ -16557,7 +16557,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="935">
@@ -16565,7 +16565,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="936">
@@ -16573,7 +16573,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="937">
@@ -16581,7 +16581,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="938">
@@ -16589,7 +16589,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="939">
@@ -16597,7 +16597,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="940">
@@ -16605,7 +16605,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="941">
@@ -16613,7 +16613,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="942">
@@ -16621,7 +16621,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="943">
@@ -16629,7 +16629,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="944">
@@ -16637,7 +16637,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="945">
@@ -16645,7 +16645,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="946">
@@ -16653,7 +16653,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="947">
@@ -16661,7 +16661,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="948">
@@ -16669,7 +16669,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="949">
@@ -16677,7 +16677,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="950">
@@ -16685,7 +16685,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="951">
@@ -16693,7 +16693,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="952">
@@ -16701,7 +16701,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="953">
@@ -16709,7 +16709,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="954">
@@ -16717,7 +16717,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="955">
@@ -16725,7 +16725,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="956">
@@ -16733,7 +16733,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="957">
@@ -16741,7 +16741,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="958">
@@ -16749,7 +16749,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="959">
@@ -16757,7 +16757,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="960">
@@ -16765,7 +16765,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="961">
@@ -16773,7 +16773,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="962">
@@ -16781,7 +16781,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="963">
@@ -16789,7 +16789,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="964">
@@ -16797,7 +16797,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="965">
@@ -16805,7 +16805,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="966">
@@ -16813,7 +16813,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="967">
@@ -16821,7 +16821,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="968">
@@ -16829,7 +16829,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="969">
@@ -16837,7 +16837,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="970">
@@ -16845,7 +16845,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="971">
@@ -16853,7 +16853,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="972">
@@ -16861,7 +16861,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="973">
@@ -16869,7 +16869,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="974">
@@ -16877,7 +16877,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="975">
@@ -16885,7 +16885,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="976">
@@ -16893,7 +16893,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="977">
@@ -16901,7 +16901,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="978">
@@ -16909,7 +16909,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="979">
@@ -16917,7 +16917,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="980">
@@ -16925,7 +16925,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="981">
@@ -16933,7 +16933,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="982">
@@ -16941,7 +16941,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="983">
@@ -16949,7 +16949,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="984">
@@ -16957,7 +16957,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="985">
@@ -16965,7 +16965,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="986">
@@ -16973,7 +16973,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="987">
@@ -16981,7 +16981,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="988">
@@ -16989,7 +16989,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="989">
@@ -16997,7 +16997,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="990">
@@ -17005,7 +17005,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="991">
@@ -17013,7 +17013,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="992">
@@ -17021,7 +17021,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="993">
@@ -17029,7 +17029,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="994">
@@ -17037,7 +17037,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="995">
@@ -17045,7 +17045,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="996">
@@ -17053,7 +17053,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="997">
@@ -17061,7 +17061,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="998">
@@ -17069,7 +17069,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="999">
@@ -17077,7 +17077,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1000">
@@ -17085,7 +17085,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1001">
@@ -17093,7 +17093,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1002">
@@ -17101,7 +17101,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1003">
@@ -17109,7 +17109,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1004">
@@ -17117,7 +17117,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1005">
@@ -17125,7 +17125,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>31.99</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="1006">
@@ -17133,7 +17133,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1007">
@@ -17141,7 +17141,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1008">
@@ -17149,7 +17149,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1009">
@@ -17157,7 +17157,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1010">
@@ -17165,7 +17165,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1011">
@@ -17173,7 +17173,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1012">
@@ -17181,7 +17181,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1013">
@@ -17189,7 +17189,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1014">
@@ -17197,7 +17197,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1015">
@@ -17205,7 +17205,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1016">
@@ -17213,7 +17213,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1017">
@@ -17221,7 +17221,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1018">
@@ -17229,7 +17229,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1019">
@@ -17237,7 +17237,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1020">
@@ -17245,7 +17245,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1021">
@@ -17253,7 +17253,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1022">
@@ -17261,7 +17261,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1023">
@@ -17269,7 +17269,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1024">
@@ -17277,7 +17277,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1025">
@@ -17285,7 +17285,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1026">
@@ -17293,7 +17293,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1027">
@@ -17301,7 +17301,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1028">
@@ -17309,7 +17309,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1029">
@@ -17317,7 +17317,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1030">
@@ -17325,7 +17325,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1031">
@@ -17333,7 +17333,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1032">
@@ -17341,7 +17341,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1033">
@@ -17349,7 +17349,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1034">
@@ -17357,7 +17357,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1035">
@@ -17365,7 +17365,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1036">
@@ -17373,7 +17373,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1037">
@@ -17381,7 +17381,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1038">
@@ -17389,7 +17389,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1039">
@@ -17397,7 +17397,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1040">
@@ -17405,7 +17405,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1041">
@@ -17413,7 +17413,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1042">
@@ -17421,7 +17421,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1043">
@@ -17429,7 +17429,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1044">
@@ -17437,7 +17437,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1045">
@@ -17445,7 +17445,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1046">
@@ -17453,7 +17453,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1047">
@@ -17461,7 +17461,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1048">
@@ -17469,7 +17469,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1049">
@@ -17477,7 +17477,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1050">
@@ -17485,7 +17485,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1051">
@@ -17493,7 +17493,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1052">
@@ -17501,7 +17501,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1053">
@@ -17509,7 +17509,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1054">
@@ -17517,7 +17517,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1055">
@@ -17525,7 +17525,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1056">
@@ -17533,7 +17533,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1057">
@@ -17541,7 +17541,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1058">
@@ -17549,7 +17549,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1059">
@@ -17557,7 +17557,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1060">
@@ -17565,7 +17565,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1061">
@@ -17573,7 +17573,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1062">
@@ -17581,7 +17581,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1063">
@@ -17589,7 +17589,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1064">
@@ -17597,7 +17597,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1065">
@@ -17605,7 +17605,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1066">
@@ -17613,7 +17613,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1067">
@@ -17621,7 +17621,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1068">
@@ -17629,7 +17629,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1069">
@@ -17637,7 +17637,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1070">
@@ -17645,7 +17645,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1071">
@@ -17653,7 +17653,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1072">
@@ -17661,7 +17661,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1073">
@@ -17669,7 +17669,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1074">
@@ -17677,7 +17677,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1075">
@@ -17685,7 +17685,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1076">
@@ -17693,7 +17693,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1077">
@@ -17701,7 +17701,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1078">
@@ -17709,7 +17709,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1079">
@@ -17717,7 +17717,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1080">
@@ -17725,7 +17725,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1081">
@@ -17733,7 +17733,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1082">
@@ -17741,7 +17741,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1083">
@@ -17749,7 +17749,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1084">
@@ -17757,7 +17757,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1085">
@@ -17765,7 +17765,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1086">
@@ -17773,7 +17773,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1087">
@@ -17781,7 +17781,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1088">
@@ -17789,7 +17789,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1089">
@@ -17797,7 +17797,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1090">
@@ -17805,7 +17805,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1091">
@@ -17813,7 +17813,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1092">
@@ -17821,7 +17821,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1093">
@@ -17829,7 +17829,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1094">
@@ -17837,7 +17837,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1095">
@@ -17845,7 +17845,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1096">
@@ -17853,7 +17853,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1097">
@@ -17861,7 +17861,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1098">
@@ -17869,7 +17869,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1099">
@@ -17877,7 +17877,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1100">
@@ -17885,7 +17885,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1101">
@@ -17893,7 +17893,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1102">
@@ -17901,7 +17901,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1103">
@@ -17909,7 +17909,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1104">
@@ -17917,7 +17917,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1105">
@@ -17925,7 +17925,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1106">
@@ -17933,7 +17933,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1107">
@@ -17941,7 +17941,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1108">
@@ -17949,7 +17949,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1109">
@@ -17957,7 +17957,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1110">
@@ -17965,7 +17965,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1111">
@@ -17973,7 +17973,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1112">
@@ -17981,7 +17981,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1113">
@@ -17989,7 +17989,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1114">
@@ -17997,7 +17997,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1115">
@@ -18005,7 +18005,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1116">
@@ -18013,7 +18013,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1117">
@@ -18021,7 +18021,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1118">
@@ -18029,7 +18029,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1119">
@@ -18037,7 +18037,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1120">
@@ -18045,7 +18045,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1121">
@@ -18053,7 +18053,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1122">
@@ -18061,7 +18061,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1123">
@@ -18069,7 +18069,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1124">
@@ -18077,7 +18077,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1125">
@@ -18085,7 +18085,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1126">
@@ -18093,7 +18093,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1127">
@@ -18101,7 +18101,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1128">
@@ -18109,7 +18109,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1129">
@@ -18117,7 +18117,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1130">
@@ -18125,7 +18125,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1131">
@@ -18133,7 +18133,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1132">
@@ -18141,7 +18141,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1133">
@@ -18149,7 +18149,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1134">
@@ -18157,7 +18157,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1135">
@@ -18165,7 +18165,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1136">
@@ -18173,7 +18173,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1137">
@@ -18181,7 +18181,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1138">
@@ -18189,7 +18189,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1139">
@@ -18197,7 +18197,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1140">
@@ -18205,7 +18205,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1141">
@@ -18213,7 +18213,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1142">
@@ -18221,7 +18221,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1143">
@@ -18229,7 +18229,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1144">
@@ -18237,7 +18237,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1145">
@@ -18245,7 +18245,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1146">
@@ -18253,7 +18253,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1147">
@@ -18261,7 +18261,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1148">
@@ -18269,7 +18269,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1149">
@@ -18277,7 +18277,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1150">
@@ -18285,7 +18285,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1151">
@@ -18293,7 +18293,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1152">
@@ -18301,7 +18301,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1153">
@@ -18309,7 +18309,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1154">
@@ -18317,7 +18317,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1155">
@@ -18325,7 +18325,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1156">
@@ -18333,7 +18333,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1157">
@@ -18341,7 +18341,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1158">
@@ -18349,7 +18349,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1159">
@@ -18357,7 +18357,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1160">
@@ -18365,7 +18365,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1161">
@@ -18373,7 +18373,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1162">
@@ -18381,7 +18381,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1163">
@@ -18389,7 +18389,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1164">
@@ -18397,7 +18397,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1165">
@@ -18405,7 +18405,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1166">
@@ -18413,7 +18413,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1167">
@@ -18421,7 +18421,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1168">
@@ -18429,7 +18429,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1169">
@@ -18437,7 +18437,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1170">
@@ -18445,7 +18445,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1171">
@@ -18453,7 +18453,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1172">
@@ -18461,7 +18461,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1173">
@@ -18469,7 +18469,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1174">
@@ -18477,7 +18477,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1175">
@@ -18485,7 +18485,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1176">
@@ -18493,7 +18493,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1177">
@@ -18501,7 +18501,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1178">
@@ -18509,7 +18509,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1179">
@@ -18517,7 +18517,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1180">
@@ -18525,7 +18525,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1181">
@@ -18533,7 +18533,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1182">
@@ -18541,7 +18541,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1183">
@@ -18549,7 +18549,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1184">
@@ -18557,7 +18557,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1185">
@@ -18565,7 +18565,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1186">
@@ -18573,7 +18573,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1187">
@@ -18581,7 +18581,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.99</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1188">
@@ -18589,7 +18589,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1189">
@@ -18597,7 +18597,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1190">
@@ -18605,7 +18605,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1191">
@@ -18613,7 +18613,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1192">
@@ -18621,7 +18621,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1193">
@@ -18629,7 +18629,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1194">
@@ -18637,7 +18637,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1195">
@@ -18645,7 +18645,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1196">
@@ -18653,7 +18653,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1197">
@@ -18661,7 +18661,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1198">
@@ -18669,7 +18669,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1199">
@@ -18677,7 +18677,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1200">
@@ -18685,7 +18685,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1201">
@@ -18693,7 +18693,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1202">
@@ -18701,7 +18701,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1203">
@@ -18709,7 +18709,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1204">
@@ -18717,7 +18717,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1205">
@@ -18725,7 +18725,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1206">
@@ -18733,7 +18733,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1207">
@@ -18741,7 +18741,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1208">
@@ -18749,7 +18749,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1209">
@@ -18757,7 +18757,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1210">
@@ -18765,7 +18765,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1211">
@@ -18773,7 +18773,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1212">
@@ -18781,7 +18781,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1213">
@@ -18789,7 +18789,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1214">
@@ -18797,7 +18797,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1215">
@@ -18805,7 +18805,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1216">
@@ -18813,7 +18813,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1217">
@@ -18821,7 +18821,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1218">
@@ -18829,7 +18829,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1219">
@@ -18837,7 +18837,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1220">
@@ -18845,7 +18845,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1221">
@@ -18853,7 +18853,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1222">
@@ -18861,7 +18861,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1223">
@@ -18869,7 +18869,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1224">
@@ -18877,7 +18877,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1225">
@@ -18885,7 +18885,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1226">
@@ -18893,7 +18893,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1227">
@@ -18901,7 +18901,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1228">
@@ -18909,7 +18909,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1229">
@@ -18917,7 +18917,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1230">
@@ -18925,7 +18925,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1231">
@@ -18933,7 +18933,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1232">
@@ -18941,7 +18941,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1233">
@@ -18949,7 +18949,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1234">
@@ -18957,7 +18957,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1235">
@@ -18965,7 +18965,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1236">
@@ -18973,7 +18973,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1237">
@@ -18981,7 +18981,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1238">
@@ -18989,7 +18989,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1239">
@@ -18997,7 +18997,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1240">
@@ -19005,7 +19005,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1241">
@@ -19013,7 +19013,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1242">
@@ -19021,7 +19021,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1243">
@@ -19029,7 +19029,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1244">
@@ -19037,7 +19037,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1245">
@@ -19045,7 +19045,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1246">
@@ -19053,7 +19053,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1247">
@@ -19061,7 +19061,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1248">
@@ -19069,7 +19069,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1249">
@@ -19077,7 +19077,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1250">
@@ -19085,7 +19085,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1251">
@@ -19093,7 +19093,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1252">
@@ -19101,7 +19101,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1253">
@@ -19109,7 +19109,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1254">
@@ -19117,7 +19117,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1255">
@@ -19125,7 +19125,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1256">
@@ -19133,7 +19133,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1257">
@@ -19141,7 +19141,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1258">
@@ -19149,7 +19149,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1259">
@@ -19157,7 +19157,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1260">
@@ -19165,7 +19165,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1261">
@@ -19173,7 +19173,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1262">
@@ -19181,7 +19181,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1263">
@@ -19189,7 +19189,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1264">
@@ -19197,7 +19197,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1265">
@@ -19205,7 +19205,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1266">
@@ -19213,7 +19213,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1267">
@@ -19221,7 +19221,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1268">
@@ -19229,7 +19229,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1269">
@@ -19237,7 +19237,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1270">
@@ -19245,7 +19245,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1271">
@@ -19253,7 +19253,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1272">
@@ -19261,7 +19261,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1273">
@@ -19269,7 +19269,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1274">
@@ -19277,7 +19277,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1275">
@@ -19285,7 +19285,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1276">
@@ -19293,7 +19293,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1277">
@@ -19301,7 +19301,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1278">
@@ -19309,7 +19309,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1279">
@@ -19317,7 +19317,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1280">
@@ -19325,7 +19325,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1281">
@@ -19333,7 +19333,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1282">
@@ -19341,7 +19341,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1283">
@@ -19349,7 +19349,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1284">
@@ -19357,7 +19357,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1285">
@@ -19365,7 +19365,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1286">
@@ -19373,7 +19373,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1287">
@@ -19381,7 +19381,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1288">
@@ -19389,7 +19389,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1289">
@@ -19397,7 +19397,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1290">
@@ -19405,7 +19405,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1291">
@@ -19413,7 +19413,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1292">
@@ -19421,7 +19421,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1293">
@@ -19429,7 +19429,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1294">
@@ -19437,7 +19437,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1295">
@@ -19445,7 +19445,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1296">
@@ -19453,7 +19453,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1297">
@@ -19461,7 +19461,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1298">
@@ -19469,7 +19469,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1299">
@@ -19477,7 +19477,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1300">
@@ -19485,7 +19485,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1301">
@@ -19493,7 +19493,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1302">
@@ -19501,7 +19501,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1303">
@@ -19509,7 +19509,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1304">
@@ -19517,7 +19517,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1305">
@@ -19525,7 +19525,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1306">
@@ -19533,7 +19533,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1307">
@@ -19541,7 +19541,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1308">
@@ -19549,7 +19549,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1309">
@@ -19557,7 +19557,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1310">
@@ -19565,7 +19565,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1311">
@@ -19573,7 +19573,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1312">
@@ -19581,7 +19581,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1313">
@@ -19589,7 +19589,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1314">
@@ -19597,7 +19597,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1315">
@@ -19605,7 +19605,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1316">
@@ -19613,7 +19613,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1317">
@@ -19621,7 +19621,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1318">
@@ -19629,7 +19629,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1319">
@@ -19637,7 +19637,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1320">
@@ -19645,7 +19645,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1321">
@@ -19653,7 +19653,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1322">
@@ -19661,7 +19661,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1323">
@@ -19669,7 +19669,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1324">
@@ -19677,7 +19677,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1325">
@@ -19685,7 +19685,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1326">
@@ -19693,7 +19693,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1327">
@@ -19701,7 +19701,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1328">
@@ -19709,7 +19709,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1329">
@@ -19717,7 +19717,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1330">
@@ -19725,7 +19725,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1331">
@@ -19733,7 +19733,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1332">
@@ -19741,7 +19741,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1333">
@@ -19749,7 +19749,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1334">
@@ -19757,7 +19757,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1335">
@@ -19765,7 +19765,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1336">
@@ -19773,7 +19773,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1337">
@@ -19781,7 +19781,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1338">
@@ -19789,7 +19789,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1339">
@@ -19797,7 +19797,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1340">
@@ -19805,7 +19805,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1341">
@@ -19813,7 +19813,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1342">
@@ -19821,7 +19821,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1343">
@@ -19829,7 +19829,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1344">
@@ -19837,7 +19837,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1345">
@@ -19845,7 +19845,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1346">
@@ -19853,7 +19853,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1347">
@@ -19861,7 +19861,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1348">
@@ -19869,7 +19869,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1349">
@@ -19877,7 +19877,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1350">
@@ -19885,7 +19885,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1351">
@@ -19893,7 +19893,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1352">
@@ -19901,7 +19901,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1353">
@@ -19909,7 +19909,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1354">
@@ -19917,7 +19917,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1355">
@@ -19925,7 +19925,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1356">
@@ -19933,7 +19933,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1357">
@@ -19941,7 +19941,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1358">
@@ -19949,7 +19949,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1359">
@@ -19957,7 +19957,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1360">
@@ -19965,7 +19965,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1361">
@@ -19973,7 +19973,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1362">
@@ -19981,7 +19981,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1363">
@@ -19989,7 +19989,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1364">
@@ -19997,7 +19997,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1365">
@@ -20005,7 +20005,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1366">
@@ -20013,7 +20013,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1367">
@@ -20021,7 +20021,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1368">
@@ -20029,7 +20029,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1369">
@@ -20037,7 +20037,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1370">
@@ -20045,7 +20045,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1371">
@@ -20053,7 +20053,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1372">
@@ -20061,7 +20061,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1373">
@@ -20069,7 +20069,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1374">
@@ -20077,7 +20077,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1375">
@@ -20085,7 +20085,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1376">
@@ -20093,7 +20093,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1377">
@@ -20101,7 +20101,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1378">
@@ -20109,7 +20109,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1379">
@@ -20117,7 +20117,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1380">
@@ -20125,7 +20125,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1381">
@@ -20133,7 +20133,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1382">
@@ -20141,7 +20141,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1383">
@@ -20149,7 +20149,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1384">
@@ -20157,7 +20157,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1385">
@@ -20165,7 +20165,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1386">
@@ -20173,7 +20173,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1387">
@@ -20181,7 +20181,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1388">
@@ -20189,7 +20189,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1389">
@@ -20197,7 +20197,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1390">
@@ -20205,7 +20205,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1391">
@@ -20213,7 +20213,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1392">
@@ -20221,7 +20221,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1393">
@@ -20229,7 +20229,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1394">
@@ -20237,7 +20237,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1395">
@@ -20245,7 +20245,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1396">
@@ -20253,7 +20253,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1397">
@@ -20261,7 +20261,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1398">
@@ -20269,7 +20269,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1399">
@@ -20277,7 +20277,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1400">
@@ -20285,7 +20285,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1401">
@@ -20293,7 +20293,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1402">
@@ -20301,7 +20301,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1403">
@@ -20309,7 +20309,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1404">
@@ -20317,7 +20317,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1405">
@@ -20325,7 +20325,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1406">
@@ -20333,7 +20333,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1407">
@@ -20341,7 +20341,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1408">
@@ -20349,7 +20349,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1409">
@@ -20357,7 +20357,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1410">
@@ -20365,7 +20365,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1411">
@@ -20373,7 +20373,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1412">
@@ -20381,7 +20381,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1413">
@@ -20389,7 +20389,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1414">
@@ -20397,7 +20397,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1415">
@@ -20405,7 +20405,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1416">
@@ -20413,7 +20413,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1417">
@@ -20421,7 +20421,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1418">
@@ -20429,7 +20429,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1419">
@@ -20437,7 +20437,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1420">
@@ -20445,7 +20445,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1421">
@@ -20453,7 +20453,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1422">
@@ -20461,7 +20461,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1423">
@@ -20469,7 +20469,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1424">
@@ -20477,7 +20477,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1425">
@@ -20485,7 +20485,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1426">
@@ -20493,7 +20493,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1427">
@@ -20501,7 +20501,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1428">
@@ -20509,7 +20509,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1429">
@@ -20517,7 +20517,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1430">
@@ -20525,7 +20525,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1431">
@@ -20533,7 +20533,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1432">
@@ -20541,7 +20541,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1433">
@@ -20549,7 +20549,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1434">
@@ -20557,7 +20557,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1435">
@@ -20565,7 +20565,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1436">
@@ -20573,7 +20573,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1437">
@@ -20581,7 +20581,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1438">
@@ -20589,7 +20589,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1439">
@@ -20597,7 +20597,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1440">
@@ -20605,7 +20605,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1441">
@@ -20613,7 +20613,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1442">
@@ -20621,7 +20621,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1443">
@@ -20629,7 +20629,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1444">
@@ -20637,7 +20637,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1445">
@@ -20645,7 +20645,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1446">
@@ -20653,7 +20653,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1447">
@@ -20661,7 +20661,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1448">
@@ -20669,7 +20669,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1449">
@@ -20677,7 +20677,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1450">
@@ -20685,7 +20685,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1451">
@@ -20693,7 +20693,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1452">
@@ -20701,7 +20701,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1453">
@@ -20709,7 +20709,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1454">
@@ -20717,7 +20717,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1455">
@@ -20725,7 +20725,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1456">
@@ -20733,7 +20733,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1457">
@@ -20741,7 +20741,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1458">
@@ -20749,7 +20749,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1459">
@@ -20757,7 +20757,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1460">
@@ -20765,7 +20765,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1461">
@@ -20773,7 +20773,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="1462">
@@ -20781,7 +20781,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>31.99</v>
+        <v>28.83</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14181,7 +14181,7 @@
         <v>45927</v>
       </c>
       <c r="B637" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="638">
@@ -14189,7 +14189,7 @@
         <v>45928</v>
       </c>
       <c r="B638" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="639">
@@ -14197,7 +14197,7 @@
         <v>45929</v>
       </c>
       <c r="B639" t="n">
-        <v>31.84</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="640">
@@ -14205,7 +14205,7 @@
         <v>45930</v>
       </c>
       <c r="B640" t="n">
-        <v>31.84</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="641">
@@ -14213,7 +14213,7 @@
         <v>45931</v>
       </c>
       <c r="B641" t="n">
-        <v>31.84</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="642">
@@ -14221,7 +14221,7 @@
         <v>45932</v>
       </c>
       <c r="B642" t="n">
-        <v>31.84</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="643">
@@ -14229,7 +14229,7 @@
         <v>45933</v>
       </c>
       <c r="B643" t="n">
-        <v>31.84</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="644">
@@ -14237,7 +14237,7 @@
         <v>45934</v>
       </c>
       <c r="B644" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="645">
@@ -14245,7 +14245,7 @@
         <v>45935</v>
       </c>
       <c r="B645" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="646">
@@ -14253,7 +14253,7 @@
         <v>45936</v>
       </c>
       <c r="B646" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="647">
@@ -14261,7 +14261,7 @@
         <v>45937</v>
       </c>
       <c r="B647" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="648">
@@ -14269,7 +14269,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="649">
@@ -14277,7 +14277,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="650">
@@ -14285,7 +14285,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="651">
@@ -14293,7 +14293,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="652">
@@ -14301,7 +14301,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="653">
@@ -14309,7 +14309,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="654">
@@ -14317,7 +14317,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="655">
@@ -14325,7 +14325,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="656">
@@ -14333,7 +14333,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="657">
@@ -14341,7 +14341,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="658">
@@ -14349,7 +14349,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="659">
@@ -14357,7 +14357,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="660">
@@ -14365,7 +14365,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="661">
@@ -14373,7 +14373,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="662">
@@ -14381,7 +14381,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="663">
@@ -14389,7 +14389,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="664">
@@ -14397,7 +14397,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="665">
@@ -14405,7 +14405,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="666">
@@ -14413,7 +14413,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="667">
@@ -14421,7 +14421,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="668">
@@ -14429,7 +14429,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="669">
@@ -14437,7 +14437,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="670">
@@ -14445,7 +14445,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="671">
@@ -14453,7 +14453,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="672">
@@ -14461,7 +14461,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="673">
@@ -14469,7 +14469,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="674">
@@ -14477,7 +14477,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="675">
@@ -14485,7 +14485,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="676">
@@ -14493,7 +14493,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="677">
@@ -14501,7 +14501,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="678">
@@ -14509,7 +14509,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="679">
@@ -14517,7 +14517,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="680">
@@ -14525,7 +14525,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="681">
@@ -14533,7 +14533,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="682">
@@ -14541,7 +14541,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="683">
@@ -14549,7 +14549,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="684">
@@ -14557,7 +14557,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="685">
@@ -14565,7 +14565,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="686">
@@ -14573,7 +14573,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="687">
@@ -14581,7 +14581,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="688">
@@ -14589,7 +14589,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="689">
@@ -14597,7 +14597,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="690">
@@ -14605,7 +14605,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="691">
@@ -14613,7 +14613,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="692">
@@ -14621,7 +14621,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="693">
@@ -14629,7 +14629,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="694">
@@ -14637,7 +14637,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="695">
@@ -14645,7 +14645,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="696">
@@ -14653,7 +14653,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="697">
@@ -14661,7 +14661,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="698">
@@ -14669,7 +14669,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="699">
@@ -14677,7 +14677,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="700">
@@ -14685,7 +14685,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="701">
@@ -14693,7 +14693,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.13</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="702">
@@ -14701,7 +14701,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="703">
@@ -14709,7 +14709,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="704">
@@ -14717,7 +14717,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="705">
@@ -14725,7 +14725,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="706">
@@ -14733,7 +14733,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="707">
@@ -14741,7 +14741,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="708">
@@ -14749,7 +14749,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="709">
@@ -14757,7 +14757,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="710">
@@ -14765,7 +14765,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="711">
@@ -14773,7 +14773,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="712">
@@ -14781,7 +14781,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="713">
@@ -14789,7 +14789,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="714">
@@ -14797,7 +14797,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="715">
@@ -14805,7 +14805,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="716">
@@ -14813,7 +14813,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="717">
@@ -14821,7 +14821,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="718">
@@ -14829,7 +14829,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="719">
@@ -14837,7 +14837,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="720">
@@ -14845,7 +14845,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="721">
@@ -14853,7 +14853,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="722">
@@ -14861,7 +14861,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="723">
@@ -14869,7 +14869,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="724">
@@ -14877,7 +14877,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="725">
@@ -14885,7 +14885,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="726">
@@ -14893,7 +14893,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="727">
@@ -14901,7 +14901,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="728">
@@ -14909,7 +14909,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="729">
@@ -14917,7 +14917,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="730">
@@ -14925,7 +14925,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="731">
@@ -14933,7 +14933,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="732">
@@ -14941,7 +14941,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>32.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="733">
@@ -14949,7 +14949,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="734">
@@ -14957,7 +14957,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="735">
@@ -14965,7 +14965,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="736">
@@ -14973,7 +14973,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="737">
@@ -14981,7 +14981,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="738">
@@ -14989,7 +14989,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="739">
@@ -14997,7 +14997,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="740">
@@ -15005,7 +15005,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="741">
@@ -15013,7 +15013,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="742">
@@ -15021,7 +15021,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="743">
@@ -15029,7 +15029,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="744">
@@ -15037,7 +15037,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="745">
@@ -15045,7 +15045,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="746">
@@ -15053,7 +15053,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="747">
@@ -15061,7 +15061,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="748">
@@ -15069,7 +15069,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="749">
@@ -15077,7 +15077,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="750">
@@ -15085,7 +15085,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="751">
@@ -15093,7 +15093,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="752">
@@ -15101,7 +15101,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="753">
@@ -15109,7 +15109,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="754">
@@ -15117,7 +15117,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="755">
@@ -15125,7 +15125,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="756">
@@ -15133,7 +15133,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="757">
@@ -15141,7 +15141,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="758">
@@ -15149,7 +15149,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="759">
@@ -15157,7 +15157,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="760">
@@ -15165,7 +15165,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="761">
@@ -15173,7 +15173,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="762">
@@ -15181,7 +15181,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="763">
@@ -15189,7 +15189,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>32.7</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="764">
@@ -15197,7 +15197,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="765">
@@ -15205,7 +15205,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="766">
@@ -15213,7 +15213,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="767">
@@ -15221,7 +15221,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="768">
@@ -15229,7 +15229,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="769">
@@ -15237,7 +15237,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="770">
@@ -15245,7 +15245,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="771">
@@ -15253,7 +15253,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="772">
@@ -15261,7 +15261,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="773">
@@ -15269,7 +15269,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="774">
@@ -15277,7 +15277,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="775">
@@ -15285,7 +15285,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="776">
@@ -15293,7 +15293,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="777">
@@ -15301,7 +15301,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="778">
@@ -15309,7 +15309,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="779">
@@ -15317,7 +15317,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="780">
@@ -15325,7 +15325,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="781">
@@ -15333,7 +15333,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="782">
@@ -15341,7 +15341,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="783">
@@ -15349,7 +15349,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="784">
@@ -15357,7 +15357,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="785">
@@ -15365,7 +15365,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="786">
@@ -15373,7 +15373,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="787">
@@ -15381,7 +15381,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="788">
@@ -15389,7 +15389,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="789">
@@ -15397,7 +15397,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="790">
@@ -15405,7 +15405,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="791">
@@ -15413,7 +15413,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.68</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="792">
@@ -15421,7 +15421,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="793">
@@ -15429,7 +15429,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="794">
@@ -15437,7 +15437,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="795">
@@ -15445,7 +15445,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="796">
@@ -15453,7 +15453,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="797">
@@ -15461,7 +15461,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="798">
@@ -15469,7 +15469,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="799">
@@ -15477,7 +15477,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="800">
@@ -15485,7 +15485,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="801">
@@ -15493,7 +15493,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="802">
@@ -15501,7 +15501,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="803">
@@ -15509,7 +15509,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="804">
@@ -15517,7 +15517,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="805">
@@ -15525,7 +15525,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="806">
@@ -15533,7 +15533,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="807">
@@ -15541,7 +15541,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="808">
@@ -15549,7 +15549,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="809">
@@ -15557,7 +15557,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="810">
@@ -15565,7 +15565,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="811">
@@ -15573,7 +15573,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="812">
@@ -15581,7 +15581,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="813">
@@ -15589,7 +15589,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="814">
@@ -15597,7 +15597,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="815">
@@ -15605,7 +15605,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="816">
@@ -15613,7 +15613,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="817">
@@ -15621,7 +15621,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="818">
@@ -15629,7 +15629,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="819">
@@ -15637,7 +15637,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="820">
@@ -15645,7 +15645,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="821">
@@ -15653,7 +15653,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="822">
@@ -15661,7 +15661,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="823">
@@ -15669,7 +15669,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="824">
@@ -15677,7 +15677,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="825">
@@ -15685,7 +15685,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="826">
@@ -15693,7 +15693,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="827">
@@ -15701,7 +15701,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="828">
@@ -15709,7 +15709,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="829">
@@ -15717,7 +15717,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="830">
@@ -15725,7 +15725,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="831">
@@ -15733,7 +15733,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="832">
@@ -15741,7 +15741,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="833">
@@ -15749,7 +15749,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="834">
@@ -15757,7 +15757,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="835">
@@ -15765,7 +15765,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="836">
@@ -15773,7 +15773,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="837">
@@ -15781,7 +15781,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="838">
@@ -15789,7 +15789,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="839">
@@ -15797,7 +15797,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="840">
@@ -15805,7 +15805,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="841">
@@ -15813,7 +15813,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="842">
@@ -15821,7 +15821,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="843">
@@ -15829,7 +15829,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="844">
@@ -15837,7 +15837,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="845">
@@ -15845,7 +15845,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="846">
@@ -15853,7 +15853,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="847">
@@ -15861,7 +15861,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="848">
@@ -15869,7 +15869,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="849">
@@ -15877,7 +15877,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="850">
@@ -15885,7 +15885,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="851">
@@ -15893,7 +15893,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="852">
@@ -15901,7 +15901,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="853">
@@ -15909,7 +15909,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="854">
@@ -15917,7 +15917,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="855">
@@ -15925,7 +15925,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="856">
@@ -15933,7 +15933,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="857">
@@ -15941,7 +15941,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="858">
@@ -15949,7 +15949,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="859">
@@ -15957,7 +15957,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="860">
@@ -15965,7 +15965,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="861">
@@ -15973,7 +15973,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="862">
@@ -15981,7 +15981,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="863">
@@ -15989,7 +15989,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="864">
@@ -15997,7 +15997,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="865">
@@ -16005,7 +16005,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="866">
@@ -16013,7 +16013,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="867">
@@ -16021,7 +16021,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="868">
@@ -16029,7 +16029,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="869">
@@ -16037,7 +16037,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="870">
@@ -16045,7 +16045,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="871">
@@ -16053,7 +16053,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="872">
@@ -16061,7 +16061,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="873">
@@ -16069,7 +16069,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="874">
@@ -16077,7 +16077,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="875">
@@ -16085,7 +16085,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="876">
@@ -16093,7 +16093,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="877">
@@ -16101,7 +16101,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="878">
@@ -16109,7 +16109,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="879">
@@ -16117,7 +16117,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="880">
@@ -16125,7 +16125,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="881">
@@ -16133,7 +16133,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="882">
@@ -16141,7 +16141,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="883">
@@ -16149,7 +16149,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="884">
@@ -16157,7 +16157,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="885">
@@ -16165,7 +16165,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="886">
@@ -16173,7 +16173,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="887">
@@ -16181,7 +16181,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="888">
@@ -16189,7 +16189,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="889">
@@ -16197,7 +16197,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="890">
@@ -16205,7 +16205,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="891">
@@ -16213,7 +16213,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="892">
@@ -16221,7 +16221,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="893">
@@ -16229,7 +16229,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="894">
@@ -16237,7 +16237,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="895">
@@ -16245,7 +16245,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="896">
@@ -16253,7 +16253,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="897">
@@ -16261,7 +16261,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="898">
@@ -16269,7 +16269,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="899">
@@ -16277,7 +16277,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="900">
@@ -16285,7 +16285,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="901">
@@ -16293,7 +16293,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="902">
@@ -16301,7 +16301,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="903">
@@ -16309,7 +16309,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="904">
@@ -16317,7 +16317,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="905">
@@ -16325,7 +16325,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="906">
@@ -16333,7 +16333,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="907">
@@ -16341,7 +16341,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="908">
@@ -16349,7 +16349,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="909">
@@ -16357,7 +16357,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="910">
@@ -16365,7 +16365,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="911">
@@ -16373,7 +16373,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="912">
@@ -16381,7 +16381,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="913">
@@ -16389,7 +16389,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="914">
@@ -16397,7 +16397,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="915">
@@ -16405,7 +16405,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="916">
@@ -16413,7 +16413,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="917">
@@ -16421,7 +16421,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="918">
@@ -16429,7 +16429,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="919">
@@ -16437,7 +16437,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="920">
@@ -16445,7 +16445,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="921">
@@ -16453,7 +16453,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="922">
@@ -16461,7 +16461,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="923">
@@ -16469,7 +16469,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="924">
@@ -16477,7 +16477,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="925">
@@ -16485,7 +16485,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="926">
@@ -16493,7 +16493,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="927">
@@ -16501,7 +16501,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="928">
@@ -16509,7 +16509,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="929">
@@ -16517,7 +16517,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="930">
@@ -16525,7 +16525,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="931">
@@ -16533,7 +16533,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="932">
@@ -16541,7 +16541,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="933">
@@ -16549,7 +16549,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="934">
@@ -16557,7 +16557,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="935">
@@ -16565,7 +16565,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="936">
@@ -16573,7 +16573,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="937">
@@ -16581,7 +16581,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="938">
@@ -16589,7 +16589,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="939">
@@ -16597,7 +16597,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="940">
@@ -16605,7 +16605,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="941">
@@ -16613,7 +16613,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="942">
@@ -16621,7 +16621,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="943">
@@ -16629,7 +16629,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="944">
@@ -16637,7 +16637,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="945">
@@ -16645,7 +16645,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="946">
@@ -16653,7 +16653,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="947">
@@ -16661,7 +16661,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="948">
@@ -16669,7 +16669,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="949">
@@ -16677,7 +16677,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="950">
@@ -16685,7 +16685,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="951">
@@ -16693,7 +16693,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="952">
@@ -16701,7 +16701,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="953">
@@ -16709,7 +16709,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="954">
@@ -16717,7 +16717,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="955">
@@ -16725,7 +16725,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="956">
@@ -16733,7 +16733,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="957">
@@ -16741,7 +16741,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="958">
@@ -16749,7 +16749,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="959">
@@ -16757,7 +16757,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="960">
@@ -16765,7 +16765,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="961">
@@ -16773,7 +16773,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="962">
@@ -16781,7 +16781,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="963">
@@ -16789,7 +16789,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="964">
@@ -16797,7 +16797,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="965">
@@ -16805,7 +16805,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="966">
@@ -16813,7 +16813,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="967">
@@ -16821,7 +16821,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="968">
@@ -16829,7 +16829,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="969">
@@ -16837,7 +16837,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="970">
@@ -16845,7 +16845,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="971">
@@ -16853,7 +16853,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="972">
@@ -16861,7 +16861,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="973">
@@ -16869,7 +16869,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="974">
@@ -16877,7 +16877,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="975">
@@ -16885,7 +16885,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="976">
@@ -16893,7 +16893,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="977">
@@ -16901,7 +16901,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="978">
@@ -16909,7 +16909,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="979">
@@ -16917,7 +16917,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="980">
@@ -16925,7 +16925,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="981">
@@ -16933,7 +16933,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="982">
@@ -16941,7 +16941,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="983">
@@ -16949,7 +16949,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="984">
@@ -16957,7 +16957,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="985">
@@ -16965,7 +16965,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="986">
@@ -16973,7 +16973,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="987">
@@ -16981,7 +16981,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="988">
@@ -16989,7 +16989,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="989">
@@ -16997,7 +16997,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="990">
@@ -17005,7 +17005,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="991">
@@ -17013,7 +17013,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="992">
@@ -17021,7 +17021,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="993">
@@ -17029,7 +17029,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="994">
@@ -17037,7 +17037,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="995">
@@ -17045,7 +17045,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="996">
@@ -17053,7 +17053,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="997">
@@ -17061,7 +17061,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="998">
@@ -17069,7 +17069,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="999">
@@ -17077,7 +17077,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1000">
@@ -17085,7 +17085,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1001">
@@ -17093,7 +17093,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1002">
@@ -17101,7 +17101,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1003">
@@ -17109,7 +17109,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1004">
@@ -17117,7 +17117,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1005">
@@ -17125,7 +17125,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.49</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1006">
@@ -17133,7 +17133,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1007">
@@ -17141,7 +17141,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1008">
@@ -17149,7 +17149,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1009">
@@ -17157,7 +17157,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1010">
@@ -17165,7 +17165,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1011">
@@ -17173,7 +17173,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1012">
@@ -17181,7 +17181,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1013">
@@ -17189,7 +17189,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1014">
@@ -17197,7 +17197,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1015">
@@ -17205,7 +17205,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1016">
@@ -17213,7 +17213,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1017">
@@ -17221,7 +17221,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1018">
@@ -17229,7 +17229,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1019">
@@ -17237,7 +17237,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1020">
@@ -17245,7 +17245,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1021">
@@ -17253,7 +17253,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1022">
@@ -17261,7 +17261,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1023">
@@ -17269,7 +17269,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1024">
@@ -17277,7 +17277,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1025">
@@ -17285,7 +17285,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1026">
@@ -17293,7 +17293,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1027">
@@ -17301,7 +17301,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1028">
@@ -17309,7 +17309,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1029">
@@ -17317,7 +17317,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1030">
@@ -17325,7 +17325,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1031">
@@ -17333,7 +17333,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1032">
@@ -17341,7 +17341,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1033">
@@ -17349,7 +17349,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1034">
@@ -17357,7 +17357,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1035">
@@ -17365,7 +17365,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1036">
@@ -17373,7 +17373,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1037">
@@ -17381,7 +17381,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1038">
@@ -17389,7 +17389,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1039">
@@ -17397,7 +17397,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1040">
@@ -17405,7 +17405,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1041">
@@ -17413,7 +17413,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1042">
@@ -17421,7 +17421,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1043">
@@ -17429,7 +17429,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1044">
@@ -17437,7 +17437,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1045">
@@ -17445,7 +17445,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1046">
@@ -17453,7 +17453,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1047">
@@ -17461,7 +17461,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1048">
@@ -17469,7 +17469,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1049">
@@ -17477,7 +17477,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1050">
@@ -17485,7 +17485,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1051">
@@ -17493,7 +17493,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1052">
@@ -17501,7 +17501,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1053">
@@ -17509,7 +17509,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1054">
@@ -17517,7 +17517,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1055">
@@ -17525,7 +17525,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1056">
@@ -17533,7 +17533,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1057">
@@ -17541,7 +17541,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1058">
@@ -17549,7 +17549,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1059">
@@ -17557,7 +17557,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1060">
@@ -17565,7 +17565,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1061">
@@ -17573,7 +17573,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1062">
@@ -17581,7 +17581,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1063">
@@ -17589,7 +17589,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1064">
@@ -17597,7 +17597,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1065">
@@ -17605,7 +17605,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1066">
@@ -17613,7 +17613,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1067">
@@ -17621,7 +17621,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1068">
@@ -17629,7 +17629,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1069">
@@ -17637,7 +17637,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1070">
@@ -17645,7 +17645,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1071">
@@ -17653,7 +17653,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1072">
@@ -17661,7 +17661,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1073">
@@ -17669,7 +17669,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1074">
@@ -17677,7 +17677,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1075">
@@ -17685,7 +17685,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1076">
@@ -17693,7 +17693,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1077">
@@ -17701,7 +17701,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1078">
@@ -17709,7 +17709,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1079">
@@ -17717,7 +17717,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1080">
@@ -17725,7 +17725,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1081">
@@ -17733,7 +17733,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1082">
@@ -17741,7 +17741,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1083">
@@ -17749,7 +17749,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1084">
@@ -17757,7 +17757,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1085">
@@ -17765,7 +17765,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1086">
@@ -17773,7 +17773,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1087">
@@ -17781,7 +17781,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1088">
@@ -17789,7 +17789,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1089">
@@ -17797,7 +17797,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1090">
@@ -17805,7 +17805,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1091">
@@ -17813,7 +17813,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1092">
@@ -17821,7 +17821,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1093">
@@ -17829,7 +17829,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1094">
@@ -17837,7 +17837,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1095">
@@ -17845,7 +17845,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1096">
@@ -17853,7 +17853,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1097">
@@ -17861,7 +17861,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1098">
@@ -17869,7 +17869,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1099">
@@ -17877,7 +17877,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1100">
@@ -17885,7 +17885,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1101">
@@ -17893,7 +17893,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1102">
@@ -17901,7 +17901,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1103">
@@ -17909,7 +17909,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1104">
@@ -17917,7 +17917,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1105">
@@ -17925,7 +17925,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1106">
@@ -17933,7 +17933,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1107">
@@ -17941,7 +17941,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1108">
@@ -17949,7 +17949,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1109">
@@ -17957,7 +17957,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1110">
@@ -17965,7 +17965,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1111">
@@ -17973,7 +17973,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1112">
@@ -17981,7 +17981,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1113">
@@ -17989,7 +17989,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1114">
@@ -17997,7 +17997,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1115">
@@ -18005,7 +18005,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1116">
@@ -18013,7 +18013,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1117">
@@ -18021,7 +18021,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1118">
@@ -18029,7 +18029,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1119">
@@ -18037,7 +18037,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1120">
@@ -18045,7 +18045,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1121">
@@ -18053,7 +18053,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1122">
@@ -18061,7 +18061,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1123">
@@ -18069,7 +18069,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1124">
@@ -18077,7 +18077,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1125">
@@ -18085,7 +18085,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1126">
@@ -18093,7 +18093,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1127">
@@ -18101,7 +18101,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1128">
@@ -18109,7 +18109,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1129">
@@ -18117,7 +18117,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1130">
@@ -18125,7 +18125,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1131">
@@ -18133,7 +18133,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1132">
@@ -18141,7 +18141,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1133">
@@ -18149,7 +18149,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1134">
@@ -18157,7 +18157,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1135">
@@ -18165,7 +18165,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1136">
@@ -18173,7 +18173,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1137">
@@ -18181,7 +18181,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1138">
@@ -18189,7 +18189,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1139">
@@ -18197,7 +18197,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1140">
@@ -18205,7 +18205,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1141">
@@ -18213,7 +18213,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1142">
@@ -18221,7 +18221,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1143">
@@ -18229,7 +18229,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1144">
@@ -18237,7 +18237,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1145">
@@ -18245,7 +18245,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1146">
@@ -18253,7 +18253,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1147">
@@ -18261,7 +18261,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1148">
@@ -18269,7 +18269,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1149">
@@ -18277,7 +18277,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1150">
@@ -18285,7 +18285,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1151">
@@ -18293,7 +18293,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1152">
@@ -18301,7 +18301,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1153">
@@ -18309,7 +18309,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1154">
@@ -18317,7 +18317,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1155">
@@ -18325,7 +18325,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1156">
@@ -18333,7 +18333,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1157">
@@ -18341,7 +18341,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1158">
@@ -18349,7 +18349,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1159">
@@ -18357,7 +18357,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1160">
@@ -18365,7 +18365,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1161">
@@ -18373,7 +18373,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1162">
@@ -18381,7 +18381,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1163">
@@ -18389,7 +18389,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1164">
@@ -18397,7 +18397,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1165">
@@ -18405,7 +18405,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1166">
@@ -18413,7 +18413,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1167">
@@ -18421,7 +18421,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1168">
@@ -18429,7 +18429,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1169">
@@ -18437,7 +18437,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1170">
@@ -18445,7 +18445,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1171">
@@ -18453,7 +18453,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1172">
@@ -18461,7 +18461,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1173">
@@ -18469,7 +18469,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1174">
@@ -18477,7 +18477,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1175">
@@ -18485,7 +18485,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1176">
@@ -18493,7 +18493,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1177">
@@ -18501,7 +18501,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1178">
@@ -18509,7 +18509,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1179">
@@ -18517,7 +18517,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1180">
@@ -18525,7 +18525,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1181">
@@ -18533,7 +18533,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1182">
@@ -18541,7 +18541,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1183">
@@ -18549,7 +18549,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1184">
@@ -18557,7 +18557,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1185">
@@ -18565,7 +18565,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1186">
@@ -18573,7 +18573,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1187">
@@ -18581,7 +18581,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.63</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1188">
@@ -18589,7 +18589,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1189">
@@ -18597,7 +18597,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1190">
@@ -18605,7 +18605,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1191">
@@ -18613,7 +18613,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1192">
@@ -18621,7 +18621,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1193">
@@ -18629,7 +18629,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1194">
@@ -18637,7 +18637,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1195">
@@ -18645,7 +18645,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1196">
@@ -18653,7 +18653,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1197">
@@ -18661,7 +18661,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1198">
@@ -18669,7 +18669,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1199">
@@ -18677,7 +18677,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1200">
@@ -18685,7 +18685,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1201">
@@ -18693,7 +18693,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1202">
@@ -18701,7 +18701,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1203">
@@ -18709,7 +18709,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1204">
@@ -18717,7 +18717,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1205">
@@ -18725,7 +18725,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1206">
@@ -18733,7 +18733,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1207">
@@ -18741,7 +18741,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1208">
@@ -18749,7 +18749,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1209">
@@ -18757,7 +18757,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1210">
@@ -18765,7 +18765,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1211">
@@ -18773,7 +18773,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1212">
@@ -18781,7 +18781,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1213">
@@ -18789,7 +18789,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1214">
@@ -18797,7 +18797,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1215">
@@ -18805,7 +18805,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1216">
@@ -18813,7 +18813,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1217">
@@ -18821,7 +18821,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1218">
@@ -18829,7 +18829,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1219">
@@ -18837,7 +18837,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1220">
@@ -18845,7 +18845,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1221">
@@ -18853,7 +18853,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1222">
@@ -18861,7 +18861,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1223">
@@ -18869,7 +18869,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1224">
@@ -18877,7 +18877,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1225">
@@ -18885,7 +18885,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1226">
@@ -18893,7 +18893,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1227">
@@ -18901,7 +18901,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1228">
@@ -18909,7 +18909,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1229">
@@ -18917,7 +18917,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1230">
@@ -18925,7 +18925,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1231">
@@ -18933,7 +18933,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1232">
@@ -18941,7 +18941,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1233">
@@ -18949,7 +18949,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1234">
@@ -18957,7 +18957,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1235">
@@ -18965,7 +18965,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1236">
@@ -18973,7 +18973,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1237">
@@ -18981,7 +18981,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1238">
@@ -18989,7 +18989,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1239">
@@ -18997,7 +18997,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1240">
@@ -19005,7 +19005,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1241">
@@ -19013,7 +19013,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1242">
@@ -19021,7 +19021,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1243">
@@ -19029,7 +19029,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1244">
@@ -19037,7 +19037,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1245">
@@ -19045,7 +19045,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1246">
@@ -19053,7 +19053,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1247">
@@ -19061,7 +19061,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1248">
@@ -19069,7 +19069,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1249">
@@ -19077,7 +19077,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1250">
@@ -19085,7 +19085,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1251">
@@ -19093,7 +19093,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1252">
@@ -19101,7 +19101,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1253">
@@ -19109,7 +19109,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1254">
@@ -19117,7 +19117,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1255">
@@ -19125,7 +19125,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1256">
@@ -19133,7 +19133,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1257">
@@ -19141,7 +19141,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1258">
@@ -19149,7 +19149,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1259">
@@ -19157,7 +19157,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1260">
@@ -19165,7 +19165,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1261">
@@ -19173,7 +19173,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1262">
@@ -19181,7 +19181,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1263">
@@ -19189,7 +19189,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1264">
@@ -19197,7 +19197,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1265">
@@ -19205,7 +19205,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1266">
@@ -19213,7 +19213,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1267">
@@ -19221,7 +19221,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1268">
@@ -19229,7 +19229,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1269">
@@ -19237,7 +19237,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1270">
@@ -19245,7 +19245,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1271">
@@ -19253,7 +19253,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1272">
@@ -19261,7 +19261,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1273">
@@ -19269,7 +19269,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1274">
@@ -19277,7 +19277,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1275">
@@ -19285,7 +19285,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1276">
@@ -19293,7 +19293,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1277">
@@ -19301,7 +19301,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1278">
@@ -19309,7 +19309,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1279">
@@ -19317,7 +19317,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1280">
@@ -19325,7 +19325,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1281">
@@ -19333,7 +19333,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1282">
@@ -19341,7 +19341,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1283">
@@ -19349,7 +19349,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1284">
@@ -19357,7 +19357,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1285">
@@ -19365,7 +19365,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1286">
@@ -19373,7 +19373,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1287">
@@ -19381,7 +19381,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1288">
@@ -19389,7 +19389,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1289">
@@ -19397,7 +19397,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1290">
@@ -19405,7 +19405,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1291">
@@ -19413,7 +19413,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1292">
@@ -19421,7 +19421,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1293">
@@ -19429,7 +19429,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1294">
@@ -19437,7 +19437,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1295">
@@ -19445,7 +19445,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1296">
@@ -19453,7 +19453,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1297">
@@ -19461,7 +19461,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1298">
@@ -19469,7 +19469,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1299">
@@ -19477,7 +19477,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1300">
@@ -19485,7 +19485,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1301">
@@ -19493,7 +19493,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1302">
@@ -19501,7 +19501,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1303">
@@ -19509,7 +19509,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1304">
@@ -19517,7 +19517,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1305">
@@ -19525,7 +19525,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1306">
@@ -19533,7 +19533,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1307">
@@ -19541,7 +19541,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1308">
@@ -19549,7 +19549,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1309">
@@ -19557,7 +19557,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1310">
@@ -19565,7 +19565,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1311">
@@ -19573,7 +19573,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1312">
@@ -19581,7 +19581,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1313">
@@ -19589,7 +19589,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1314">
@@ -19597,7 +19597,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1315">
@@ -19605,7 +19605,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1316">
@@ -19613,7 +19613,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1317">
@@ -19621,7 +19621,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1318">
@@ -19629,7 +19629,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1319">
@@ -19637,7 +19637,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1320">
@@ -19645,7 +19645,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1321">
@@ -19653,7 +19653,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1322">
@@ -19661,7 +19661,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1323">
@@ -19669,7 +19669,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1324">
@@ -19677,7 +19677,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1325">
@@ -19685,7 +19685,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1326">
@@ -19693,7 +19693,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1327">
@@ -19701,7 +19701,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1328">
@@ -19709,7 +19709,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1329">
@@ -19717,7 +19717,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1330">
@@ -19725,7 +19725,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1331">
@@ -19733,7 +19733,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1332">
@@ -19741,7 +19741,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1333">
@@ -19749,7 +19749,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1334">
@@ -19757,7 +19757,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1335">
@@ -19765,7 +19765,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1336">
@@ -19773,7 +19773,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1337">
@@ -19781,7 +19781,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1338">
@@ -19789,7 +19789,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1339">
@@ -19797,7 +19797,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1340">
@@ -19805,7 +19805,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1341">
@@ -19813,7 +19813,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1342">
@@ -19821,7 +19821,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1343">
@@ -19829,7 +19829,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1344">
@@ -19837,7 +19837,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1345">
@@ -19845,7 +19845,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1346">
@@ -19853,7 +19853,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1347">
@@ -19861,7 +19861,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1348">
@@ -19869,7 +19869,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1349">
@@ -19877,7 +19877,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1350">
@@ -19885,7 +19885,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1351">
@@ -19893,7 +19893,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1352">
@@ -19901,7 +19901,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1353">
@@ -19909,7 +19909,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1354">
@@ -19917,7 +19917,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1355">
@@ -19925,7 +19925,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1356">
@@ -19933,7 +19933,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1357">
@@ -19941,7 +19941,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1358">
@@ -19949,7 +19949,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1359">
@@ -19957,7 +19957,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1360">
@@ -19965,7 +19965,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1361">
@@ -19973,7 +19973,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1362">
@@ -19981,7 +19981,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1363">
@@ -19989,7 +19989,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1364">
@@ -19997,7 +19997,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1365">
@@ -20005,7 +20005,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1366">
@@ -20013,7 +20013,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1367">
@@ -20021,7 +20021,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1368">
@@ -20029,7 +20029,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1369">
@@ -20037,7 +20037,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1370">
@@ -20045,7 +20045,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1371">
@@ -20053,7 +20053,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1372">
@@ -20061,7 +20061,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1373">
@@ -20069,7 +20069,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1374">
@@ -20077,7 +20077,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1375">
@@ -20085,7 +20085,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1376">
@@ -20093,7 +20093,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1377">
@@ -20101,7 +20101,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1378">
@@ -20109,7 +20109,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1379">
@@ -20117,7 +20117,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1380">
@@ -20125,7 +20125,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1381">
@@ -20133,7 +20133,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1382">
@@ -20141,7 +20141,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1383">
@@ -20149,7 +20149,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1384">
@@ -20157,7 +20157,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1385">
@@ -20165,7 +20165,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1386">
@@ -20173,7 +20173,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1387">
@@ -20181,7 +20181,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1388">
@@ -20189,7 +20189,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1389">
@@ -20197,7 +20197,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1390">
@@ -20205,7 +20205,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1391">
@@ -20213,7 +20213,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1392">
@@ -20221,7 +20221,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1393">
@@ -20229,7 +20229,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1394">
@@ -20237,7 +20237,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1395">
@@ -20245,7 +20245,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1396">
@@ -20253,7 +20253,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1397">
@@ -20261,7 +20261,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1398">
@@ -20269,7 +20269,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1399">
@@ -20277,7 +20277,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1400">
@@ -20285,7 +20285,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1401">
@@ -20293,7 +20293,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1402">
@@ -20301,7 +20301,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1403">
@@ -20309,7 +20309,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1404">
@@ -20317,7 +20317,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1405">
@@ -20325,7 +20325,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1406">
@@ -20333,7 +20333,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1407">
@@ -20341,7 +20341,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1408">
@@ -20349,7 +20349,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1409">
@@ -20357,7 +20357,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1410">
@@ -20365,7 +20365,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1411">
@@ -20373,7 +20373,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1412">
@@ -20381,7 +20381,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1413">
@@ -20389,7 +20389,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1414">
@@ -20397,7 +20397,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1415">
@@ -20405,7 +20405,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1416">
@@ -20413,7 +20413,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1417">
@@ -20421,7 +20421,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1418">
@@ -20429,7 +20429,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1419">
@@ -20437,7 +20437,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1420">
@@ -20445,7 +20445,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1421">
@@ -20453,7 +20453,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1422">
@@ -20461,7 +20461,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1423">
@@ -20469,7 +20469,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1424">
@@ -20477,7 +20477,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1425">
@@ -20485,7 +20485,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1426">
@@ -20493,7 +20493,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1427">
@@ -20501,7 +20501,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1428">
@@ -20509,7 +20509,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1429">
@@ -20517,7 +20517,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1430">
@@ -20525,7 +20525,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1431">
@@ -20533,7 +20533,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1432">
@@ -20541,7 +20541,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1433">
@@ -20549,7 +20549,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1434">
@@ -20557,7 +20557,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1435">
@@ -20565,7 +20565,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1436">
@@ -20573,7 +20573,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1437">
@@ -20581,7 +20581,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1438">
@@ -20589,7 +20589,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1439">
@@ -20597,7 +20597,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1440">
@@ -20605,7 +20605,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1441">
@@ -20613,7 +20613,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1442">
@@ -20621,7 +20621,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1443">
@@ -20629,7 +20629,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1444">
@@ -20637,7 +20637,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1445">
@@ -20645,7 +20645,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1446">
@@ -20653,7 +20653,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1447">
@@ -20661,7 +20661,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1448">
@@ -20669,7 +20669,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1449">
@@ -20677,7 +20677,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1450">
@@ -20685,7 +20685,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1451">
@@ -20693,7 +20693,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1452">
@@ -20701,7 +20701,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1453">
@@ -20709,7 +20709,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1454">
@@ -20717,7 +20717,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1455">
@@ -20725,7 +20725,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1456">
@@ -20733,7 +20733,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1457">
@@ -20741,7 +20741,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1458">
@@ -20749,7 +20749,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1459">
@@ -20757,7 +20757,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1460">
@@ -20765,7 +20765,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1461">
@@ -20773,7 +20773,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="1462">
@@ -20781,7 +20781,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>28.83</v>
+        <v>31.99</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -14938,7 +14938,7 @@
         <v>45930</v>
       </c>
       <c r="B640" t="n">
-        <v>32.16</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="641">
@@ -14946,7 +14946,7 @@
         <v>45931</v>
       </c>
       <c r="B641" t="n">
-        <v>32.16</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="642">
@@ -14954,7 +14954,7 @@
         <v>45932</v>
       </c>
       <c r="B642" t="n">
-        <v>32.16</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="643">
@@ -14962,7 +14962,7 @@
         <v>45933</v>
       </c>
       <c r="B643" t="n">
-        <v>32.16</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="644">
@@ -14970,7 +14970,7 @@
         <v>45934</v>
       </c>
       <c r="B644" t="n">
-        <v>32.16</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="645">
@@ -14978,7 +14978,7 @@
         <v>45935</v>
       </c>
       <c r="B645" t="n">
-        <v>32.16</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="646">
@@ -14986,7 +14986,7 @@
         <v>45936</v>
       </c>
       <c r="B646" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="647">
@@ -14994,7 +14994,7 @@
         <v>45937</v>
       </c>
       <c r="B647" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="648">
@@ -15002,7 +15002,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="649">
@@ -15010,7 +15010,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="650">
@@ -15018,7 +15018,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="651">
@@ -15026,7 +15026,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="652">
@@ -15034,7 +15034,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="653">
@@ -15042,7 +15042,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="654">
@@ -15050,7 +15050,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="655">
@@ -15058,7 +15058,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="656">
@@ -15066,7 +15066,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="657">
@@ -15074,7 +15074,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="658">
@@ -15082,7 +15082,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="659">
@@ -15090,7 +15090,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.77</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="660">
@@ -15098,7 +15098,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="661">
@@ -15106,7 +15106,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="662">
@@ -15114,7 +15114,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="663">
@@ -15122,7 +15122,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="664">
@@ -15130,7 +15130,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="665">
@@ -15138,7 +15138,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="666">
@@ -15146,7 +15146,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.83</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="667">
@@ -15154,7 +15154,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.83</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="668">
@@ -15162,7 +15162,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.83</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="669">
@@ -15170,7 +15170,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.83</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="670">
@@ -15178,7 +15178,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.83</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="671">
@@ -15186,7 +15186,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.83</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="672">
@@ -15194,7 +15194,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="673">
@@ -15202,7 +15202,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="674">
@@ -15210,7 +15210,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="675">
@@ -15218,7 +15218,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="676">
@@ -15226,7 +15226,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="677">
@@ -15234,7 +15234,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="678">
@@ -15242,7 +15242,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="679">
@@ -15250,7 +15250,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="680">
@@ -15258,7 +15258,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="681">
@@ -15266,7 +15266,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="682">
@@ -15274,7 +15274,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="683">
@@ -15282,7 +15282,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="684">
@@ -15290,7 +15290,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="685">
@@ -15298,7 +15298,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="686">
@@ -15306,7 +15306,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="687">
@@ -15314,7 +15314,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="688">
@@ -15322,7 +15322,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="689">
@@ -15330,7 +15330,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="690">
@@ -15338,7 +15338,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="691">
@@ -15346,7 +15346,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="692">
@@ -15354,7 +15354,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="693">
@@ -15362,7 +15362,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="694">
@@ -15370,7 +15370,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="695">
@@ -15378,7 +15378,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="696">
@@ -15386,7 +15386,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="697">
@@ -15394,7 +15394,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="698">
@@ -15402,7 +15402,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="699">
@@ -15410,7 +15410,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="700">
@@ -15418,7 +15418,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="701">
@@ -15426,7 +15426,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.25</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="702">
@@ -15434,7 +15434,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="703">
@@ -15442,7 +15442,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="704">
@@ -15450,7 +15450,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="705">
@@ -15458,7 +15458,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="706">
@@ -15466,7 +15466,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="707">
@@ -15474,7 +15474,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="708">
@@ -15482,7 +15482,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="709">
@@ -15490,7 +15490,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="710">
@@ -15498,7 +15498,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="711">
@@ -15506,7 +15506,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="712">
@@ -15514,7 +15514,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="713">
@@ -15522,7 +15522,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="714">
@@ -15530,7 +15530,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="715">
@@ -15538,7 +15538,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="716">
@@ -15546,7 +15546,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="717">
@@ -15554,7 +15554,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="718">
@@ -15562,7 +15562,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="719">
@@ -15570,7 +15570,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="720">
@@ -15578,7 +15578,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="721">
@@ -15586,7 +15586,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="722">
@@ -15594,7 +15594,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="723">
@@ -15602,7 +15602,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="724">
@@ -15610,7 +15610,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="725">
@@ -15618,7 +15618,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="726">
@@ -15626,7 +15626,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="727">
@@ -15634,7 +15634,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="728">
@@ -15642,7 +15642,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="729">
@@ -15650,7 +15650,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="730">
@@ -15658,7 +15658,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="731">
@@ -15666,7 +15666,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="732">
@@ -15674,7 +15674,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>32.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="733">
@@ -15682,7 +15682,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="734">
@@ -15690,7 +15690,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="735">
@@ -15698,7 +15698,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="736">
@@ -15706,7 +15706,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="737">
@@ -15714,7 +15714,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="738">
@@ -15722,7 +15722,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="739">
@@ -15730,7 +15730,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="740">
@@ -15738,7 +15738,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="741">
@@ -15746,7 +15746,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="742">
@@ -15754,7 +15754,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="743">
@@ -15762,7 +15762,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="744">
@@ -15770,7 +15770,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="745">
@@ -15778,7 +15778,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="746">
@@ -15786,7 +15786,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="747">
@@ -15794,7 +15794,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="748">
@@ -15802,7 +15802,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="749">
@@ -15810,7 +15810,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="750">
@@ -15818,7 +15818,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="751">
@@ -15826,7 +15826,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="752">
@@ -15834,7 +15834,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="753">
@@ -15842,7 +15842,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="754">
@@ -15850,7 +15850,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="755">
@@ -15858,7 +15858,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="756">
@@ -15866,7 +15866,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="757">
@@ -15874,7 +15874,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="758">
@@ -15882,7 +15882,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="759">
@@ -15890,7 +15890,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="760">
@@ -15898,7 +15898,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="761">
@@ -15906,7 +15906,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="762">
@@ -15914,7 +15914,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="763">
@@ -15922,7 +15922,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>32.45</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="764">
@@ -15930,7 +15930,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="765">
@@ -15938,7 +15938,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="766">
@@ -15946,7 +15946,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="767">
@@ -15954,7 +15954,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="768">
@@ -15962,7 +15962,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="769">
@@ -15970,7 +15970,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="770">
@@ -15978,7 +15978,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="771">
@@ -15986,7 +15986,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="772">
@@ -15994,7 +15994,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="773">
@@ -16002,7 +16002,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="774">
@@ -16010,7 +16010,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="775">
@@ -16018,7 +16018,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="776">
@@ -16026,7 +16026,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="777">
@@ -16034,7 +16034,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="778">
@@ -16042,7 +16042,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="779">
@@ -16050,7 +16050,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="780">
@@ -16058,7 +16058,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="781">
@@ -16066,7 +16066,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="782">
@@ -16074,7 +16074,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="783">
@@ -16082,7 +16082,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="784">
@@ -16090,7 +16090,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="785">
@@ -16098,7 +16098,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="786">
@@ -16106,7 +16106,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="787">
@@ -16114,7 +16114,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="788">
@@ -16122,7 +16122,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="789">
@@ -16130,7 +16130,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="790">
@@ -16138,7 +16138,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="791">
@@ -16146,7 +16146,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.99</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="792">
@@ -16154,7 +16154,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="793">
@@ -16162,7 +16162,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="794">
@@ -16170,7 +16170,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="795">
@@ -16178,7 +16178,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="796">
@@ -16186,7 +16186,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="797">
@@ -16194,7 +16194,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="798">
@@ -16202,7 +16202,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="799">
@@ -16210,7 +16210,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="800">
@@ -16218,7 +16218,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="801">
@@ -16226,7 +16226,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="802">
@@ -16234,7 +16234,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="803">
@@ -16242,7 +16242,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="804">
@@ -16250,7 +16250,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="805">
@@ -16258,7 +16258,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="806">
@@ -16266,7 +16266,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="807">
@@ -16274,7 +16274,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="808">
@@ -16282,7 +16282,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="809">
@@ -16290,7 +16290,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="810">
@@ -16298,7 +16298,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="811">
@@ -16306,7 +16306,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="812">
@@ -16314,7 +16314,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="813">
@@ -16322,7 +16322,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="814">
@@ -16330,7 +16330,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="815">
@@ -16338,7 +16338,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="816">
@@ -16346,7 +16346,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="817">
@@ -16354,7 +16354,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="818">
@@ -16362,7 +16362,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="819">
@@ -16370,7 +16370,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="820">
@@ -16378,7 +16378,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="821">
@@ -16386,7 +16386,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="822">
@@ -16394,7 +16394,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.47</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="823">
@@ -16402,7 +16402,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="824">
@@ -16410,7 +16410,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="825">
@@ -16418,7 +16418,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="826">
@@ -16426,7 +16426,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="827">
@@ -16434,7 +16434,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="828">
@@ -16442,7 +16442,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="829">
@@ -16450,7 +16450,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="830">
@@ -16458,7 +16458,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="831">
@@ -16466,7 +16466,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="832">
@@ -16474,7 +16474,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="833">
@@ -16482,7 +16482,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="834">
@@ -16490,7 +16490,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="835">
@@ -16498,7 +16498,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="836">
@@ -16506,7 +16506,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="837">
@@ -16514,7 +16514,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="838">
@@ -16522,7 +16522,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="839">
@@ -16530,7 +16530,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="840">
@@ -16538,7 +16538,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="841">
@@ -16546,7 +16546,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="842">
@@ -16554,7 +16554,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="843">
@@ -16562,7 +16562,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="844">
@@ -16570,7 +16570,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="845">
@@ -16578,7 +16578,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="846">
@@ -16586,7 +16586,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="847">
@@ -16594,7 +16594,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="848">
@@ -16602,7 +16602,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="849">
@@ -16610,7 +16610,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="850">
@@ -16618,7 +16618,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="851">
@@ -16626,7 +16626,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="852">
@@ -16634,7 +16634,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="853">
@@ -16642,7 +16642,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="854">
@@ -16650,7 +16650,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="855">
@@ -16658,7 +16658,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="856">
@@ -16666,7 +16666,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="857">
@@ -16674,7 +16674,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="858">
@@ -16682,7 +16682,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="859">
@@ -16690,7 +16690,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="860">
@@ -16698,7 +16698,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="861">
@@ -16706,7 +16706,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="862">
@@ -16714,7 +16714,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="863">
@@ -16722,7 +16722,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="864">
@@ -16730,7 +16730,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="865">
@@ -16738,7 +16738,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="866">
@@ -16746,7 +16746,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="867">
@@ -16754,7 +16754,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="868">
@@ -16762,7 +16762,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="869">
@@ -16770,7 +16770,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="870">
@@ -16778,7 +16778,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="871">
@@ -16786,7 +16786,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="872">
@@ -16794,7 +16794,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="873">
@@ -16802,7 +16802,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="874">
@@ -16810,7 +16810,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="875">
@@ -16818,7 +16818,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="876">
@@ -16826,7 +16826,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="877">
@@ -16834,7 +16834,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="878">
@@ -16842,7 +16842,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="879">
@@ -16850,7 +16850,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="880">
@@ -16858,7 +16858,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="881">
@@ -16866,7 +16866,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="882">
@@ -16874,7 +16874,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="883">
@@ -16882,7 +16882,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="884">
@@ -16890,7 +16890,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="885">
@@ -16898,7 +16898,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="886">
@@ -16906,7 +16906,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="887">
@@ -16914,7 +16914,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="888">
@@ -16922,7 +16922,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="889">
@@ -16930,7 +16930,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="890">
@@ -16938,7 +16938,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="891">
@@ -16946,7 +16946,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="892">
@@ -16954,7 +16954,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="893">
@@ -16962,7 +16962,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="894">
@@ -16970,7 +16970,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="895">
@@ -16978,7 +16978,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="896">
@@ -16986,7 +16986,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="897">
@@ -16994,7 +16994,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="898">
@@ -17002,7 +17002,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="899">
@@ -17010,7 +17010,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="900">
@@ -17018,7 +17018,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="901">
@@ -17026,7 +17026,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="902">
@@ -17034,7 +17034,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="903">
@@ -17042,7 +17042,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="904">
@@ -17050,7 +17050,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="905">
@@ -17058,7 +17058,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="906">
@@ -17066,7 +17066,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="907">
@@ -17074,7 +17074,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="908">
@@ -17082,7 +17082,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="909">
@@ -17090,7 +17090,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="910">
@@ -17098,7 +17098,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="911">
@@ -17106,7 +17106,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="912">
@@ -17114,7 +17114,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="913">
@@ -17122,7 +17122,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.76</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="914">
@@ -17130,7 +17130,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="915">
@@ -17138,7 +17138,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="916">
@@ -17146,7 +17146,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="917">
@@ -17154,7 +17154,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="918">
@@ -17162,7 +17162,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="919">
@@ -17170,7 +17170,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="920">
@@ -17178,7 +17178,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="921">
@@ -17186,7 +17186,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="922">
@@ -17194,7 +17194,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="923">
@@ -17202,7 +17202,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="924">
@@ -17210,7 +17210,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="925">
@@ -17218,7 +17218,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="926">
@@ -17226,7 +17226,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="927">
@@ -17234,7 +17234,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="928">
@@ -17242,7 +17242,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="929">
@@ -17250,7 +17250,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="930">
@@ -17258,7 +17258,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="931">
@@ -17266,7 +17266,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="932">
@@ -17274,7 +17274,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="933">
@@ -17282,7 +17282,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="934">
@@ -17290,7 +17290,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="935">
@@ -17298,7 +17298,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="936">
@@ -17306,7 +17306,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="937">
@@ -17314,7 +17314,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="938">
@@ -17322,7 +17322,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="939">
@@ -17330,7 +17330,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="940">
@@ -17338,7 +17338,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="941">
@@ -17346,7 +17346,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="942">
@@ -17354,7 +17354,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="943">
@@ -17362,7 +17362,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="944">
@@ -17370,7 +17370,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="945">
@@ -17378,7 +17378,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="946">
@@ -17386,7 +17386,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="947">
@@ -17394,7 +17394,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="948">
@@ -17402,7 +17402,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="949">
@@ -17410,7 +17410,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="950">
@@ -17418,7 +17418,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="951">
@@ -17426,7 +17426,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="952">
@@ -17434,7 +17434,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="953">
@@ -17442,7 +17442,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="954">
@@ -17450,7 +17450,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="955">
@@ -17458,7 +17458,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="956">
@@ -17466,7 +17466,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="957">
@@ -17474,7 +17474,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="958">
@@ -17482,7 +17482,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="959">
@@ -17490,7 +17490,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="960">
@@ -17498,7 +17498,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="961">
@@ -17506,7 +17506,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="962">
@@ -17514,7 +17514,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="963">
@@ -17522,7 +17522,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="964">
@@ -17530,7 +17530,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="965">
@@ -17538,7 +17538,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="966">
@@ -17546,7 +17546,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="967">
@@ -17554,7 +17554,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="968">
@@ -17562,7 +17562,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="969">
@@ -17570,7 +17570,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="970">
@@ -17578,7 +17578,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="971">
@@ -17586,7 +17586,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="972">
@@ -17594,7 +17594,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="973">
@@ -17602,7 +17602,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="974">
@@ -17610,7 +17610,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="975">
@@ -17618,7 +17618,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="976">
@@ -17626,7 +17626,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="977">
@@ -17634,7 +17634,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="978">
@@ -17642,7 +17642,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="979">
@@ -17650,7 +17650,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="980">
@@ -17658,7 +17658,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="981">
@@ -17666,7 +17666,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="982">
@@ -17674,7 +17674,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="983">
@@ -17682,7 +17682,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="984">
@@ -17690,7 +17690,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="985">
@@ -17698,7 +17698,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="986">
@@ -17706,7 +17706,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="987">
@@ -17714,7 +17714,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="988">
@@ -17722,7 +17722,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="989">
@@ -17730,7 +17730,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="990">
@@ -17738,7 +17738,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="991">
@@ -17746,7 +17746,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="992">
@@ -17754,7 +17754,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="993">
@@ -17762,7 +17762,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="994">
@@ -17770,7 +17770,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="995">
@@ -17778,7 +17778,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="996">
@@ -17786,7 +17786,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="997">
@@ -17794,7 +17794,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="998">
@@ -17802,7 +17802,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="999">
@@ -17810,7 +17810,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1000">
@@ -17818,7 +17818,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1001">
@@ -17826,7 +17826,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1002">
@@ -17834,7 +17834,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1003">
@@ -17842,7 +17842,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1004">
@@ -17850,7 +17850,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1005">
@@ -17858,7 +17858,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.76</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="1006">
@@ -17866,7 +17866,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1007">
@@ -17874,7 +17874,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1008">
@@ -17882,7 +17882,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1009">
@@ -17890,7 +17890,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1010">
@@ -17898,7 +17898,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1011">
@@ -17906,7 +17906,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1012">
@@ -17914,7 +17914,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1013">
@@ -17922,7 +17922,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1014">
@@ -17930,7 +17930,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1015">
@@ -17938,7 +17938,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1016">
@@ -17946,7 +17946,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1017">
@@ -17954,7 +17954,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1018">
@@ -17962,7 +17962,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1019">
@@ -17970,7 +17970,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1020">
@@ -17978,7 +17978,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1021">
@@ -17986,7 +17986,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1022">
@@ -17994,7 +17994,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1023">
@@ -18002,7 +18002,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1024">
@@ -18010,7 +18010,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1025">
@@ -18018,7 +18018,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1026">
@@ -18026,7 +18026,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1027">
@@ -18034,7 +18034,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1028">
@@ -18042,7 +18042,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1029">
@@ -18050,7 +18050,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1030">
@@ -18058,7 +18058,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1031">
@@ -18066,7 +18066,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1032">
@@ -18074,7 +18074,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1033">
@@ -18082,7 +18082,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1034">
@@ -18090,7 +18090,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1035">
@@ -18098,7 +18098,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1036">
@@ -18106,7 +18106,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1037">
@@ -18114,7 +18114,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1038">
@@ -18122,7 +18122,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1039">
@@ -18130,7 +18130,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1040">
@@ -18138,7 +18138,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1041">
@@ -18146,7 +18146,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1043">
@@ -18162,7 +18162,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1044">
@@ -18170,7 +18170,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1045">
@@ -18178,7 +18178,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1046">
@@ -18186,7 +18186,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1047">
@@ -18194,7 +18194,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1048">
@@ -18202,7 +18202,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1049">
@@ -18210,7 +18210,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1050">
@@ -18218,7 +18218,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1051">
@@ -18226,7 +18226,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1052">
@@ -18234,7 +18234,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1053">
@@ -18242,7 +18242,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1054">
@@ -18250,7 +18250,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1055">
@@ -18258,7 +18258,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1056">
@@ -18266,7 +18266,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1057">
@@ -18274,7 +18274,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1058">
@@ -18282,7 +18282,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1059">
@@ -18290,7 +18290,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1060">
@@ -18298,7 +18298,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1061">
@@ -18306,7 +18306,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1062">
@@ -18314,7 +18314,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1063">
@@ -18322,7 +18322,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1064">
@@ -18330,7 +18330,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1065">
@@ -18338,7 +18338,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1066">
@@ -18346,7 +18346,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1067">
@@ -18354,7 +18354,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1068">
@@ -18362,7 +18362,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1069">
@@ -18370,7 +18370,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1070">
@@ -18378,7 +18378,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1071">
@@ -18386,7 +18386,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1072">
@@ -18394,7 +18394,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1073">
@@ -18402,7 +18402,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1074">
@@ -18410,7 +18410,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1075">
@@ -18418,7 +18418,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1076">
@@ -18426,7 +18426,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1077">
@@ -18434,7 +18434,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1078">
@@ -18442,7 +18442,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1079">
@@ -18450,7 +18450,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1080">
@@ -18458,7 +18458,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1081">
@@ -18466,7 +18466,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1082">
@@ -18474,7 +18474,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1083">
@@ -18482,7 +18482,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1084">
@@ -18490,7 +18490,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1085">
@@ -18498,7 +18498,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1086">
@@ -18506,7 +18506,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1087">
@@ -18514,7 +18514,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1088">
@@ -18522,7 +18522,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1089">
@@ -18530,7 +18530,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1090">
@@ -18538,7 +18538,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1091">
@@ -18546,7 +18546,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1092">
@@ -18554,7 +18554,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1093">
@@ -18562,7 +18562,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1094">
@@ -18570,7 +18570,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1095">
@@ -18578,7 +18578,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1096">
@@ -18586,7 +18586,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1097">
@@ -18594,7 +18594,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1098">
@@ -18602,7 +18602,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1099">
@@ -18610,7 +18610,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1100">
@@ -18618,7 +18618,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1101">
@@ -18626,7 +18626,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1102">
@@ -18634,7 +18634,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1103">
@@ -18642,7 +18642,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1104">
@@ -18650,7 +18650,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1105">
@@ -18658,7 +18658,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1106">
@@ -18666,7 +18666,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1107">
@@ -18674,7 +18674,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1108">
@@ -18682,7 +18682,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1109">
@@ -18690,7 +18690,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1110">
@@ -18698,7 +18698,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1111">
@@ -18706,7 +18706,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1112">
@@ -18714,7 +18714,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1113">
@@ -18722,7 +18722,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1114">
@@ -18730,7 +18730,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1115">
@@ -18738,7 +18738,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1116">
@@ -18746,7 +18746,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1117">
@@ -18754,7 +18754,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1118">
@@ -18762,7 +18762,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1119">
@@ -18770,7 +18770,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1120">
@@ -18778,7 +18778,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1121">
@@ -18786,7 +18786,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1122">
@@ -18794,7 +18794,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1123">
@@ -18802,7 +18802,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1124">
@@ -18810,7 +18810,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1125">
@@ -18818,7 +18818,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1126">
@@ -18826,7 +18826,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1127">
@@ -18834,7 +18834,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1128">
@@ -18842,7 +18842,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1129">
@@ -18850,7 +18850,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1130">
@@ -18858,7 +18858,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1131">
@@ -18866,7 +18866,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1132">
@@ -18874,7 +18874,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1133">
@@ -18882,7 +18882,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1134">
@@ -18890,7 +18890,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1135">
@@ -18898,7 +18898,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1136">
@@ -18906,7 +18906,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1137">
@@ -18914,7 +18914,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1138">
@@ -18922,7 +18922,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1139">
@@ -18930,7 +18930,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1140">
@@ -18938,7 +18938,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1141">
@@ -18946,7 +18946,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1142">
@@ -18954,7 +18954,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1143">
@@ -18962,7 +18962,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1144">
@@ -18970,7 +18970,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1145">
@@ -18978,7 +18978,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1146">
@@ -18986,7 +18986,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1147">
@@ -18994,7 +18994,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1148">
@@ -19002,7 +19002,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1149">
@@ -19010,7 +19010,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1150">
@@ -19018,7 +19018,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1151">
@@ -19026,7 +19026,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1152">
@@ -19034,7 +19034,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1153">
@@ -19042,7 +19042,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1154">
@@ -19050,7 +19050,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1155">
@@ -19058,7 +19058,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1156">
@@ -19066,7 +19066,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1157">
@@ -19074,7 +19074,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1158">
@@ -19082,7 +19082,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1159">
@@ -19090,7 +19090,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1160">
@@ -19098,7 +19098,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1161">
@@ -19106,7 +19106,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1162">
@@ -19114,7 +19114,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1163">
@@ -19122,7 +19122,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1164">
@@ -19130,7 +19130,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1165">
@@ -19138,7 +19138,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1166">
@@ -19146,7 +19146,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1167">
@@ -19154,7 +19154,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1168">
@@ -19162,7 +19162,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1169">
@@ -19170,7 +19170,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1170">
@@ -19178,7 +19178,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1171">
@@ -19186,7 +19186,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1172">
@@ -19194,7 +19194,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1173">
@@ -19202,7 +19202,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1174">
@@ -19210,7 +19210,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1175">
@@ -19218,7 +19218,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1176">
@@ -19226,7 +19226,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1177">
@@ -19234,7 +19234,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1178">
@@ -19242,7 +19242,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1179">
@@ -19250,7 +19250,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1180">
@@ -19258,7 +19258,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1181">
@@ -19266,7 +19266,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1182">
@@ -19274,7 +19274,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1183">
@@ -19282,7 +19282,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1184">
@@ -19290,7 +19290,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1185">
@@ -19298,7 +19298,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1186">
@@ -19306,7 +19306,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1187">
@@ -19314,7 +19314,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.86</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="1188">
@@ -19322,7 +19322,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1189">
@@ -19330,7 +19330,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1190">
@@ -19338,7 +19338,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1191">
@@ -19346,7 +19346,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1192">
@@ -19354,7 +19354,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1193">
@@ -19362,7 +19362,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1194">
@@ -19370,7 +19370,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1195">
@@ -19378,7 +19378,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1196">
@@ -19386,7 +19386,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1197">
@@ -19394,7 +19394,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1198">
@@ -19402,7 +19402,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1199">
@@ -19410,7 +19410,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1200">
@@ -19418,7 +19418,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1201">
@@ -19426,7 +19426,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1202">
@@ -19434,7 +19434,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1203">
@@ -19442,7 +19442,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1204">
@@ -19450,7 +19450,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1205">
@@ -19458,7 +19458,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1206">
@@ -19466,7 +19466,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1207">
@@ -19474,7 +19474,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1208">
@@ -19482,7 +19482,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1209">
@@ -19490,7 +19490,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1210">
@@ -19498,7 +19498,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1211">
@@ -19506,7 +19506,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1212">
@@ -19514,7 +19514,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1213">
@@ -19522,7 +19522,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1214">
@@ -19530,7 +19530,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1215">
@@ -19538,7 +19538,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1216">
@@ -19546,7 +19546,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1217">
@@ -19554,7 +19554,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1218">
@@ -19562,7 +19562,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1219">
@@ -19570,7 +19570,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1220">
@@ -19578,7 +19578,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1221">
@@ -19586,7 +19586,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1222">
@@ -19594,7 +19594,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1223">
@@ -19602,7 +19602,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1224">
@@ -19610,7 +19610,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1225">
@@ -19618,7 +19618,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1226">
@@ -19626,7 +19626,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1227">
@@ -19634,7 +19634,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1228">
@@ -19642,7 +19642,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1229">
@@ -19650,7 +19650,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1230">
@@ -19658,7 +19658,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1231">
@@ -19666,7 +19666,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1232">
@@ -19674,7 +19674,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1233">
@@ -19682,7 +19682,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1234">
@@ -19690,7 +19690,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1235">
@@ -19698,7 +19698,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1236">
@@ -19706,7 +19706,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1237">
@@ -19714,7 +19714,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1238">
@@ -19722,7 +19722,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1239">
@@ -19730,7 +19730,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1240">
@@ -19738,7 +19738,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1241">
@@ -19746,7 +19746,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1242">
@@ -19754,7 +19754,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1243">
@@ -19762,7 +19762,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1244">
@@ -19770,7 +19770,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1245">
@@ -19778,7 +19778,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1246">
@@ -19786,7 +19786,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1247">
@@ -19794,7 +19794,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1248">
@@ -19802,7 +19802,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1249">
@@ -19810,7 +19810,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1250">
@@ -19818,7 +19818,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1251">
@@ -19826,7 +19826,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1252">
@@ -19834,7 +19834,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1253">
@@ -19842,7 +19842,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1254">
@@ -19850,7 +19850,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1255">
@@ -19858,7 +19858,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1256">
@@ -19866,7 +19866,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1257">
@@ -19874,7 +19874,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1258">
@@ -19882,7 +19882,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1259">
@@ -19890,7 +19890,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1260">
@@ -19898,7 +19898,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1261">
@@ -19906,7 +19906,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1262">
@@ -19914,7 +19914,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1263">
@@ -19922,7 +19922,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1264">
@@ -19930,7 +19930,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1265">
@@ -19938,7 +19938,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1266">
@@ -19946,7 +19946,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1267">
@@ -19954,7 +19954,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1268">
@@ -19962,7 +19962,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1269">
@@ -19970,7 +19970,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1270">
@@ -19978,7 +19978,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1271">
@@ -19986,7 +19986,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1272">
@@ -19994,7 +19994,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1273">
@@ -20002,7 +20002,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1274">
@@ -20010,7 +20010,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1275">
@@ -20018,7 +20018,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1276">
@@ -20026,7 +20026,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1277">
@@ -20034,7 +20034,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1278">
@@ -20042,7 +20042,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1279">
@@ -20050,7 +20050,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1280">
@@ -20058,7 +20058,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1281">
@@ -20066,7 +20066,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1282">
@@ -20074,7 +20074,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1283">
@@ -20082,7 +20082,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1284">
@@ -20090,7 +20090,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1285">
@@ -20098,7 +20098,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1286">
@@ -20106,7 +20106,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1287">
@@ -20114,7 +20114,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1288">
@@ -20122,7 +20122,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1289">
@@ -20130,7 +20130,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1290">
@@ -20138,7 +20138,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1291">
@@ -20146,7 +20146,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1292">
@@ -20154,7 +20154,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1293">
@@ -20162,7 +20162,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1294">
@@ -20170,7 +20170,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1295">
@@ -20178,7 +20178,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1296">
@@ -20186,7 +20186,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1297">
@@ -20194,7 +20194,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1298">
@@ -20202,7 +20202,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1299">
@@ -20210,7 +20210,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1300">
@@ -20218,7 +20218,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1301">
@@ -20226,7 +20226,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1302">
@@ -20234,7 +20234,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1303">
@@ -20242,7 +20242,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1304">
@@ -20250,7 +20250,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1305">
@@ -20258,7 +20258,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1306">
@@ -20266,7 +20266,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1307">
@@ -20274,7 +20274,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1308">
@@ -20282,7 +20282,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1309">
@@ -20290,7 +20290,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1310">
@@ -20298,7 +20298,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1311">
@@ -20306,7 +20306,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1312">
@@ -20314,7 +20314,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1313">
@@ -20322,7 +20322,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1314">
@@ -20330,7 +20330,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1315">
@@ -20338,7 +20338,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1316">
@@ -20346,7 +20346,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1317">
@@ -20354,7 +20354,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1318">
@@ -20362,7 +20362,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1319">
@@ -20370,7 +20370,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1320">
@@ -20378,7 +20378,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1321">
@@ -20386,7 +20386,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1322">
@@ -20394,7 +20394,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1323">
@@ -20402,7 +20402,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1324">
@@ -20410,7 +20410,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1325">
@@ -20418,7 +20418,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1326">
@@ -20426,7 +20426,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1327">
@@ -20434,7 +20434,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1328">
@@ -20442,7 +20442,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1329">
@@ -20450,7 +20450,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1330">
@@ -20458,7 +20458,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1331">
@@ -20466,7 +20466,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1332">
@@ -20474,7 +20474,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1333">
@@ -20482,7 +20482,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1334">
@@ -20490,7 +20490,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1335">
@@ -20498,7 +20498,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1336">
@@ -20506,7 +20506,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1337">
@@ -20514,7 +20514,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1338">
@@ -20522,7 +20522,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1339">
@@ -20530,7 +20530,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1340">
@@ -20538,7 +20538,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1341">
@@ -20546,7 +20546,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1342">
@@ -20554,7 +20554,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1343">
@@ -20562,7 +20562,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1344">
@@ -20570,7 +20570,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1345">
@@ -20578,7 +20578,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1346">
@@ -20586,7 +20586,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1347">
@@ -20594,7 +20594,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1348">
@@ -20602,7 +20602,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1349">
@@ -20610,7 +20610,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1350">
@@ -20618,7 +20618,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1351">
@@ -20626,7 +20626,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1352">
@@ -20634,7 +20634,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1353">
@@ -20642,7 +20642,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1354">
@@ -20650,7 +20650,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1355">
@@ -20658,7 +20658,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1356">
@@ -20666,7 +20666,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1357">
@@ -20674,7 +20674,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1358">
@@ -20682,7 +20682,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1359">
@@ -20690,7 +20690,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1360">
@@ -20698,7 +20698,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1361">
@@ -20706,7 +20706,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1362">
@@ -20714,7 +20714,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1363">
@@ -20722,7 +20722,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1364">
@@ -20730,7 +20730,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1365">
@@ -20738,7 +20738,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1366">
@@ -20746,7 +20746,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1367">
@@ -20754,7 +20754,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1368">
@@ -20762,7 +20762,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1369">
@@ -20770,7 +20770,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1370">
@@ -20778,7 +20778,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1371">
@@ -20786,7 +20786,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1372">
@@ -20794,7 +20794,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1373">
@@ -20802,7 +20802,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1374">
@@ -20810,7 +20810,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1375">
@@ -20818,7 +20818,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1376">
@@ -20826,7 +20826,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1377">
@@ -20834,7 +20834,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1378">
@@ -20842,7 +20842,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1379">
@@ -20850,7 +20850,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1380">
@@ -20858,7 +20858,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1381">
@@ -20866,7 +20866,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1382">
@@ -20874,7 +20874,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1383">
@@ -20882,7 +20882,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1384">
@@ -20890,7 +20890,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1385">
@@ -20898,7 +20898,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1386">
@@ -20906,7 +20906,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1387">
@@ -20914,7 +20914,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1388">
@@ -20922,7 +20922,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1389">
@@ -20930,7 +20930,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1390">
@@ -20938,7 +20938,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1391">
@@ -20946,7 +20946,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1392">
@@ -20954,7 +20954,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1393">
@@ -20962,7 +20962,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1394">
@@ -20970,7 +20970,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1395">
@@ -20978,7 +20978,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1396">
@@ -20986,7 +20986,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1397">
@@ -20994,7 +20994,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1398">
@@ -21002,7 +21002,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1399">
@@ -21010,7 +21010,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1400">
@@ -21018,7 +21018,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1401">
@@ -21026,7 +21026,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1402">
@@ -21034,7 +21034,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1403">
@@ -21042,7 +21042,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1404">
@@ -21050,7 +21050,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1405">
@@ -21058,7 +21058,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1406">
@@ -21066,7 +21066,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1407">
@@ -21074,7 +21074,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1408">
@@ -21082,7 +21082,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1409">
@@ -21090,7 +21090,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1410">
@@ -21098,7 +21098,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1411">
@@ -21106,7 +21106,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1412">
@@ -21114,7 +21114,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1413">
@@ -21122,7 +21122,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1414">
@@ -21130,7 +21130,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1415">
@@ -21138,7 +21138,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1416">
@@ -21146,7 +21146,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1417">
@@ -21154,7 +21154,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1418">
@@ -21162,7 +21162,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1419">
@@ -21170,7 +21170,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1420">
@@ -21178,7 +21178,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1421">
@@ -21186,7 +21186,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1422">
@@ -21194,7 +21194,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1423">
@@ -21202,7 +21202,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1424">
@@ -21210,7 +21210,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1425">
@@ -21218,7 +21218,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1426">
@@ -21226,7 +21226,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1427">
@@ -21234,7 +21234,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1428">
@@ -21242,7 +21242,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1429">
@@ -21250,7 +21250,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1430">
@@ -21258,7 +21258,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1431">
@@ -21266,7 +21266,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1432">
@@ -21274,7 +21274,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1433">
@@ -21282,7 +21282,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1434">
@@ -21290,7 +21290,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1435">
@@ -21298,7 +21298,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1436">
@@ -21306,7 +21306,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1437">
@@ -21314,7 +21314,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1438">
@@ -21322,7 +21322,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1439">
@@ -21330,7 +21330,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1440">
@@ -21338,7 +21338,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1441">
@@ -21346,7 +21346,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1442">
@@ -21354,7 +21354,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1443">
@@ -21362,7 +21362,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1444">
@@ -21370,7 +21370,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1445">
@@ -21378,7 +21378,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1446">
@@ -21386,7 +21386,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1447">
@@ -21394,7 +21394,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1448">
@@ -21402,7 +21402,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1449">
@@ -21410,7 +21410,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1450">
@@ -21418,7 +21418,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1451">
@@ -21426,7 +21426,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1452">
@@ -21434,7 +21434,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1453">
@@ -21442,7 +21442,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1454">
@@ -21450,7 +21450,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1455">
@@ -21458,7 +21458,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1456">
@@ -21466,7 +21466,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1457">
@@ -21474,7 +21474,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1458">
@@ -21482,7 +21482,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1459">
@@ -21490,7 +21490,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1460">
@@ -21498,7 +21498,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1461">
@@ -21506,7 +21506,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1462">
@@ -21514,7 +21514,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>28.97</v>
+        <v>28.67</v>
       </c>
     </row>
   </sheetData>
@@ -21555,7 +21555,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -14946,7 +14946,7 @@
         <v>45931</v>
       </c>
       <c r="B641" t="n">
-        <v>31.4</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="642">
@@ -21555,7 +21555,7 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006BE3D1-D265-45D4-AE21-0DBC955F93FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B94972-8175-4769-AA2D-7ECA3B64E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="342">
   <si>
     <t>Comercializador</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>Endesa - Quero+ (-23% 3 meses) (DD + FE) - INCLUI oferta "Bem-Vindo à Endesa" 3x7,5€</t>
   </si>
   <si>
-    <t>Oferta de 7,5€ nos primeiros 4 meses.</t>
-  </si>
-  <si>
     <t>Endesa - Quero+ (-22% 3 meses) (DD ou FE) - INCLUI oferta "Bem-Vindo à Endesa" 3x7,5€</t>
   </si>
   <si>
@@ -1047,6 +1044,12 @@
   </si>
   <si>
     <t>G9 Energy - G9 NET - Promo Outono</t>
+  </si>
+  <si>
+    <t>Oferta de 7,5€ nos primeiros 4 meses (Total 30 €+ IVA). Verifique o valor após os 3 meses iniciais neste simulador.</t>
+  </si>
+  <si>
+    <t>Oferta de 7,5€ nos primeiros 4 meses (Total 30 €+ IVA).</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3289,7 @@
         <v>50</v>
       </c>
       <c r="P42" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3333,7 +3336,7 @@
         <v>50</v>
       </c>
       <c r="P43" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3380,7 +3383,7 @@
         <v>50</v>
       </c>
       <c r="P44" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3427,7 +3430,7 @@
         <v>50</v>
       </c>
       <c r="P45" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -3435,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -3474,7 +3477,7 @@
         <v>50</v>
       </c>
       <c r="P46" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3482,7 +3485,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -3521,7 +3524,7 @@
         <v>50</v>
       </c>
       <c r="P47" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3529,7 +3532,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -3568,7 +3571,7 @@
         <v>50</v>
       </c>
       <c r="P48" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -3576,7 +3579,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -3615,7 +3618,7 @@
         <v>50</v>
       </c>
       <c r="P49" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -3623,7 +3626,7 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -3659,7 +3662,7 @@
         <v>50</v>
       </c>
       <c r="P50" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -3667,7 +3670,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -3703,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -3711,7 +3714,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -3747,7 +3750,7 @@
         <v>50</v>
       </c>
       <c r="P52" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -3755,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -3791,7 +3794,7 @@
         <v>50</v>
       </c>
       <c r="P53" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -3799,7 +3802,7 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -3835,7 +3838,7 @@
         <v>50</v>
       </c>
       <c r="P54" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3843,7 +3846,7 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -3879,7 +3882,7 @@
         <v>50</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3887,7 +3890,7 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -3923,7 +3926,7 @@
         <v>50</v>
       </c>
       <c r="P56" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3931,7 +3934,7 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -3967,7 +3970,7 @@
         <v>50</v>
       </c>
       <c r="P57" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4385,7 +4388,7 @@
         <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -4426,7 +4429,7 @@
         <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -4467,7 +4470,7 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -4508,7 +4511,7 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -14993,7 +14993,7 @@
         <v>45937</v>
       </c>
       <c r="B647" t="n">
-        <v>30.33</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="648">
@@ -15001,7 +15001,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>30.33</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="649">
@@ -15009,7 +15009,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>30.33</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="650">
@@ -15017,7 +15017,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>30.33</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="651">
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>30.33</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>30.43</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.05</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.35</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.57</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.15</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.1</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>29.46</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>29.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>30.07</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>30.81</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>27.2</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>28.38</v>
+        <v>29.08</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15001,7 +15001,7 @@
         <v>45938</v>
       </c>
       <c r="B648" t="n">
-        <v>32.1</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="649">
@@ -15009,7 +15009,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>32.15</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="650">
@@ -15017,7 +15017,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>32.15</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="651">
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>32.18</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>32.18</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>32.18</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.4</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>33.13</v>
+        <v>33.03</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.62</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.14</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.63</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.38</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.68</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.25</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.52</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>29.08</v>
+        <v>29.2</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15009,7 +15009,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="650">
@@ -15017,7 +15017,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>32.53</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="651">
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>32.32</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>32.32</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>32.41</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.23</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="702">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>33.03</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.57</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.67</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.96</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.65</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.63</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>27.86</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>29.2</v>
+        <v>32.38</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15009,7 +15009,7 @@
         <v>45939</v>
       </c>
       <c r="B649" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="650">
@@ -15017,7 +15017,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="651">
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>32.38</v>
+        <v>31.73</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15017,7 +15017,7 @@
         <v>45940</v>
       </c>
       <c r="B650" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="651">
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15025,7 +15025,7 @@
         <v>45941</v>
       </c>
       <c r="B651" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="652">
@@ -15033,7 +15033,7 @@
         <v>45942</v>
       </c>
       <c r="B652" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="653">
@@ -15041,7 +15041,7 @@
         <v>45943</v>
       </c>
       <c r="B653" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="654">
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>31.4</v>
+        <v>31.09</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15049,7 +15049,7 @@
         <v>45944</v>
       </c>
       <c r="B654" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="655">
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>31.09</v>
+        <v>30.64</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15057,7 +15057,7 @@
         <v>45945</v>
       </c>
       <c r="B655" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="656">
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>30.64</v>
+        <v>30.92</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarifas_Gas_Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIBGAS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constantes" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>30.92</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>30.92</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>30.92</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>30.92</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>30.92</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>30.92</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>30.92</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>30.92</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>30.92</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>30.92</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>30.92</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>30.92</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>30.92</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>30.92</v>
+        <v>28.18</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15065,7 +15065,7 @@
         <v>45946</v>
       </c>
       <c r="B656" t="n">
-        <v>30.92</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="657">
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>30.92</v>
+        <v>31.15</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>30.8</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>30.8</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.05</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>30.93</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.18</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.25</v>
+        <v>31.83</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.87</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>31.39</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>29.52</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>29.5</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
       <c r="B923" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="924">
@@ -17209,7 +17209,7 @@
         <v>46214</v>
       </c>
       <c r="B924" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="925">
@@ -17217,7 +17217,7 @@
         <v>46215</v>
       </c>
       <c r="B925" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="926">
@@ -17225,7 +17225,7 @@
         <v>46216</v>
       </c>
       <c r="B926" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="927">
@@ -17233,7 +17233,7 @@
         <v>46217</v>
       </c>
       <c r="B927" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="928">
@@ -17241,7 +17241,7 @@
         <v>46218</v>
       </c>
       <c r="B928" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="929">
@@ -17249,7 +17249,7 @@
         <v>46219</v>
       </c>
       <c r="B929" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="930">
@@ -17257,7 +17257,7 @@
         <v>46220</v>
       </c>
       <c r="B930" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="931">
@@ -17265,7 +17265,7 @@
         <v>46221</v>
       </c>
       <c r="B931" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="932">
@@ -17273,7 +17273,7 @@
         <v>46222</v>
       </c>
       <c r="B932" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="933">
@@ -17281,7 +17281,7 @@
         <v>46223</v>
       </c>
       <c r="B933" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="934">
@@ -17289,7 +17289,7 @@
         <v>46224</v>
       </c>
       <c r="B934" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="935">
@@ -17297,7 +17297,7 @@
         <v>46225</v>
       </c>
       <c r="B935" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="936">
@@ -17305,7 +17305,7 @@
         <v>46226</v>
       </c>
       <c r="B936" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="937">
@@ -17313,7 +17313,7 @@
         <v>46227</v>
       </c>
       <c r="B937" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="938">
@@ -17321,7 +17321,7 @@
         <v>46228</v>
       </c>
       <c r="B938" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="939">
@@ -17329,7 +17329,7 @@
         <v>46229</v>
       </c>
       <c r="B939" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="940">
@@ -17337,7 +17337,7 @@
         <v>46230</v>
       </c>
       <c r="B940" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="941">
@@ -17345,7 +17345,7 @@
         <v>46231</v>
       </c>
       <c r="B941" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="942">
@@ -17353,7 +17353,7 @@
         <v>46232</v>
       </c>
       <c r="B942" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="943">
@@ -17361,7 +17361,7 @@
         <v>46233</v>
       </c>
       <c r="B943" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="944">
@@ -17369,7 +17369,7 @@
         <v>46234</v>
       </c>
       <c r="B944" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="945">
@@ -17377,7 +17377,7 @@
         <v>46235</v>
       </c>
       <c r="B945" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="946">
@@ -17385,7 +17385,7 @@
         <v>46236</v>
       </c>
       <c r="B946" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="947">
@@ -17393,7 +17393,7 @@
         <v>46237</v>
       </c>
       <c r="B947" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="948">
@@ -17401,7 +17401,7 @@
         <v>46238</v>
       </c>
       <c r="B948" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="949">
@@ -17409,7 +17409,7 @@
         <v>46239</v>
       </c>
       <c r="B949" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="950">
@@ -17417,7 +17417,7 @@
         <v>46240</v>
       </c>
       <c r="B950" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="951">
@@ -17425,7 +17425,7 @@
         <v>46241</v>
       </c>
       <c r="B951" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="952">
@@ -17433,7 +17433,7 @@
         <v>46242</v>
       </c>
       <c r="B952" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="953">
@@ -17441,7 +17441,7 @@
         <v>46243</v>
       </c>
       <c r="B953" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="954">
@@ -17449,7 +17449,7 @@
         <v>46244</v>
       </c>
       <c r="B954" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="955">
@@ -17457,7 +17457,7 @@
         <v>46245</v>
       </c>
       <c r="B955" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="956">
@@ -17465,7 +17465,7 @@
         <v>46246</v>
       </c>
       <c r="B956" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="957">
@@ -17473,7 +17473,7 @@
         <v>46247</v>
       </c>
       <c r="B957" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="958">
@@ -17481,7 +17481,7 @@
         <v>46248</v>
       </c>
       <c r="B958" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="959">
@@ -17489,7 +17489,7 @@
         <v>46249</v>
       </c>
       <c r="B959" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="960">
@@ -17497,7 +17497,7 @@
         <v>46250</v>
       </c>
       <c r="B960" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="961">
@@ -17505,7 +17505,7 @@
         <v>46251</v>
       </c>
       <c r="B961" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="962">
@@ -17513,7 +17513,7 @@
         <v>46252</v>
       </c>
       <c r="B962" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="963">
@@ -17521,7 +17521,7 @@
         <v>46253</v>
       </c>
       <c r="B963" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="964">
@@ -17529,7 +17529,7 @@
         <v>46254</v>
       </c>
       <c r="B964" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="965">
@@ -17537,7 +17537,7 @@
         <v>46255</v>
       </c>
       <c r="B965" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="966">
@@ -17545,7 +17545,7 @@
         <v>46256</v>
       </c>
       <c r="B966" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="967">
@@ -17553,7 +17553,7 @@
         <v>46257</v>
       </c>
       <c r="B967" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="968">
@@ -17561,7 +17561,7 @@
         <v>46258</v>
       </c>
       <c r="B968" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="969">
@@ -17569,7 +17569,7 @@
         <v>46259</v>
       </c>
       <c r="B969" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="970">
@@ -17577,7 +17577,7 @@
         <v>46260</v>
       </c>
       <c r="B970" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="971">
@@ -17585,7 +17585,7 @@
         <v>46261</v>
       </c>
       <c r="B971" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="972">
@@ -17593,7 +17593,7 @@
         <v>46262</v>
       </c>
       <c r="B972" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="973">
@@ -17601,7 +17601,7 @@
         <v>46263</v>
       </c>
       <c r="B973" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="974">
@@ -17609,7 +17609,7 @@
         <v>46264</v>
       </c>
       <c r="B974" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="975">
@@ -17617,7 +17617,7 @@
         <v>46265</v>
       </c>
       <c r="B975" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="976">
@@ -17625,7 +17625,7 @@
         <v>46266</v>
       </c>
       <c r="B976" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="977">
@@ -17633,7 +17633,7 @@
         <v>46267</v>
       </c>
       <c r="B977" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="978">
@@ -17641,7 +17641,7 @@
         <v>46268</v>
       </c>
       <c r="B978" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="979">
@@ -17649,7 +17649,7 @@
         <v>46269</v>
       </c>
       <c r="B979" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="980">
@@ -17657,7 +17657,7 @@
         <v>46270</v>
       </c>
       <c r="B980" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="981">
@@ -17665,7 +17665,7 @@
         <v>46271</v>
       </c>
       <c r="B981" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="982">
@@ -17673,7 +17673,7 @@
         <v>46272</v>
       </c>
       <c r="B982" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="983">
@@ -17681,7 +17681,7 @@
         <v>46273</v>
       </c>
       <c r="B983" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="984">
@@ -17689,7 +17689,7 @@
         <v>46274</v>
       </c>
       <c r="B984" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="985">
@@ -17697,7 +17697,7 @@
         <v>46275</v>
       </c>
       <c r="B985" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="986">
@@ -17705,7 +17705,7 @@
         <v>46276</v>
       </c>
       <c r="B986" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="987">
@@ -17713,7 +17713,7 @@
         <v>46277</v>
       </c>
       <c r="B987" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="988">
@@ -17721,7 +17721,7 @@
         <v>46278</v>
       </c>
       <c r="B988" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="989">
@@ -17729,7 +17729,7 @@
         <v>46279</v>
       </c>
       <c r="B989" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="990">
@@ -17737,7 +17737,7 @@
         <v>46280</v>
       </c>
       <c r="B990" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="991">
@@ -17745,7 +17745,7 @@
         <v>46281</v>
       </c>
       <c r="B991" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="992">
@@ -17753,7 +17753,7 @@
         <v>46282</v>
       </c>
       <c r="B992" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="993">
@@ -17761,7 +17761,7 @@
         <v>46283</v>
       </c>
       <c r="B993" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="994">
@@ -17769,7 +17769,7 @@
         <v>46284</v>
       </c>
       <c r="B994" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="995">
@@ -17777,7 +17777,7 @@
         <v>46285</v>
       </c>
       <c r="B995" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="996">
@@ -17785,7 +17785,7 @@
         <v>46286</v>
       </c>
       <c r="B996" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="997">
@@ -17793,7 +17793,7 @@
         <v>46287</v>
       </c>
       <c r="B997" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="998">
@@ -17801,7 +17801,7 @@
         <v>46288</v>
       </c>
       <c r="B998" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="999">
@@ -17809,7 +17809,7 @@
         <v>46289</v>
       </c>
       <c r="B999" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1000">
@@ -17817,7 +17817,7 @@
         <v>46290</v>
       </c>
       <c r="B1000" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1001">
@@ -17825,7 +17825,7 @@
         <v>46291</v>
       </c>
       <c r="B1001" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1002">
@@ -17833,7 +17833,7 @@
         <v>46292</v>
       </c>
       <c r="B1002" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1003">
@@ -17841,7 +17841,7 @@
         <v>46293</v>
       </c>
       <c r="B1003" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1004">
@@ -17849,7 +17849,7 @@
         <v>46294</v>
       </c>
       <c r="B1004" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1005">
@@ -17857,7 +17857,7 @@
         <v>46295</v>
       </c>
       <c r="B1005" t="n">
-        <v>29.46</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="1006">
@@ -17865,7 +17865,7 @@
         <v>46296</v>
       </c>
       <c r="B1006" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1007">
@@ -17873,7 +17873,7 @@
         <v>46297</v>
       </c>
       <c r="B1007" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1008">
@@ -17881,7 +17881,7 @@
         <v>46298</v>
       </c>
       <c r="B1008" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1009">
@@ -17889,7 +17889,7 @@
         <v>46299</v>
       </c>
       <c r="B1009" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1010">
@@ -17897,7 +17897,7 @@
         <v>46300</v>
       </c>
       <c r="B1010" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1011">
@@ -17905,7 +17905,7 @@
         <v>46301</v>
       </c>
       <c r="B1011" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1012">
@@ -17913,7 +17913,7 @@
         <v>46302</v>
       </c>
       <c r="B1012" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1013">
@@ -17921,7 +17921,7 @@
         <v>46303</v>
       </c>
       <c r="B1013" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1014">
@@ -17929,7 +17929,7 @@
         <v>46304</v>
       </c>
       <c r="B1014" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1015">
@@ -17937,7 +17937,7 @@
         <v>46305</v>
       </c>
       <c r="B1015" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1016">
@@ -17945,7 +17945,7 @@
         <v>46306</v>
       </c>
       <c r="B1016" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1017">
@@ -17953,7 +17953,7 @@
         <v>46307</v>
       </c>
       <c r="B1017" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1018">
@@ -17961,7 +17961,7 @@
         <v>46308</v>
       </c>
       <c r="B1018" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1019">
@@ -17969,7 +17969,7 @@
         <v>46309</v>
       </c>
       <c r="B1019" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1020">
@@ -17977,7 +17977,7 @@
         <v>46310</v>
       </c>
       <c r="B1020" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1021">
@@ -17985,7 +17985,7 @@
         <v>46311</v>
       </c>
       <c r="B1021" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1022">
@@ -17993,7 +17993,7 @@
         <v>46312</v>
       </c>
       <c r="B1022" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1023">
@@ -18001,7 +18001,7 @@
         <v>46313</v>
       </c>
       <c r="B1023" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1024">
@@ -18009,7 +18009,7 @@
         <v>46314</v>
       </c>
       <c r="B1024" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1025">
@@ -18017,7 +18017,7 @@
         <v>46315</v>
       </c>
       <c r="B1025" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1026">
@@ -18025,7 +18025,7 @@
         <v>46316</v>
       </c>
       <c r="B1026" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1027">
@@ -18033,7 +18033,7 @@
         <v>46317</v>
       </c>
       <c r="B1027" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1028">
@@ -18041,7 +18041,7 @@
         <v>46318</v>
       </c>
       <c r="B1028" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1029">
@@ -18049,7 +18049,7 @@
         <v>46319</v>
       </c>
       <c r="B1029" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1030">
@@ -18057,7 +18057,7 @@
         <v>46320</v>
       </c>
       <c r="B1030" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1031">
@@ -18065,7 +18065,7 @@
         <v>46321</v>
       </c>
       <c r="B1031" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1032">
@@ -18073,7 +18073,7 @@
         <v>46322</v>
       </c>
       <c r="B1032" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1033">
@@ -18081,7 +18081,7 @@
         <v>46323</v>
       </c>
       <c r="B1033" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1034">
@@ -18089,7 +18089,7 @@
         <v>46324</v>
       </c>
       <c r="B1034" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1035">
@@ -18097,7 +18097,7 @@
         <v>46325</v>
       </c>
       <c r="B1035" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1036">
@@ -18105,7 +18105,7 @@
         <v>46326</v>
       </c>
       <c r="B1036" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1037">
@@ -18113,7 +18113,7 @@
         <v>46327</v>
       </c>
       <c r="B1037" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1038">
@@ -18121,7 +18121,7 @@
         <v>46328</v>
       </c>
       <c r="B1038" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1039">
@@ -18129,7 +18129,7 @@
         <v>46329</v>
       </c>
       <c r="B1039" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1040">
@@ -18137,7 +18137,7 @@
         <v>46330</v>
       </c>
       <c r="B1040" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1041">
@@ -18145,7 +18145,7 @@
         <v>46331</v>
       </c>
       <c r="B1041" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1042">
@@ -18153,7 +18153,7 @@
         <v>46332</v>
       </c>
       <c r="B1042" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1043">
@@ -18161,7 +18161,7 @@
         <v>46333</v>
       </c>
       <c r="B1043" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1044">
@@ -18169,7 +18169,7 @@
         <v>46334</v>
       </c>
       <c r="B1044" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1045">
@@ -18177,7 +18177,7 @@
         <v>46335</v>
       </c>
       <c r="B1045" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1046">
@@ -18185,7 +18185,7 @@
         <v>46336</v>
       </c>
       <c r="B1046" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1047">
@@ -18193,7 +18193,7 @@
         <v>46337</v>
       </c>
       <c r="B1047" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1048">
@@ -18201,7 +18201,7 @@
         <v>46338</v>
       </c>
       <c r="B1048" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1049">
@@ -18209,7 +18209,7 @@
         <v>46339</v>
       </c>
       <c r="B1049" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1050">
@@ -18217,7 +18217,7 @@
         <v>46340</v>
       </c>
       <c r="B1050" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1051">
@@ -18225,7 +18225,7 @@
         <v>46341</v>
       </c>
       <c r="B1051" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1052">
@@ -18233,7 +18233,7 @@
         <v>46342</v>
       </c>
       <c r="B1052" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1053">
@@ -18241,7 +18241,7 @@
         <v>46343</v>
       </c>
       <c r="B1053" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1054">
@@ -18249,7 +18249,7 @@
         <v>46344</v>
       </c>
       <c r="B1054" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1055">
@@ -18257,7 +18257,7 @@
         <v>46345</v>
       </c>
       <c r="B1055" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1056">
@@ -18265,7 +18265,7 @@
         <v>46346</v>
       </c>
       <c r="B1056" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1057">
@@ -18273,7 +18273,7 @@
         <v>46347</v>
       </c>
       <c r="B1057" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1058">
@@ -18281,7 +18281,7 @@
         <v>46348</v>
       </c>
       <c r="B1058" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1059">
@@ -18289,7 +18289,7 @@
         <v>46349</v>
       </c>
       <c r="B1059" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1060">
@@ -18297,7 +18297,7 @@
         <v>46350</v>
       </c>
       <c r="B1060" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1061">
@@ -18305,7 +18305,7 @@
         <v>46351</v>
       </c>
       <c r="B1061" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1062">
@@ -18313,7 +18313,7 @@
         <v>46352</v>
       </c>
       <c r="B1062" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1063">
@@ -18321,7 +18321,7 @@
         <v>46353</v>
       </c>
       <c r="B1063" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1064">
@@ -18329,7 +18329,7 @@
         <v>46354</v>
       </c>
       <c r="B1064" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1065">
@@ -18337,7 +18337,7 @@
         <v>46355</v>
       </c>
       <c r="B1065" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1066">
@@ -18345,7 +18345,7 @@
         <v>46356</v>
       </c>
       <c r="B1066" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1067">
@@ -18353,7 +18353,7 @@
         <v>46357</v>
       </c>
       <c r="B1067" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1068">
@@ -18361,7 +18361,7 @@
         <v>46358</v>
       </c>
       <c r="B1068" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1069">
@@ -18369,7 +18369,7 @@
         <v>46359</v>
       </c>
       <c r="B1069" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1070">
@@ -18377,7 +18377,7 @@
         <v>46360</v>
       </c>
       <c r="B1070" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1071">
@@ -18385,7 +18385,7 @@
         <v>46361</v>
       </c>
       <c r="B1071" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1072">
@@ -18393,7 +18393,7 @@
         <v>46362</v>
       </c>
       <c r="B1072" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1073">
@@ -18401,7 +18401,7 @@
         <v>46363</v>
       </c>
       <c r="B1073" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1074">
@@ -18409,7 +18409,7 @@
         <v>46364</v>
       </c>
       <c r="B1074" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1075">
@@ -18417,7 +18417,7 @@
         <v>46365</v>
       </c>
       <c r="B1075" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1076">
@@ -18425,7 +18425,7 @@
         <v>46366</v>
       </c>
       <c r="B1076" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1077">
@@ -18433,7 +18433,7 @@
         <v>46367</v>
       </c>
       <c r="B1077" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1078">
@@ -18441,7 +18441,7 @@
         <v>46368</v>
       </c>
       <c r="B1078" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1079">
@@ -18449,7 +18449,7 @@
         <v>46369</v>
       </c>
       <c r="B1079" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1080">
@@ -18457,7 +18457,7 @@
         <v>46370</v>
       </c>
       <c r="B1080" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1081">
@@ -18465,7 +18465,7 @@
         <v>46371</v>
       </c>
       <c r="B1081" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1082">
@@ -18473,7 +18473,7 @@
         <v>46372</v>
       </c>
       <c r="B1082" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1083">
@@ -18481,7 +18481,7 @@
         <v>46373</v>
       </c>
       <c r="B1083" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1084">
@@ -18489,7 +18489,7 @@
         <v>46374</v>
       </c>
       <c r="B1084" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1085">
@@ -18497,7 +18497,7 @@
         <v>46375</v>
       </c>
       <c r="B1085" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1086">
@@ -18505,7 +18505,7 @@
         <v>46376</v>
       </c>
       <c r="B1086" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1087">
@@ -18513,7 +18513,7 @@
         <v>46377</v>
       </c>
       <c r="B1087" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1088">
@@ -18521,7 +18521,7 @@
         <v>46378</v>
       </c>
       <c r="B1088" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1089">
@@ -18529,7 +18529,7 @@
         <v>46379</v>
       </c>
       <c r="B1089" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1090">
@@ -18537,7 +18537,7 @@
         <v>46380</v>
       </c>
       <c r="B1090" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1091">
@@ -18545,7 +18545,7 @@
         <v>46381</v>
       </c>
       <c r="B1091" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1092">
@@ -18553,7 +18553,7 @@
         <v>46382</v>
       </c>
       <c r="B1092" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1093">
@@ -18561,7 +18561,7 @@
         <v>46383</v>
       </c>
       <c r="B1093" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1094">
@@ -18569,7 +18569,7 @@
         <v>46384</v>
       </c>
       <c r="B1094" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1095">
@@ -18577,7 +18577,7 @@
         <v>46385</v>
       </c>
       <c r="B1095" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1096">
@@ -18585,7 +18585,7 @@
         <v>46386</v>
       </c>
       <c r="B1096" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1097">
@@ -18593,7 +18593,7 @@
         <v>46387</v>
       </c>
       <c r="B1097" t="n">
-        <v>30.93</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="1098">
@@ -18601,7 +18601,7 @@
         <v>46388</v>
       </c>
       <c r="B1098" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1099">
@@ -18609,7 +18609,7 @@
         <v>46389</v>
       </c>
       <c r="B1099" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1100">
@@ -18617,7 +18617,7 @@
         <v>46390</v>
       </c>
       <c r="B1100" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1101">
@@ -18625,7 +18625,7 @@
         <v>46391</v>
       </c>
       <c r="B1101" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1102">
@@ -18633,7 +18633,7 @@
         <v>46392</v>
       </c>
       <c r="B1102" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1103">
@@ -18641,7 +18641,7 @@
         <v>46393</v>
       </c>
       <c r="B1103" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1104">
@@ -18649,7 +18649,7 @@
         <v>46394</v>
       </c>
       <c r="B1104" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1105">
@@ -18657,7 +18657,7 @@
         <v>46395</v>
       </c>
       <c r="B1105" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1106">
@@ -18665,7 +18665,7 @@
         <v>46396</v>
       </c>
       <c r="B1106" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1107">
@@ -18673,7 +18673,7 @@
         <v>46397</v>
       </c>
       <c r="B1107" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1108">
@@ -18681,7 +18681,7 @@
         <v>46398</v>
       </c>
       <c r="B1108" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1109">
@@ -18689,7 +18689,7 @@
         <v>46399</v>
       </c>
       <c r="B1109" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1110">
@@ -18697,7 +18697,7 @@
         <v>46400</v>
       </c>
       <c r="B1110" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1111">
@@ -18705,7 +18705,7 @@
         <v>46401</v>
       </c>
       <c r="B1111" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1112">
@@ -18713,7 +18713,7 @@
         <v>46402</v>
       </c>
       <c r="B1112" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1113">
@@ -18721,7 +18721,7 @@
         <v>46403</v>
       </c>
       <c r="B1113" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1114">
@@ -18729,7 +18729,7 @@
         <v>46404</v>
       </c>
       <c r="B1114" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1115">
@@ -18737,7 +18737,7 @@
         <v>46405</v>
       </c>
       <c r="B1115" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1116">
@@ -18745,7 +18745,7 @@
         <v>46406</v>
       </c>
       <c r="B1116" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1117">
@@ -18753,7 +18753,7 @@
         <v>46407</v>
       </c>
       <c r="B1117" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1118">
@@ -18761,7 +18761,7 @@
         <v>46408</v>
       </c>
       <c r="B1118" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1119">
@@ -18769,7 +18769,7 @@
         <v>46409</v>
       </c>
       <c r="B1119" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1120">
@@ -18777,7 +18777,7 @@
         <v>46410</v>
       </c>
       <c r="B1120" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1121">
@@ -18785,7 +18785,7 @@
         <v>46411</v>
       </c>
       <c r="B1121" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1122">
@@ -18793,7 +18793,7 @@
         <v>46412</v>
       </c>
       <c r="B1122" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1123">
@@ -18801,7 +18801,7 @@
         <v>46413</v>
       </c>
       <c r="B1123" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1124">
@@ -18809,7 +18809,7 @@
         <v>46414</v>
       </c>
       <c r="B1124" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1125">
@@ -18817,7 +18817,7 @@
         <v>46415</v>
       </c>
       <c r="B1125" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1126">
@@ -18825,7 +18825,7 @@
         <v>46416</v>
       </c>
       <c r="B1126" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1127">
@@ -18833,7 +18833,7 @@
         <v>46417</v>
       </c>
       <c r="B1127" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1128">
@@ -18841,7 +18841,7 @@
         <v>46418</v>
       </c>
       <c r="B1128" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1129">
@@ -18849,7 +18849,7 @@
         <v>46419</v>
       </c>
       <c r="B1129" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1130">
@@ -18857,7 +18857,7 @@
         <v>46420</v>
       </c>
       <c r="B1130" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1131">
@@ -18865,7 +18865,7 @@
         <v>46421</v>
       </c>
       <c r="B1131" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1132">
@@ -18873,7 +18873,7 @@
         <v>46422</v>
       </c>
       <c r="B1132" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1133">
@@ -18881,7 +18881,7 @@
         <v>46423</v>
       </c>
       <c r="B1133" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1134">
@@ -18889,7 +18889,7 @@
         <v>46424</v>
       </c>
       <c r="B1134" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1135">
@@ -18897,7 +18897,7 @@
         <v>46425</v>
       </c>
       <c r="B1135" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1136">
@@ -18905,7 +18905,7 @@
         <v>46426</v>
       </c>
       <c r="B1136" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1137">
@@ -18913,7 +18913,7 @@
         <v>46427</v>
       </c>
       <c r="B1137" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1138">
@@ -18921,7 +18921,7 @@
         <v>46428</v>
       </c>
       <c r="B1138" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1139">
@@ -18929,7 +18929,7 @@
         <v>46429</v>
       </c>
       <c r="B1139" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1140">
@@ -18937,7 +18937,7 @@
         <v>46430</v>
       </c>
       <c r="B1140" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1141">
@@ -18945,7 +18945,7 @@
         <v>46431</v>
       </c>
       <c r="B1141" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1142">
@@ -18953,7 +18953,7 @@
         <v>46432</v>
       </c>
       <c r="B1142" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1143">
@@ -18961,7 +18961,7 @@
         <v>46433</v>
       </c>
       <c r="B1143" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1144">
@@ -18969,7 +18969,7 @@
         <v>46434</v>
       </c>
       <c r="B1144" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1145">
@@ -18977,7 +18977,7 @@
         <v>46435</v>
       </c>
       <c r="B1145" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1146">
@@ -18985,7 +18985,7 @@
         <v>46436</v>
       </c>
       <c r="B1146" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1147">
@@ -18993,7 +18993,7 @@
         <v>46437</v>
       </c>
       <c r="B1147" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1148">
@@ -19001,7 +19001,7 @@
         <v>46438</v>
       </c>
       <c r="B1148" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1149">
@@ -19009,7 +19009,7 @@
         <v>46439</v>
       </c>
       <c r="B1149" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1150">
@@ -19017,7 +19017,7 @@
         <v>46440</v>
       </c>
       <c r="B1150" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1151">
@@ -19025,7 +19025,7 @@
         <v>46441</v>
       </c>
       <c r="B1151" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1152">
@@ -19033,7 +19033,7 @@
         <v>46442</v>
       </c>
       <c r="B1152" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1153">
@@ -19041,7 +19041,7 @@
         <v>46443</v>
       </c>
       <c r="B1153" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1154">
@@ -19049,7 +19049,7 @@
         <v>46444</v>
       </c>
       <c r="B1154" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1155">
@@ -19057,7 +19057,7 @@
         <v>46445</v>
       </c>
       <c r="B1155" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1156">
@@ -19065,7 +19065,7 @@
         <v>46446</v>
       </c>
       <c r="B1156" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1157">
@@ -19073,7 +19073,7 @@
         <v>46447</v>
       </c>
       <c r="B1157" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1158">
@@ -19081,7 +19081,7 @@
         <v>46448</v>
       </c>
       <c r="B1158" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1159">
@@ -19089,7 +19089,7 @@
         <v>46449</v>
       </c>
       <c r="B1159" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1160">
@@ -19097,7 +19097,7 @@
         <v>46450</v>
       </c>
       <c r="B1160" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1161">
@@ -19105,7 +19105,7 @@
         <v>46451</v>
       </c>
       <c r="B1161" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1162">
@@ -19113,7 +19113,7 @@
         <v>46452</v>
       </c>
       <c r="B1162" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1163">
@@ -19121,7 +19121,7 @@
         <v>46453</v>
       </c>
       <c r="B1163" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1164">
@@ -19129,7 +19129,7 @@
         <v>46454</v>
       </c>
       <c r="B1164" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1165">
@@ -19137,7 +19137,7 @@
         <v>46455</v>
       </c>
       <c r="B1165" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1166">
@@ -19145,7 +19145,7 @@
         <v>46456</v>
       </c>
       <c r="B1166" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1167">
@@ -19153,7 +19153,7 @@
         <v>46457</v>
       </c>
       <c r="B1167" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1168">
@@ -19161,7 +19161,7 @@
         <v>46458</v>
       </c>
       <c r="B1168" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1169">
@@ -19169,7 +19169,7 @@
         <v>46459</v>
       </c>
       <c r="B1169" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1170">
@@ -19177,7 +19177,7 @@
         <v>46460</v>
       </c>
       <c r="B1170" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1171">
@@ -19185,7 +19185,7 @@
         <v>46461</v>
       </c>
       <c r="B1171" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1172">
@@ -19193,7 +19193,7 @@
         <v>46462</v>
       </c>
       <c r="B1172" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1173">
@@ -19201,7 +19201,7 @@
         <v>46463</v>
       </c>
       <c r="B1173" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1174">
@@ -19209,7 +19209,7 @@
         <v>46464</v>
       </c>
       <c r="B1174" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1175">
@@ -19217,7 +19217,7 @@
         <v>46465</v>
       </c>
       <c r="B1175" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1176">
@@ -19225,7 +19225,7 @@
         <v>46466</v>
       </c>
       <c r="B1176" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1177">
@@ -19233,7 +19233,7 @@
         <v>46467</v>
       </c>
       <c r="B1177" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1178">
@@ -19241,7 +19241,7 @@
         <v>46468</v>
       </c>
       <c r="B1178" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1179">
@@ -19249,7 +19249,7 @@
         <v>46469</v>
       </c>
       <c r="B1179" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1180">
@@ -19257,7 +19257,7 @@
         <v>46470</v>
       </c>
       <c r="B1180" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1181">
@@ -19265,7 +19265,7 @@
         <v>46471</v>
       </c>
       <c r="B1181" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1182">
@@ -19273,7 +19273,7 @@
         <v>46472</v>
       </c>
       <c r="B1182" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1183">
@@ -19281,7 +19281,7 @@
         <v>46473</v>
       </c>
       <c r="B1183" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1184">
@@ -19289,7 +19289,7 @@
         <v>46474</v>
       </c>
       <c r="B1184" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1185">
@@ -19297,7 +19297,7 @@
         <v>46475</v>
       </c>
       <c r="B1185" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1186">
@@ -19305,7 +19305,7 @@
         <v>46476</v>
       </c>
       <c r="B1186" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1187">
@@ -19313,7 +19313,7 @@
         <v>46477</v>
       </c>
       <c r="B1187" t="n">
-        <v>30.62</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="1188">
@@ -19321,7 +19321,7 @@
         <v>46478</v>
       </c>
       <c r="B1188" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1189">
@@ -19329,7 +19329,7 @@
         <v>46479</v>
       </c>
       <c r="B1189" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1190">
@@ -19337,7 +19337,7 @@
         <v>46480</v>
       </c>
       <c r="B1190" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1191">
@@ -19345,7 +19345,7 @@
         <v>46481</v>
       </c>
       <c r="B1191" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1192">
@@ -19353,7 +19353,7 @@
         <v>46482</v>
       </c>
       <c r="B1192" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1193">
@@ -19361,7 +19361,7 @@
         <v>46483</v>
       </c>
       <c r="B1193" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1194">
@@ -19369,7 +19369,7 @@
         <v>46484</v>
       </c>
       <c r="B1194" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1195">
@@ -19377,7 +19377,7 @@
         <v>46485</v>
       </c>
       <c r="B1195" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1196">
@@ -19385,7 +19385,7 @@
         <v>46486</v>
       </c>
       <c r="B1196" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1197">
@@ -19393,7 +19393,7 @@
         <v>46487</v>
       </c>
       <c r="B1197" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1198">
@@ -19401,7 +19401,7 @@
         <v>46488</v>
       </c>
       <c r="B1198" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1199">
@@ -19409,7 +19409,7 @@
         <v>46489</v>
       </c>
       <c r="B1199" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1200">
@@ -19417,7 +19417,7 @@
         <v>46490</v>
       </c>
       <c r="B1200" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1201">
@@ -19425,7 +19425,7 @@
         <v>46491</v>
       </c>
       <c r="B1201" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1202">
@@ -19433,7 +19433,7 @@
         <v>46492</v>
       </c>
       <c r="B1202" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1203">
@@ -19441,7 +19441,7 @@
         <v>46493</v>
       </c>
       <c r="B1203" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1204">
@@ -19449,7 +19449,7 @@
         <v>46494</v>
       </c>
       <c r="B1204" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1205">
@@ -19457,7 +19457,7 @@
         <v>46495</v>
       </c>
       <c r="B1205" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1206">
@@ -19465,7 +19465,7 @@
         <v>46496</v>
       </c>
       <c r="B1206" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1207">
@@ -19473,7 +19473,7 @@
         <v>46497</v>
       </c>
       <c r="B1207" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1208">
@@ -19481,7 +19481,7 @@
         <v>46498</v>
       </c>
       <c r="B1208" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1209">
@@ -19489,7 +19489,7 @@
         <v>46499</v>
       </c>
       <c r="B1209" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1210">
@@ -19497,7 +19497,7 @@
         <v>46500</v>
       </c>
       <c r="B1210" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1211">
@@ -19505,7 +19505,7 @@
         <v>46501</v>
       </c>
       <c r="B1211" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1212">
@@ -19513,7 +19513,7 @@
         <v>46502</v>
       </c>
       <c r="B1212" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1213">
@@ -19521,7 +19521,7 @@
         <v>46503</v>
       </c>
       <c r="B1213" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1214">
@@ -19529,7 +19529,7 @@
         <v>46504</v>
       </c>
       <c r="B1214" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1215">
@@ -19537,7 +19537,7 @@
         <v>46505</v>
       </c>
       <c r="B1215" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1216">
@@ -19545,7 +19545,7 @@
         <v>46506</v>
       </c>
       <c r="B1216" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1217">
@@ -19553,7 +19553,7 @@
         <v>46507</v>
       </c>
       <c r="B1217" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1218">
@@ -19561,7 +19561,7 @@
         <v>46508</v>
       </c>
       <c r="B1218" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1219">
@@ -19569,7 +19569,7 @@
         <v>46509</v>
       </c>
       <c r="B1219" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1220">
@@ -19577,7 +19577,7 @@
         <v>46510</v>
       </c>
       <c r="B1220" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1221">
@@ -19585,7 +19585,7 @@
         <v>46511</v>
       </c>
       <c r="B1221" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1222">
@@ -19593,7 +19593,7 @@
         <v>46512</v>
       </c>
       <c r="B1222" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1223">
@@ -19601,7 +19601,7 @@
         <v>46513</v>
       </c>
       <c r="B1223" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1224">
@@ -19609,7 +19609,7 @@
         <v>46514</v>
       </c>
       <c r="B1224" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1225">
@@ -19617,7 +19617,7 @@
         <v>46515</v>
       </c>
       <c r="B1225" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1226">
@@ -19625,7 +19625,7 @@
         <v>46516</v>
       </c>
       <c r="B1226" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1227">
@@ -19633,7 +19633,7 @@
         <v>46517</v>
       </c>
       <c r="B1227" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1228">
@@ -19641,7 +19641,7 @@
         <v>46518</v>
       </c>
       <c r="B1228" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1229">
@@ -19649,7 +19649,7 @@
         <v>46519</v>
       </c>
       <c r="B1229" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1230">
@@ -19657,7 +19657,7 @@
         <v>46520</v>
       </c>
       <c r="B1230" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1231">
@@ -19665,7 +19665,7 @@
         <v>46521</v>
       </c>
       <c r="B1231" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1232">
@@ -19673,7 +19673,7 @@
         <v>46522</v>
       </c>
       <c r="B1232" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1233">
@@ -19681,7 +19681,7 @@
         <v>46523</v>
       </c>
       <c r="B1233" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1234">
@@ -19689,7 +19689,7 @@
         <v>46524</v>
       </c>
       <c r="B1234" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1235">
@@ -19697,7 +19697,7 @@
         <v>46525</v>
       </c>
       <c r="B1235" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1236">
@@ -19705,7 +19705,7 @@
         <v>46526</v>
       </c>
       <c r="B1236" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1237">
@@ -19713,7 +19713,7 @@
         <v>46527</v>
       </c>
       <c r="B1237" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1238">
@@ -19721,7 +19721,7 @@
         <v>46528</v>
       </c>
       <c r="B1238" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1239">
@@ -19729,7 +19729,7 @@
         <v>46529</v>
       </c>
       <c r="B1239" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1240">
@@ -19737,7 +19737,7 @@
         <v>46530</v>
       </c>
       <c r="B1240" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1241">
@@ -19745,7 +19745,7 @@
         <v>46531</v>
       </c>
       <c r="B1241" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1242">
@@ -19753,7 +19753,7 @@
         <v>46532</v>
       </c>
       <c r="B1242" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1243">
@@ -19761,7 +19761,7 @@
         <v>46533</v>
       </c>
       <c r="B1243" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1244">
@@ -19769,7 +19769,7 @@
         <v>46534</v>
       </c>
       <c r="B1244" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1245">
@@ -19777,7 +19777,7 @@
         <v>46535</v>
       </c>
       <c r="B1245" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1246">
@@ -19785,7 +19785,7 @@
         <v>46536</v>
       </c>
       <c r="B1246" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1247">
@@ -19793,7 +19793,7 @@
         <v>46537</v>
       </c>
       <c r="B1247" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1248">
@@ -19801,7 +19801,7 @@
         <v>46538</v>
       </c>
       <c r="B1248" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1249">
@@ -19809,7 +19809,7 @@
         <v>46539</v>
       </c>
       <c r="B1249" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1250">
@@ -19817,7 +19817,7 @@
         <v>46540</v>
       </c>
       <c r="B1250" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1251">
@@ -19825,7 +19825,7 @@
         <v>46541</v>
       </c>
       <c r="B1251" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1252">
@@ -19833,7 +19833,7 @@
         <v>46542</v>
       </c>
       <c r="B1252" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1253">
@@ -19841,7 +19841,7 @@
         <v>46543</v>
       </c>
       <c r="B1253" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1254">
@@ -19849,7 +19849,7 @@
         <v>46544</v>
       </c>
       <c r="B1254" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1255">
@@ -19857,7 +19857,7 @@
         <v>46545</v>
       </c>
       <c r="B1255" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1256">
@@ -19865,7 +19865,7 @@
         <v>46546</v>
       </c>
       <c r="B1256" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1257">
@@ -19873,7 +19873,7 @@
         <v>46547</v>
       </c>
       <c r="B1257" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1258">
@@ -19881,7 +19881,7 @@
         <v>46548</v>
       </c>
       <c r="B1258" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1259">
@@ -19889,7 +19889,7 @@
         <v>46549</v>
       </c>
       <c r="B1259" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1260">
@@ -19897,7 +19897,7 @@
         <v>46550</v>
       </c>
       <c r="B1260" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1261">
@@ -19905,7 +19905,7 @@
         <v>46551</v>
       </c>
       <c r="B1261" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1262">
@@ -19913,7 +19913,7 @@
         <v>46552</v>
       </c>
       <c r="B1262" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1263">
@@ -19921,7 +19921,7 @@
         <v>46553</v>
       </c>
       <c r="B1263" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1264">
@@ -19929,7 +19929,7 @@
         <v>46554</v>
       </c>
       <c r="B1264" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1265">
@@ -19937,7 +19937,7 @@
         <v>46555</v>
       </c>
       <c r="B1265" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1266">
@@ -19945,7 +19945,7 @@
         <v>46556</v>
       </c>
       <c r="B1266" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1267">
@@ -19953,7 +19953,7 @@
         <v>46557</v>
       </c>
       <c r="B1267" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1268">
@@ -19961,7 +19961,7 @@
         <v>46558</v>
       </c>
       <c r="B1268" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1269">
@@ -19969,7 +19969,7 @@
         <v>46559</v>
       </c>
       <c r="B1269" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1270">
@@ -19977,7 +19977,7 @@
         <v>46560</v>
       </c>
       <c r="B1270" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1271">
@@ -19985,7 +19985,7 @@
         <v>46561</v>
       </c>
       <c r="B1271" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1272">
@@ -19993,7 +19993,7 @@
         <v>46562</v>
       </c>
       <c r="B1272" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1273">
@@ -20001,7 +20001,7 @@
         <v>46563</v>
       </c>
       <c r="B1273" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1274">
@@ -20009,7 +20009,7 @@
         <v>46564</v>
       </c>
       <c r="B1274" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1275">
@@ -20017,7 +20017,7 @@
         <v>46565</v>
       </c>
       <c r="B1275" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1276">
@@ -20025,7 +20025,7 @@
         <v>46566</v>
       </c>
       <c r="B1276" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1277">
@@ -20033,7 +20033,7 @@
         <v>46567</v>
       </c>
       <c r="B1277" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1278">
@@ -20041,7 +20041,7 @@
         <v>46568</v>
       </c>
       <c r="B1278" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1279">
@@ -20049,7 +20049,7 @@
         <v>46569</v>
       </c>
       <c r="B1279" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1280">
@@ -20057,7 +20057,7 @@
         <v>46570</v>
       </c>
       <c r="B1280" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1281">
@@ -20065,7 +20065,7 @@
         <v>46571</v>
       </c>
       <c r="B1281" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1282">
@@ -20073,7 +20073,7 @@
         <v>46572</v>
       </c>
       <c r="B1282" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1283">
@@ -20081,7 +20081,7 @@
         <v>46573</v>
       </c>
       <c r="B1283" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1284">
@@ -20089,7 +20089,7 @@
         <v>46574</v>
       </c>
       <c r="B1284" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1285">
@@ -20097,7 +20097,7 @@
         <v>46575</v>
       </c>
       <c r="B1285" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1286">
@@ -20105,7 +20105,7 @@
         <v>46576</v>
       </c>
       <c r="B1286" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1287">
@@ -20113,7 +20113,7 @@
         <v>46577</v>
       </c>
       <c r="B1287" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1288">
@@ -20121,7 +20121,7 @@
         <v>46578</v>
       </c>
       <c r="B1288" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1289">
@@ -20129,7 +20129,7 @@
         <v>46579</v>
       </c>
       <c r="B1289" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1290">
@@ -20137,7 +20137,7 @@
         <v>46580</v>
       </c>
       <c r="B1290" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1291">
@@ -20145,7 +20145,7 @@
         <v>46581</v>
       </c>
       <c r="B1291" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1292">
@@ -20153,7 +20153,7 @@
         <v>46582</v>
       </c>
       <c r="B1292" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1293">
@@ -20161,7 +20161,7 @@
         <v>46583</v>
       </c>
       <c r="B1293" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1294">
@@ -20169,7 +20169,7 @@
         <v>46584</v>
       </c>
       <c r="B1294" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1295">
@@ -20177,7 +20177,7 @@
         <v>46585</v>
       </c>
       <c r="B1295" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1296">
@@ -20185,7 +20185,7 @@
         <v>46586</v>
       </c>
       <c r="B1296" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1297">
@@ -20193,7 +20193,7 @@
         <v>46587</v>
       </c>
       <c r="B1297" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1298">
@@ -20201,7 +20201,7 @@
         <v>46588</v>
       </c>
       <c r="B1298" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1299">
@@ -20209,7 +20209,7 @@
         <v>46589</v>
       </c>
       <c r="B1299" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1300">
@@ -20217,7 +20217,7 @@
         <v>46590</v>
       </c>
       <c r="B1300" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1301">
@@ -20225,7 +20225,7 @@
         <v>46591</v>
       </c>
       <c r="B1301" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1302">
@@ -20233,7 +20233,7 @@
         <v>46592</v>
       </c>
       <c r="B1302" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1303">
@@ -20241,7 +20241,7 @@
         <v>46593</v>
       </c>
       <c r="B1303" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1304">
@@ -20249,7 +20249,7 @@
         <v>46594</v>
       </c>
       <c r="B1304" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1305">
@@ -20257,7 +20257,7 @@
         <v>46595</v>
       </c>
       <c r="B1305" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1306">
@@ -20265,7 +20265,7 @@
         <v>46596</v>
       </c>
       <c r="B1306" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1307">
@@ -20273,7 +20273,7 @@
         <v>46597</v>
       </c>
       <c r="B1307" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1308">
@@ -20281,7 +20281,7 @@
         <v>46598</v>
       </c>
       <c r="B1308" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1309">
@@ -20289,7 +20289,7 @@
         <v>46599</v>
       </c>
       <c r="B1309" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1310">
@@ -20297,7 +20297,7 @@
         <v>46600</v>
       </c>
       <c r="B1310" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1311">
@@ -20305,7 +20305,7 @@
         <v>46601</v>
       </c>
       <c r="B1311" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1312">
@@ -20313,7 +20313,7 @@
         <v>46602</v>
       </c>
       <c r="B1312" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1313">
@@ -20321,7 +20321,7 @@
         <v>46603</v>
       </c>
       <c r="B1313" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1314">
@@ -20329,7 +20329,7 @@
         <v>46604</v>
       </c>
       <c r="B1314" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1315">
@@ -20337,7 +20337,7 @@
         <v>46605</v>
       </c>
       <c r="B1315" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1316">
@@ -20345,7 +20345,7 @@
         <v>46606</v>
       </c>
       <c r="B1316" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1317">
@@ -20353,7 +20353,7 @@
         <v>46607</v>
       </c>
       <c r="B1317" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1318">
@@ -20361,7 +20361,7 @@
         <v>46608</v>
       </c>
       <c r="B1318" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1319">
@@ -20369,7 +20369,7 @@
         <v>46609</v>
       </c>
       <c r="B1319" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1320">
@@ -20377,7 +20377,7 @@
         <v>46610</v>
       </c>
       <c r="B1320" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1321">
@@ -20385,7 +20385,7 @@
         <v>46611</v>
       </c>
       <c r="B1321" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1322">
@@ -20393,7 +20393,7 @@
         <v>46612</v>
       </c>
       <c r="B1322" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1323">
@@ -20401,7 +20401,7 @@
         <v>46613</v>
       </c>
       <c r="B1323" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1324">
@@ -20409,7 +20409,7 @@
         <v>46614</v>
       </c>
       <c r="B1324" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1325">
@@ -20417,7 +20417,7 @@
         <v>46615</v>
       </c>
       <c r="B1325" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1326">
@@ -20425,7 +20425,7 @@
         <v>46616</v>
       </c>
       <c r="B1326" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1327">
@@ -20433,7 +20433,7 @@
         <v>46617</v>
       </c>
       <c r="B1327" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1328">
@@ -20441,7 +20441,7 @@
         <v>46618</v>
       </c>
       <c r="B1328" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1329">
@@ -20449,7 +20449,7 @@
         <v>46619</v>
       </c>
       <c r="B1329" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1330">
@@ -20457,7 +20457,7 @@
         <v>46620</v>
       </c>
       <c r="B1330" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1331">
@@ -20465,7 +20465,7 @@
         <v>46621</v>
       </c>
       <c r="B1331" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1332">
@@ -20473,7 +20473,7 @@
         <v>46622</v>
       </c>
       <c r="B1332" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1333">
@@ -20481,7 +20481,7 @@
         <v>46623</v>
       </c>
       <c r="B1333" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1334">
@@ -20489,7 +20489,7 @@
         <v>46624</v>
       </c>
       <c r="B1334" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1335">
@@ -20497,7 +20497,7 @@
         <v>46625</v>
       </c>
       <c r="B1335" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1336">
@@ -20505,7 +20505,7 @@
         <v>46626</v>
       </c>
       <c r="B1336" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1337">
@@ -20513,7 +20513,7 @@
         <v>46627</v>
       </c>
       <c r="B1337" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1338">
@@ -20521,7 +20521,7 @@
         <v>46628</v>
       </c>
       <c r="B1338" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1339">
@@ -20529,7 +20529,7 @@
         <v>46629</v>
       </c>
       <c r="B1339" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1340">
@@ -20537,7 +20537,7 @@
         <v>46630</v>
       </c>
       <c r="B1340" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1341">
@@ -20545,7 +20545,7 @@
         <v>46631</v>
       </c>
       <c r="B1341" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1342">
@@ -20553,7 +20553,7 @@
         <v>46632</v>
       </c>
       <c r="B1342" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1343">
@@ -20561,7 +20561,7 @@
         <v>46633</v>
       </c>
       <c r="B1343" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1344">
@@ -20569,7 +20569,7 @@
         <v>46634</v>
       </c>
       <c r="B1344" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1345">
@@ -20577,7 +20577,7 @@
         <v>46635</v>
       </c>
       <c r="B1345" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1346">
@@ -20585,7 +20585,7 @@
         <v>46636</v>
       </c>
       <c r="B1346" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1347">
@@ -20593,7 +20593,7 @@
         <v>46637</v>
       </c>
       <c r="B1347" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1348">
@@ -20601,7 +20601,7 @@
         <v>46638</v>
       </c>
       <c r="B1348" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1349">
@@ -20609,7 +20609,7 @@
         <v>46639</v>
       </c>
       <c r="B1349" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1350">
@@ -20617,7 +20617,7 @@
         <v>46640</v>
       </c>
       <c r="B1350" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1351">
@@ -20625,7 +20625,7 @@
         <v>46641</v>
       </c>
       <c r="B1351" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1352">
@@ -20633,7 +20633,7 @@
         <v>46642</v>
       </c>
       <c r="B1352" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1353">
@@ -20641,7 +20641,7 @@
         <v>46643</v>
       </c>
       <c r="B1353" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1354">
@@ -20649,7 +20649,7 @@
         <v>46644</v>
       </c>
       <c r="B1354" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1355">
@@ -20657,7 +20657,7 @@
         <v>46645</v>
       </c>
       <c r="B1355" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1356">
@@ -20665,7 +20665,7 @@
         <v>46646</v>
       </c>
       <c r="B1356" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1357">
@@ -20673,7 +20673,7 @@
         <v>46647</v>
       </c>
       <c r="B1357" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1358">
@@ -20681,7 +20681,7 @@
         <v>46648</v>
       </c>
       <c r="B1358" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1359">
@@ -20689,7 +20689,7 @@
         <v>46649</v>
       </c>
       <c r="B1359" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1360">
@@ -20697,7 +20697,7 @@
         <v>46650</v>
       </c>
       <c r="B1360" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1361">
@@ -20705,7 +20705,7 @@
         <v>46651</v>
       </c>
       <c r="B1361" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1362">
@@ -20713,7 +20713,7 @@
         <v>46652</v>
       </c>
       <c r="B1362" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1363">
@@ -20721,7 +20721,7 @@
         <v>46653</v>
       </c>
       <c r="B1363" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1364">
@@ -20729,7 +20729,7 @@
         <v>46654</v>
       </c>
       <c r="B1364" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1365">
@@ -20737,7 +20737,7 @@
         <v>46655</v>
       </c>
       <c r="B1365" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1366">
@@ -20745,7 +20745,7 @@
         <v>46656</v>
       </c>
       <c r="B1366" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1367">
@@ -20753,7 +20753,7 @@
         <v>46657</v>
       </c>
       <c r="B1367" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1368">
@@ -20761,7 +20761,7 @@
         <v>46658</v>
       </c>
       <c r="B1368" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1369">
@@ -20769,7 +20769,7 @@
         <v>46659</v>
       </c>
       <c r="B1369" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1370">
@@ -20777,7 +20777,7 @@
         <v>46660</v>
       </c>
       <c r="B1370" t="n">
-        <v>27.03</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="1371">
@@ -20785,7 +20785,7 @@
         <v>46661</v>
       </c>
       <c r="B1371" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1372">
@@ -20793,7 +20793,7 @@
         <v>46662</v>
       </c>
       <c r="B1372" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1373">
@@ -20801,7 +20801,7 @@
         <v>46663</v>
       </c>
       <c r="B1373" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1374">
@@ -20809,7 +20809,7 @@
         <v>46664</v>
       </c>
       <c r="B1374" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1375">
@@ -20817,7 +20817,7 @@
         <v>46665</v>
       </c>
       <c r="B1375" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1376">
@@ -20825,7 +20825,7 @@
         <v>46666</v>
       </c>
       <c r="B1376" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1377">
@@ -20833,7 +20833,7 @@
         <v>46667</v>
       </c>
       <c r="B1377" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1378">
@@ -20841,7 +20841,7 @@
         <v>46668</v>
       </c>
       <c r="B1378" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1379">
@@ -20849,7 +20849,7 @@
         <v>46669</v>
       </c>
       <c r="B1379" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1380">
@@ -20857,7 +20857,7 @@
         <v>46670</v>
       </c>
       <c r="B1380" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1381">
@@ -20865,7 +20865,7 @@
         <v>46671</v>
       </c>
       <c r="B1381" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1382">
@@ -20873,7 +20873,7 @@
         <v>46672</v>
       </c>
       <c r="B1382" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1383">
@@ -20881,7 +20881,7 @@
         <v>46673</v>
       </c>
       <c r="B1383" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1384">
@@ -20889,7 +20889,7 @@
         <v>46674</v>
       </c>
       <c r="B1384" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1385">
@@ -20897,7 +20897,7 @@
         <v>46675</v>
       </c>
       <c r="B1385" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1386">
@@ -20905,7 +20905,7 @@
         <v>46676</v>
       </c>
       <c r="B1386" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1387">
@@ -20913,7 +20913,7 @@
         <v>46677</v>
       </c>
       <c r="B1387" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1388">
@@ -20921,7 +20921,7 @@
         <v>46678</v>
       </c>
       <c r="B1388" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1389">
@@ -20929,7 +20929,7 @@
         <v>46679</v>
       </c>
       <c r="B1389" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1390">
@@ -20937,7 +20937,7 @@
         <v>46680</v>
       </c>
       <c r="B1390" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1391">
@@ -20945,7 +20945,7 @@
         <v>46681</v>
       </c>
       <c r="B1391" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1392">
@@ -20953,7 +20953,7 @@
         <v>46682</v>
       </c>
       <c r="B1392" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1393">
@@ -20961,7 +20961,7 @@
         <v>46683</v>
       </c>
       <c r="B1393" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1394">
@@ -20969,7 +20969,7 @@
         <v>46684</v>
       </c>
       <c r="B1394" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1395">
@@ -20977,7 +20977,7 @@
         <v>46685</v>
       </c>
       <c r="B1395" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1396">
@@ -20985,7 +20985,7 @@
         <v>46686</v>
       </c>
       <c r="B1396" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1397">
@@ -20993,7 +20993,7 @@
         <v>46687</v>
       </c>
       <c r="B1397" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1398">
@@ -21001,7 +21001,7 @@
         <v>46688</v>
       </c>
       <c r="B1398" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1399">
@@ -21009,7 +21009,7 @@
         <v>46689</v>
       </c>
       <c r="B1399" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1400">
@@ -21017,7 +21017,7 @@
         <v>46690</v>
       </c>
       <c r="B1400" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1401">
@@ -21025,7 +21025,7 @@
         <v>46691</v>
       </c>
       <c r="B1401" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1402">
@@ -21033,7 +21033,7 @@
         <v>46692</v>
       </c>
       <c r="B1402" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1403">
@@ -21041,7 +21041,7 @@
         <v>46693</v>
       </c>
       <c r="B1403" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1404">
@@ -21049,7 +21049,7 @@
         <v>46694</v>
       </c>
       <c r="B1404" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1405">
@@ -21057,7 +21057,7 @@
         <v>46695</v>
       </c>
       <c r="B1405" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1406">
@@ -21065,7 +21065,7 @@
         <v>46696</v>
       </c>
       <c r="B1406" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1407">
@@ -21073,7 +21073,7 @@
         <v>46697</v>
       </c>
       <c r="B1407" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1408">
@@ -21081,7 +21081,7 @@
         <v>46698</v>
       </c>
       <c r="B1408" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1409">
@@ -21089,7 +21089,7 @@
         <v>46699</v>
       </c>
       <c r="B1409" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1410">
@@ -21097,7 +21097,7 @@
         <v>46700</v>
       </c>
       <c r="B1410" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1411">
@@ -21105,7 +21105,7 @@
         <v>46701</v>
       </c>
       <c r="B1411" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1412">
@@ -21113,7 +21113,7 @@
         <v>46702</v>
       </c>
       <c r="B1412" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1413">
@@ -21121,7 +21121,7 @@
         <v>46703</v>
       </c>
       <c r="B1413" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1414">
@@ -21129,7 +21129,7 @@
         <v>46704</v>
       </c>
       <c r="B1414" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1415">
@@ -21137,7 +21137,7 @@
         <v>46705</v>
       </c>
       <c r="B1415" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1416">
@@ -21145,7 +21145,7 @@
         <v>46706</v>
       </c>
       <c r="B1416" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1417">
@@ -21153,7 +21153,7 @@
         <v>46707</v>
       </c>
       <c r="B1417" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1418">
@@ -21161,7 +21161,7 @@
         <v>46708</v>
       </c>
       <c r="B1418" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1419">
@@ -21169,7 +21169,7 @@
         <v>46709</v>
       </c>
       <c r="B1419" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1420">
@@ -21177,7 +21177,7 @@
         <v>46710</v>
       </c>
       <c r="B1420" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1421">
@@ -21185,7 +21185,7 @@
         <v>46711</v>
       </c>
       <c r="B1421" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1422">
@@ -21193,7 +21193,7 @@
         <v>46712</v>
       </c>
       <c r="B1422" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1423">
@@ -21201,7 +21201,7 @@
         <v>46713</v>
       </c>
       <c r="B1423" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1424">
@@ -21209,7 +21209,7 @@
         <v>46714</v>
       </c>
       <c r="B1424" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1425">
@@ -21217,7 +21217,7 @@
         <v>46715</v>
       </c>
       <c r="B1425" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1426">
@@ -21225,7 +21225,7 @@
         <v>46716</v>
       </c>
       <c r="B1426" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1427">
@@ -21233,7 +21233,7 @@
         <v>46717</v>
       </c>
       <c r="B1427" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1428">
@@ -21241,7 +21241,7 @@
         <v>46718</v>
       </c>
       <c r="B1428" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1429">
@@ -21249,7 +21249,7 @@
         <v>46719</v>
       </c>
       <c r="B1429" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1430">
@@ -21257,7 +21257,7 @@
         <v>46720</v>
       </c>
       <c r="B1430" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1431">
@@ -21265,7 +21265,7 @@
         <v>46721</v>
       </c>
       <c r="B1431" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1432">
@@ -21273,7 +21273,7 @@
         <v>46722</v>
       </c>
       <c r="B1432" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1433">
@@ -21281,7 +21281,7 @@
         <v>46723</v>
       </c>
       <c r="B1433" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1434">
@@ -21289,7 +21289,7 @@
         <v>46724</v>
       </c>
       <c r="B1434" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1435">
@@ -21297,7 +21297,7 @@
         <v>46725</v>
       </c>
       <c r="B1435" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1436">
@@ -21305,7 +21305,7 @@
         <v>46726</v>
       </c>
       <c r="B1436" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1437">
@@ -21313,7 +21313,7 @@
         <v>46727</v>
       </c>
       <c r="B1437" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1438">
@@ -21321,7 +21321,7 @@
         <v>46728</v>
       </c>
       <c r="B1438" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1439">
@@ -21329,7 +21329,7 @@
         <v>46729</v>
       </c>
       <c r="B1439" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1440">
@@ -21337,7 +21337,7 @@
         <v>46730</v>
       </c>
       <c r="B1440" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1441">
@@ -21345,7 +21345,7 @@
         <v>46731</v>
       </c>
       <c r="B1441" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1442">
@@ -21353,7 +21353,7 @@
         <v>46732</v>
       </c>
       <c r="B1442" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1443">
@@ -21361,7 +21361,7 @@
         <v>46733</v>
       </c>
       <c r="B1443" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1444">
@@ -21369,7 +21369,7 @@
         <v>46734</v>
       </c>
       <c r="B1444" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1445">
@@ -21377,7 +21377,7 @@
         <v>46735</v>
       </c>
       <c r="B1445" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1446">
@@ -21385,7 +21385,7 @@
         <v>46736</v>
       </c>
       <c r="B1446" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1447">
@@ -21393,7 +21393,7 @@
         <v>46737</v>
       </c>
       <c r="B1447" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1448">
@@ -21401,7 +21401,7 @@
         <v>46738</v>
       </c>
       <c r="B1448" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1449">
@@ -21409,7 +21409,7 @@
         <v>46739</v>
       </c>
       <c r="B1449" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1450">
@@ -21417,7 +21417,7 @@
         <v>46740</v>
       </c>
       <c r="B1450" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1451">
@@ -21425,7 +21425,7 @@
         <v>46741</v>
       </c>
       <c r="B1451" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1452">
@@ -21433,7 +21433,7 @@
         <v>46742</v>
       </c>
       <c r="B1452" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1453">
@@ -21441,7 +21441,7 @@
         <v>46743</v>
       </c>
       <c r="B1453" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1454">
@@ -21449,7 +21449,7 @@
         <v>46744</v>
       </c>
       <c r="B1454" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1455">
@@ -21457,7 +21457,7 @@
         <v>46745</v>
       </c>
       <c r="B1455" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1456">
@@ -21465,7 +21465,7 @@
         <v>46746</v>
       </c>
       <c r="B1456" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1457">
@@ -21473,7 +21473,7 @@
         <v>46747</v>
       </c>
       <c r="B1457" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1458">
@@ -21481,7 +21481,7 @@
         <v>46748</v>
       </c>
       <c r="B1458" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1459">
@@ -21489,7 +21489,7 @@
         <v>46749</v>
       </c>
       <c r="B1459" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1460">
@@ -21497,7 +21497,7 @@
         <v>46750</v>
       </c>
       <c r="B1460" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1461">
@@ -21505,7 +21505,7 @@
         <v>46751</v>
       </c>
       <c r="B1461" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="1462">
@@ -21513,7 +21513,7 @@
         <v>46752</v>
       </c>
       <c r="B1462" t="n">
-        <v>28.18</v>
+        <v>28.49</v>
       </c>
     </row>
   </sheetData>
@@ -21554,7 +21554,7 @@
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
     </row>
   </sheetData>

--- a/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
+++ b/Tarifarios_🔥_Gas_Natural_Tiago_Felicia.xlsx
@@ -15073,7 +15073,7 @@
         <v>45947</v>
       </c>
       <c r="B657" t="n">
-        <v>31.15</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="658">
@@ -15081,7 +15081,7 @@
         <v>45948</v>
       </c>
       <c r="B658" t="n">
-        <v>30.98</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="659">
@@ -15089,7 +15089,7 @@
         <v>45949</v>
       </c>
       <c r="B659" t="n">
-        <v>30.98</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="660">
@@ -15097,7 +15097,7 @@
         <v>45950</v>
       </c>
       <c r="B660" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="661">
@@ -15105,7 +15105,7 @@
         <v>45951</v>
       </c>
       <c r="B661" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="662">
@@ -15113,7 +15113,7 @@
         <v>45952</v>
       </c>
       <c r="B662" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="663">
@@ -15121,7 +15121,7 @@
         <v>45953</v>
       </c>
       <c r="B663" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="664">
@@ -15129,7 +15129,7 @@
         <v>45954</v>
       </c>
       <c r="B664" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="665">
@@ -15137,7 +15137,7 @@
         <v>45955</v>
       </c>
       <c r="B665" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="666">
@@ -15145,7 +15145,7 @@
         <v>45956</v>
       </c>
       <c r="B666" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="667">
@@ -15153,7 +15153,7 @@
         <v>45957</v>
       </c>
       <c r="B667" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="668">
@@ -15161,7 +15161,7 @@
         <v>45958</v>
       </c>
       <c r="B668" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="669">
@@ -15169,7 +15169,7 @@
         <v>45959</v>
       </c>
       <c r="B669" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="670">
@@ -15177,7 +15177,7 @@
         <v>45960</v>
       </c>
       <c r="B670" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="671">
@@ -15185,7 +15185,7 @@
         <v>45961</v>
       </c>
       <c r="B671" t="n">
-        <v>31.02</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="672">
@@ -15193,7 +15193,7 @@
         <v>45962</v>
       </c>
       <c r="B672" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="673">
@@ -15201,7 +15201,7 @@
         <v>45963</v>
       </c>
       <c r="B673" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="674">
@@ -15209,7 +15209,7 @@
         <v>45964</v>
       </c>
       <c r="B674" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="675">
@@ -15217,7 +15217,7 @@
         <v>45965</v>
       </c>
       <c r="B675" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="676">
@@ -15225,7 +15225,7 @@
         <v>45966</v>
       </c>
       <c r="B676" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="677">
@@ -15233,7 +15233,7 @@
         <v>45967</v>
       </c>
       <c r="B677" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="678">
@@ -15241,7 +15241,7 @@
         <v>45968</v>
       </c>
       <c r="B678" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="679">
@@ -15249,7 +15249,7 @@
         <v>45969</v>
       </c>
       <c r="B679" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="680">
@@ -15257,7 +15257,7 @@
         <v>45970</v>
       </c>
       <c r="B680" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="681">
@@ -15265,7 +15265,7 @@
         <v>45971</v>
       </c>
       <c r="B681" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="682">
@@ -15273,7 +15273,7 @@
         <v>45972</v>
       </c>
       <c r="B682" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="683">
@@ -15281,7 +15281,7 @@
         <v>45973</v>
       </c>
       <c r="B683" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="684">
@@ -15289,7 +15289,7 @@
         <v>45974</v>
       </c>
       <c r="B684" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="685">
@@ -15297,7 +15297,7 @@
         <v>45975</v>
       </c>
       <c r="B685" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="686">
@@ -15305,7 +15305,7 @@
         <v>45976</v>
       </c>
       <c r="B686" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="687">
@@ -15313,7 +15313,7 @@
         <v>45977</v>
       </c>
       <c r="B687" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="688">
@@ -15321,7 +15321,7 @@
         <v>45978</v>
       </c>
       <c r="B688" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="689">
@@ -15329,7 +15329,7 @@
         <v>45979</v>
       </c>
       <c r="B689" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="690">
@@ -15337,7 +15337,7 @@
         <v>45980</v>
       </c>
       <c r="B690" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="691">
@@ -15345,7 +15345,7 @@
         <v>45981</v>
       </c>
       <c r="B691" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="692">
@@ -15353,7 +15353,7 @@
         <v>45982</v>
       </c>
       <c r="B692" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="693">
@@ -15361,7 +15361,7 @@
         <v>45983</v>
       </c>
       <c r="B693" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="694">
@@ -15369,7 +15369,7 @@
         <v>45984</v>
       </c>
       <c r="B694" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="695">
@@ -15377,7 +15377,7 @@
         <v>45985</v>
       </c>
       <c r="B695" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="696">
@@ -15385,7 +15385,7 @@
         <v>45986</v>
       </c>
       <c r="B696" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="697">
@@ -15393,7 +15393,7 @@
         <v>45987</v>
       </c>
       <c r="B697" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="698">
@@ -15401,7 +15401,7 @@
         <v>45988</v>
       </c>
       <c r="B698" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="699">
@@ -15409,7 +15409,7 @@
         <v>45989</v>
       </c>
       <c r="B699" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="700">
@@ -15417,7 +15417,7 @@
         <v>45990</v>
       </c>
       <c r="B700" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="701">
@@ -15425,7 +15425,7 @@
         <v>45991</v>
       </c>
       <c r="B701" t="n">
-        <v>30.94</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="702">
@@ -15433,7 +15433,7 @@
         <v>45992</v>
       </c>
       <c r="B702" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="703">
@@ -15441,7 +15441,7 @@
         <v>45993</v>
       </c>
       <c r="B703" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="704">
@@ -15449,7 +15449,7 @@
         <v>45994</v>
       </c>
       <c r="B704" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="705">
@@ -15457,7 +15457,7 @@
         <v>45995</v>
       </c>
       <c r="B705" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="706">
@@ -15465,7 +15465,7 @@
         <v>45996</v>
       </c>
       <c r="B706" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="707">
@@ -15473,7 +15473,7 @@
         <v>45997</v>
       </c>
       <c r="B707" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="708">
@@ -15481,7 +15481,7 @@
         <v>45998</v>
       </c>
       <c r="B708" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="709">
@@ -15489,7 +15489,7 @@
         <v>45999</v>
       </c>
       <c r="B709" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="710">
@@ -15497,7 +15497,7 @@
         <v>46000</v>
       </c>
       <c r="B710" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="711">
@@ -15505,7 +15505,7 @@
         <v>46001</v>
       </c>
       <c r="B711" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="712">
@@ -15513,7 +15513,7 @@
         <v>46002</v>
       </c>
       <c r="B712" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="713">
@@ -15521,7 +15521,7 @@
         <v>46003</v>
       </c>
       <c r="B713" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="714">
@@ -15529,7 +15529,7 @@
         <v>46004</v>
       </c>
       <c r="B714" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="715">
@@ -15537,7 +15537,7 @@
         <v>46005</v>
       </c>
       <c r="B715" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="716">
@@ -15545,7 +15545,7 @@
         <v>46006</v>
       </c>
       <c r="B716" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="717">
@@ -15553,7 +15553,7 @@
         <v>46007</v>
       </c>
       <c r="B717" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="718">
@@ -15561,7 +15561,7 @@
         <v>46008</v>
       </c>
       <c r="B718" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="719">
@@ -15569,7 +15569,7 @@
         <v>46009</v>
       </c>
       <c r="B719" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="720">
@@ -15577,7 +15577,7 @@
         <v>46010</v>
       </c>
       <c r="B720" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="721">
@@ -15585,7 +15585,7 @@
         <v>46011</v>
       </c>
       <c r="B721" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="722">
@@ -15593,7 +15593,7 @@
         <v>46012</v>
       </c>
       <c r="B722" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="723">
@@ -15601,7 +15601,7 @@
         <v>46013</v>
       </c>
       <c r="B723" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="724">
@@ -15609,7 +15609,7 @@
         <v>46014</v>
       </c>
       <c r="B724" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="725">
@@ -15617,7 +15617,7 @@
         <v>46015</v>
       </c>
       <c r="B725" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="726">
@@ -15625,7 +15625,7 @@
         <v>46016</v>
       </c>
       <c r="B726" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="727">
@@ -15633,7 +15633,7 @@
         <v>46017</v>
       </c>
       <c r="B727" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="728">
@@ -15641,7 +15641,7 @@
         <v>46018</v>
       </c>
       <c r="B728" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="729">
@@ -15649,7 +15649,7 @@
         <v>46019</v>
       </c>
       <c r="B729" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="730">
@@ -15657,7 +15657,7 @@
         <v>46020</v>
       </c>
       <c r="B730" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="731">
@@ -15665,7 +15665,7 @@
         <v>46021</v>
       </c>
       <c r="B731" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="732">
@@ -15673,7 +15673,7 @@
         <v>46022</v>
       </c>
       <c r="B732" t="n">
-        <v>31.44</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="733">
@@ -15681,7 +15681,7 @@
         <v>46023</v>
       </c>
       <c r="B733" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="734">
@@ -15689,7 +15689,7 @@
         <v>46024</v>
       </c>
       <c r="B734" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="735">
@@ -15697,7 +15697,7 @@
         <v>46025</v>
       </c>
       <c r="B735" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="736">
@@ -15705,7 +15705,7 @@
         <v>46026</v>
       </c>
       <c r="B736" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="737">
@@ -15713,7 +15713,7 @@
         <v>46027</v>
       </c>
       <c r="B737" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="738">
@@ -15721,7 +15721,7 @@
         <v>46028</v>
       </c>
       <c r="B738" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="739">
@@ -15729,7 +15729,7 @@
         <v>46029</v>
       </c>
       <c r="B739" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="740">
@@ -15737,7 +15737,7 @@
         <v>46030</v>
       </c>
       <c r="B740" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="741">
@@ -15745,7 +15745,7 @@
         <v>46031</v>
       </c>
       <c r="B741" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="742">
@@ -15753,7 +15753,7 @@
         <v>46032</v>
       </c>
       <c r="B742" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="743">
@@ -15761,7 +15761,7 @@
         <v>46033</v>
       </c>
       <c r="B743" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="744">
@@ -15769,7 +15769,7 @@
         <v>46034</v>
       </c>
       <c r="B744" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="745">
@@ -15777,7 +15777,7 @@
         <v>46035</v>
       </c>
       <c r="B745" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="746">
@@ -15785,7 +15785,7 @@
         <v>46036</v>
       </c>
       <c r="B746" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="747">
@@ -15793,7 +15793,7 @@
         <v>46037</v>
       </c>
       <c r="B747" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="748">
@@ -15801,7 +15801,7 @@
         <v>46038</v>
       </c>
       <c r="B748" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="749">
@@ -15809,7 +15809,7 @@
         <v>46039</v>
       </c>
       <c r="B749" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="750">
@@ -15817,7 +15817,7 @@
         <v>46040</v>
       </c>
       <c r="B750" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="751">
@@ -15825,7 +15825,7 @@
         <v>46041</v>
       </c>
       <c r="B751" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="752">
@@ -15833,7 +15833,7 @@
         <v>46042</v>
       </c>
       <c r="B752" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="753">
@@ -15841,7 +15841,7 @@
         <v>46043</v>
       </c>
       <c r="B753" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="754">
@@ -15849,7 +15849,7 @@
         <v>46044</v>
       </c>
       <c r="B754" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="755">
@@ -15857,7 +15857,7 @@
         <v>46045</v>
       </c>
       <c r="B755" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="756">
@@ -15865,7 +15865,7 @@
         <v>46046</v>
       </c>
       <c r="B756" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="757">
@@ -15873,7 +15873,7 @@
         <v>46047</v>
       </c>
       <c r="B757" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="758">
@@ -15881,7 +15881,7 @@
         <v>46048</v>
       </c>
       <c r="B758" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="759">
@@ -15889,7 +15889,7 @@
         <v>46049</v>
       </c>
       <c r="B759" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="760">
@@ -15897,7 +15897,7 @@
         <v>46050</v>
       </c>
       <c r="B760" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="761">
@@ -15905,7 +15905,7 @@
         <v>46051</v>
       </c>
       <c r="B761" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="762">
@@ -15913,7 +15913,7 @@
         <v>46052</v>
       </c>
       <c r="B762" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="763">
@@ -15921,7 +15921,7 @@
         <v>46053</v>
       </c>
       <c r="B763" t="n">
-        <v>31.83</v>
+        <v>32.03</v>
       </c>
     </row>
     <row r="764">
@@ -15929,7 +15929,7 @@
         <v>46054</v>
       </c>
       <c r="B764" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="765">
@@ -15937,7 +15937,7 @@
         <v>46055</v>
       </c>
       <c r="B765" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="766">
@@ -15945,7 +15945,7 @@
         <v>46056</v>
       </c>
       <c r="B766" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="767">
@@ -15953,7 +15953,7 @@
         <v>46057</v>
       </c>
       <c r="B767" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="768">
@@ -15961,7 +15961,7 @@
         <v>46058</v>
       </c>
       <c r="B768" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="769">
@@ -15969,7 +15969,7 @@
         <v>46059</v>
       </c>
       <c r="B769" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="770">
@@ -15977,7 +15977,7 @@
         <v>46060</v>
       </c>
       <c r="B770" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="771">
@@ -15985,7 +15985,7 @@
         <v>46061</v>
       </c>
       <c r="B771" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="772">
@@ -15993,7 +15993,7 @@
         <v>46062</v>
       </c>
       <c r="B772" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="773">
@@ -16001,7 +16001,7 @@
         <v>46063</v>
       </c>
       <c r="B773" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="774">
@@ -16009,7 +16009,7 @@
         <v>46064</v>
       </c>
       <c r="B774" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="775">
@@ -16017,7 +16017,7 @@
         <v>46065</v>
       </c>
       <c r="B775" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="776">
@@ -16025,7 +16025,7 @@
         <v>46066</v>
       </c>
       <c r="B776" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="777">
@@ -16033,7 +16033,7 @@
         <v>46067</v>
       </c>
       <c r="B777" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="778">
@@ -16041,7 +16041,7 @@
         <v>46068</v>
       </c>
       <c r="B778" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="779">
@@ -16049,7 +16049,7 @@
         <v>46069</v>
       </c>
       <c r="B779" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="780">
@@ -16057,7 +16057,7 @@
         <v>46070</v>
       </c>
       <c r="B780" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         <v>46071</v>
       </c>
       <c r="B781" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="782">
@@ -16073,7 +16073,7 @@
         <v>46072</v>
       </c>
       <c r="B782" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="783">
@@ -16081,7 +16081,7 @@
         <v>46073</v>
       </c>
       <c r="B783" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="784">
@@ -16089,7 +16089,7 @@
         <v>46074</v>
       </c>
       <c r="B784" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="785">
@@ -16097,7 +16097,7 @@
         <v>46075</v>
       </c>
       <c r="B785" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="786">
@@ -16105,7 +16105,7 @@
         <v>46076</v>
       </c>
       <c r="B786" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="787">
@@ -16113,7 +16113,7 @@
         <v>46077</v>
       </c>
       <c r="B787" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="788">
@@ -16121,7 +16121,7 @@
         <v>46078</v>
       </c>
       <c r="B788" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="789">
@@ -16129,7 +16129,7 @@
         <v>46079</v>
       </c>
       <c r="B789" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="790">
@@ -16137,7 +16137,7 @@
         <v>46080</v>
       </c>
       <c r="B790" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="791">
@@ -16145,7 +16145,7 @@
         <v>46081</v>
       </c>
       <c r="B791" t="n">
-        <v>31.37</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="792">
@@ -16153,7 +16153,7 @@
         <v>46082</v>
       </c>
       <c r="B792" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="793">
@@ -16161,7 +16161,7 @@
         <v>46083</v>
       </c>
       <c r="B793" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="794">
@@ -16169,7 +16169,7 @@
         <v>46084</v>
       </c>
       <c r="B794" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="795">
@@ -16177,7 +16177,7 @@
         <v>46085</v>
       </c>
       <c r="B795" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="796">
@@ -16185,7 +16185,7 @@
         <v>46086</v>
       </c>
       <c r="B796" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="797">
@@ -16193,7 +16193,7 @@
         <v>46087</v>
       </c>
       <c r="B797" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="798">
@@ -16201,7 +16201,7 @@
         <v>46088</v>
       </c>
       <c r="B798" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="799">
@@ -16209,7 +16209,7 @@
         <v>46089</v>
       </c>
       <c r="B799" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="800">
@@ -16217,7 +16217,7 @@
         <v>46090</v>
       </c>
       <c r="B800" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="801">
@@ -16225,7 +16225,7 @@
         <v>46091</v>
       </c>
       <c r="B801" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="802">
@@ -16233,7 +16233,7 @@
         <v>46092</v>
       </c>
       <c r="B802" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="803">
@@ -16241,7 +16241,7 @@
         <v>46093</v>
       </c>
       <c r="B803" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="804">
@@ -16249,7 +16249,7 @@
         <v>46094</v>
       </c>
       <c r="B804" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="805">
@@ -16257,7 +16257,7 @@
         <v>46095</v>
       </c>
       <c r="B805" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="806">
@@ -16265,7 +16265,7 @@
         <v>46096</v>
       </c>
       <c r="B806" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="807">
@@ -16273,7 +16273,7 @@
         <v>46097</v>
       </c>
       <c r="B807" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="808">
@@ -16281,7 +16281,7 @@
         <v>46098</v>
       </c>
       <c r="B808" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="809">
@@ -16289,7 +16289,7 @@
         <v>46099</v>
       </c>
       <c r="B809" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="810">
@@ -16297,7 +16297,7 @@
         <v>46100</v>
       </c>
       <c r="B810" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="811">
@@ -16305,7 +16305,7 @@
         <v>46101</v>
       </c>
       <c r="B811" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="812">
@@ -16313,7 +16313,7 @@
         <v>46102</v>
       </c>
       <c r="B812" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="813">
@@ -16321,7 +16321,7 @@
         <v>46103</v>
       </c>
       <c r="B813" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="814">
@@ -16329,7 +16329,7 @@
         <v>46104</v>
       </c>
       <c r="B814" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="815">
@@ -16337,7 +16337,7 @@
         <v>46105</v>
       </c>
       <c r="B815" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="816">
@@ -16345,7 +16345,7 @@
         <v>46106</v>
       </c>
       <c r="B816" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="817">
@@ -16353,7 +16353,7 @@
         <v>46107</v>
       </c>
       <c r="B817" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="818">
@@ -16361,7 +16361,7 @@
         <v>46108</v>
       </c>
       <c r="B818" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="819">
@@ -16369,7 +16369,7 @@
         <v>46109</v>
       </c>
       <c r="B819" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="820">
@@ -16377,7 +16377,7 @@
         <v>46110</v>
       </c>
       <c r="B820" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="821">
@@ -16385,7 +16385,7 @@
         <v>46111</v>
       </c>
       <c r="B821" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="822">
@@ -16393,7 +16393,7 @@
         <v>46112</v>
       </c>
       <c r="B822" t="n">
-        <v>30.94</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="823">
@@ -16401,7 +16401,7 @@
         <v>46113</v>
       </c>
       <c r="B823" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="824">
@@ -16409,7 +16409,7 @@
         <v>46114</v>
       </c>
       <c r="B824" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="825">
@@ -16417,7 +16417,7 @@
         <v>46115</v>
       </c>
       <c r="B825" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="826">
@@ -16425,7 +16425,7 @@
         <v>46116</v>
       </c>
       <c r="B826" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="827">
@@ -16433,7 +16433,7 @@
         <v>46117</v>
       </c>
       <c r="B827" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="828">
@@ -16441,7 +16441,7 @@
         <v>46118</v>
       </c>
       <c r="B828" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="829">
@@ -16449,7 +16449,7 @@
         <v>46119</v>
       </c>
       <c r="B829" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="830">
@@ -16457,7 +16457,7 @@
         <v>46120</v>
       </c>
       <c r="B830" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="831">
@@ -16465,7 +16465,7 @@
         <v>46121</v>
       </c>
       <c r="B831" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="832">
@@ -16473,7 +16473,7 @@
         <v>46122</v>
       </c>
       <c r="B832" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="833">
@@ -16481,7 +16481,7 @@
         <v>46123</v>
       </c>
       <c r="B833" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="834">
@@ -16489,7 +16489,7 @@
         <v>46124</v>
       </c>
       <c r="B834" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="835">
@@ -16497,7 +16497,7 @@
         <v>46125</v>
       </c>
       <c r="B835" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="836">
@@ -16505,7 +16505,7 @@
         <v>46126</v>
       </c>
       <c r="B836" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="837">
@@ -16513,7 +16513,7 @@
         <v>46127</v>
       </c>
       <c r="B837" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="838">
@@ -16521,7 +16521,7 @@
         <v>46128</v>
       </c>
       <c r="B838" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="839">
@@ -16529,7 +16529,7 @@
         <v>46129</v>
       </c>
       <c r="B839" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="840">
@@ -16537,7 +16537,7 @@
         <v>46130</v>
       </c>
       <c r="B840" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="841">
@@ -16545,7 +16545,7 @@
         <v>46131</v>
       </c>
       <c r="B841" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="842">
@@ -16553,7 +16553,7 @@
         <v>46132</v>
       </c>
       <c r="B842" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="843">
@@ -16561,7 +16561,7 @@
         <v>46133</v>
       </c>
       <c r="B843" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="844">
@@ -16569,7 +16569,7 @@
         <v>46134</v>
       </c>
       <c r="B844" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="845">
@@ -16577,7 +16577,7 @@
         <v>46135</v>
       </c>
       <c r="B845" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="846">
@@ -16585,7 +16585,7 @@
         <v>46136</v>
       </c>
       <c r="B846" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="847">
@@ -16593,7 +16593,7 @@
         <v>46137</v>
       </c>
       <c r="B847" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="848">
@@ -16601,7 +16601,7 @@
         <v>46138</v>
       </c>
       <c r="B848" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="849">
@@ -16609,7 +16609,7 @@
         <v>46139</v>
       </c>
       <c r="B849" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="850">
@@ -16617,7 +16617,7 @@
         <v>46140</v>
       </c>
       <c r="B850" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="851">
@@ -16625,7 +16625,7 @@
         <v>46141</v>
       </c>
       <c r="B851" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="852">
@@ -16633,7 +16633,7 @@
         <v>46142</v>
       </c>
       <c r="B852" t="n">
-        <v>29.62</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="853">
@@ -16641,7 +16641,7 @@
         <v>46143</v>
       </c>
       <c r="B853" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="854">
@@ -16649,7 +16649,7 @@
         <v>46144</v>
       </c>
       <c r="B854" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="855">
@@ -16657,7 +16657,7 @@
         <v>46145</v>
       </c>
       <c r="B855" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="856">
@@ -16665,7 +16665,7 @@
         <v>46146</v>
       </c>
       <c r="B856" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="857">
@@ -16673,7 +16673,7 @@
         <v>46147</v>
       </c>
       <c r="B857" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="858">
@@ -16681,7 +16681,7 @@
         <v>46148</v>
       </c>
       <c r="B858" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="859">
@@ -16689,7 +16689,7 @@
         <v>46149</v>
       </c>
       <c r="B859" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="860">
@@ -16697,7 +16697,7 @@
         <v>46150</v>
       </c>
       <c r="B860" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="861">
@@ -16705,7 +16705,7 @@
         <v>46151</v>
       </c>
       <c r="B861" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="862">
@@ -16713,7 +16713,7 @@
         <v>46152</v>
       </c>
       <c r="B862" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="863">
@@ -16721,7 +16721,7 @@
         <v>46153</v>
       </c>
       <c r="B863" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="864">
@@ -16729,7 +16729,7 @@
         <v>46154</v>
       </c>
       <c r="B864" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="865">
@@ -16737,7 +16737,7 @@
         <v>46155</v>
       </c>
       <c r="B865" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="866">
@@ -16745,7 +16745,7 @@
         <v>46156</v>
       </c>
       <c r="B866" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="867">
@@ -16753,7 +16753,7 @@
         <v>46157</v>
       </c>
       <c r="B867" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="868">
@@ -16761,7 +16761,7 @@
         <v>46158</v>
       </c>
       <c r="B868" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="869">
@@ -16769,7 +16769,7 @@
         <v>46159</v>
       </c>
       <c r="B869" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="870">
@@ -16777,7 +16777,7 @@
         <v>46160</v>
       </c>
       <c r="B870" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="871">
@@ -16785,7 +16785,7 @@
         <v>46161</v>
       </c>
       <c r="B871" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="872">
@@ -16793,7 +16793,7 @@
         <v>46162</v>
       </c>
       <c r="B872" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="873">
@@ -16801,7 +16801,7 @@
         <v>46163</v>
       </c>
       <c r="B873" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="874">
@@ -16809,7 +16809,7 @@
         <v>46164</v>
       </c>
       <c r="B874" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="875">
@@ -16817,7 +16817,7 @@
         <v>46165</v>
       </c>
       <c r="B875" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="876">
@@ -16825,7 +16825,7 @@
         <v>46166</v>
       </c>
       <c r="B876" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="877">
@@ -16833,7 +16833,7 @@
         <v>46167</v>
       </c>
       <c r="B877" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="878">
@@ -16841,7 +16841,7 @@
         <v>46168</v>
       </c>
       <c r="B878" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="879">
@@ -16849,7 +16849,7 @@
         <v>46169</v>
       </c>
       <c r="B879" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="880">
@@ -16857,7 +16857,7 @@
         <v>46170</v>
       </c>
       <c r="B880" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="881">
@@ -16865,7 +16865,7 @@
         <v>46171</v>
       </c>
       <c r="B881" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="882">
@@ -16873,7 +16873,7 @@
         <v>46172</v>
       </c>
       <c r="B882" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="883">
@@ -16881,7 +16881,7 @@
         <v>46173</v>
       </c>
       <c r="B883" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="884">
@@ -16889,7 +16889,7 @@
         <v>46174</v>
       </c>
       <c r="B884" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="885">
@@ -16897,7 +16897,7 @@
         <v>46175</v>
       </c>
       <c r="B885" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="886">
@@ -16905,7 +16905,7 @@
         <v>46176</v>
       </c>
       <c r="B886" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="887">
@@ -16913,7 +16913,7 @@
         <v>46177</v>
       </c>
       <c r="B887" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="888">
@@ -16921,7 +16921,7 @@
         <v>46178</v>
       </c>
       <c r="B888" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="889">
@@ -16929,7 +16929,7 @@
         <v>46179</v>
       </c>
       <c r="B889" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="890">
@@ -16937,7 +16937,7 @@
         <v>46180</v>
       </c>
       <c r="B890" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="891">
@@ -16945,7 +16945,7 @@
         <v>46181</v>
       </c>
       <c r="B891" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="892">
@@ -16953,7 +16953,7 @@
         <v>46182</v>
       </c>
       <c r="B892" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="893">
@@ -16961,7 +16961,7 @@
         <v>46183</v>
       </c>
       <c r="B893" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="894">
@@ -16969,7 +16969,7 @@
         <v>46184</v>
       </c>
       <c r="B894" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="895">
@@ -16977,7 +16977,7 @@
         <v>46185</v>
       </c>
       <c r="B895" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="896">
@@ -16985,7 +16985,7 @@
         <v>46186</v>
       </c>
       <c r="B896" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="897">
@@ -16993,7 +16993,7 @@
         <v>46187</v>
       </c>
       <c r="B897" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="898">
@@ -17001,7 +17001,7 @@
         <v>46188</v>
       </c>
       <c r="B898" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="899">
@@ -17009,7 +17009,7 @@
         <v>46189</v>
       </c>
       <c r="B899" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="900">
@@ -17017,7 +17017,7 @@
         <v>46190</v>
       </c>
       <c r="B900" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="901">
@@ -17025,7 +17025,7 @@
         <v>46191</v>
       </c>
       <c r="B901" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="902">
@@ -17033,7 +17033,7 @@
         <v>46192</v>
       </c>
       <c r="B902" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="903">
@@ -17041,7 +17041,7 @@
         <v>46193</v>
       </c>
       <c r="B903" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="904">
@@ -17049,7 +17049,7 @@
         <v>46194</v>
       </c>
       <c r="B904" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="905">
@@ -17057,7 +17057,7 @@
         <v>46195</v>
       </c>
       <c r="B905" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="906">
@@ -17065,7 +17065,7 @@
         <v>46196</v>
       </c>
       <c r="B906" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="907">
@@ -17073,7 +17073,7 @@
         <v>46197</v>
       </c>
       <c r="B907" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="908">
@@ -17081,7 +17081,7 @@
         <v>46198</v>
       </c>
       <c r="B908" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="909">
@@ -17089,7 +17089,7 @@
         <v>46199</v>
       </c>
       <c r="B909" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="910">
@@ -17097,7 +17097,7 @@
         <v>46200</v>
       </c>
       <c r="B910" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="911">
@@ -17105,7 +17105,7 @@
         <v>46201</v>
       </c>
       <c r="B911" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="912">
@@ -17113,7 +17113,7 @@
         <v>46202</v>
       </c>
       <c r="B912" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="913">
@@ -17121,7 +17121,7 @@
         <v>46203</v>
       </c>
       <c r="B913" t="n">
-        <v>29.51</v>
+        <v>29.26</v>
       </c>
     </row>
     <row r="914">
@@ -17129,7 +17129,7 @@
         <v>46204</v>
       </c>
       <c r="B914" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="915">
@@ -17137,7 +17137,7 @@
         <v>46205</v>
       </c>
       <c r="B915" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="916">
@@ -17145,7 +17145,7 @@
         <v>46206</v>
       </c>
       <c r="B916" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="917">
@@ -17153,7 +17153,7 @@
         <v>46207</v>
       </c>
       <c r="B917" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="918">
@@ -17161,7 +17161,7 @@
         <v>46208</v>
       </c>
       <c r="B918" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="919">
@@ -17169,7 +17169,7 @@
         <v>46209</v>
       </c>
       <c r="B919" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="920">
@@ -17177,7 +17177,7 @@
         <v>46210</v>
       </c>
       <c r="B920" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="921">
@@ -17185,7 +17185,7 @@
         <v>46211</v>
       </c>
       <c r="B921" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="922">
@@ -17193,7 +17193,7 @@
         <v>46212</v>
       </c>
       <c r="B922" t="n">
-        <v>29.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="923">
@@ -17201,7 +17201,7 @@
         <v>46213</v>
       </c>
   